--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1413.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1413.xlsx
@@ -9276,17 +9276,17 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0</v>
+        <v>0.03413007308385713</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0</v>
+        <v>0.0005312223602654866</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0</v>
+        <v>0.05026249116434471</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0</v>
+        <v>0.000782317668161549</v>
       </c>
       <c r="L65" s="172" t="n">
         <v>0</v>
@@ -9295,10 +9295,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0</v>
+        <v>0.1314381626160788</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0006427450787802616</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.03413007308385713</v>
+        <v>0.06143413155094284</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005312223602654866</v>
+        <v>0.00159366708079646</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.0607698</v>
+        <v>0.07551098636182939</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0009458601658878504</v>
+        <v>0.001596481351833739</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.1207698</v>
+        <v>0.1048273002579367</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008839814634465894</v>
+        <v>0.0008209996837913741</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.1807698</v>
+        <v>0.2096554961760706</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001039406775700934</v>
+        <v>0.001595548507073318</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.06143413155094284</v>
+        <v>0.06874620732141964</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00159366708079646</v>
+        <v>0.003180461061286904</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.07698086014515294</v>
+        <v>0.09665863685450905</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001512428852054335</v>
+        <v>0.002837580497663551</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1494941270036975</v>
+        <v>0.1747121670965611</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001438412634461464</v>
+        <v>0.002837580497663552</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.2110105601910518</v>
+        <v>0.2527656973386131</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001452342626777819</v>
+        <v>0.002651944390339767</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.05385550733966839</v>
+        <v>0.0699132442597119</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002339972617088367</v>
+        <v>0.004770691591930356</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.09665863685450908</v>
+        <v>0.1095260300860566</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002507428423594709</v>
+        <v>0.004789444055501216</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1747121670965611</v>
+        <v>0.1977155073560067</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002131359511400244</v>
+        <v>0.004789444055501216</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2527656973386131</v>
+        <v>0.2895310177528309</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002422292315775147</v>
+        <v>0.004786645521219953</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.06824675973324199</v>
+        <v>0.07602222972905631</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003119963489451155</v>
+        <v>0.006360922122573808</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1003818890627399</v>
+        <v>0.1205209097566608</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00302485770410867</v>
+        <v>0.006385925407334955</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1854114543718491</v>
+        <v>0.2140478009128728</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002876825268922929</v>
+        <v>0.006385925407334955</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.2611796017143341</v>
+        <v>0.3159654909705019</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002904685253555638</v>
+        <v>0.006382194028293271</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.03413007308385713</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.06440870242317553</v>
+        <v>0.08017948735163302</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003899954361813944</v>
+        <v>0.007951152653217261</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.106930499998627</v>
+        <v>0.1287729676804342</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003781072130135836</v>
+        <v>0.007982406759168692</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1967638636367839</v>
+        <v>0.2310193359687599</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003596031586153661</v>
+        <v>0.007982406759168692</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.2753976247043312</v>
+        <v>0.3391425766040781</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003630856566944547</v>
+        <v>0.007977742535366589</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.07634686159227486</v>
+        <v>0.09249134074962215</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004679945234176733</v>
+        <v>0.009541383183860712</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1133251586655835</v>
+        <v>0.1362911595855205</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004537286556163003</v>
+        <v>0.009578888111002432</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.2070878616933648</v>
+        <v>0.2446987486485241</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004315237903384393</v>
+        <v>0.009578888111002432</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2904673447658573</v>
+        <v>0.3585534568843806</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004357027880333457</v>
+        <v>0.009573291042439907</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.07406676342334573</v>
+        <v>0.08406411354520385</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005459936106539522</v>
+        <v>0.01113161371450416</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1190685751255335</v>
+        <v>0.1435844412000634</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005293500982190172</v>
+        <v>0.01117536946283617</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.2139888597842389</v>
+        <v>0.2564546750770215</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005034444220615125</v>
+        <v>0.01117536946283617</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.3060918775114844</v>
+        <v>0.37678931404223</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005083199193722365</v>
+        <v>0.01116883954951322</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.08057393409919408</v>
+        <v>0.09300412936055835</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006239926978902311</v>
+        <v>0.01272184424514762</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1230634594404008</v>
+        <v>0.1475617682522064</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006049715408217339</v>
+        <v>0.01277185081466991</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.2229722691520532</v>
+        <v>0.2677557513791078</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005753650537845857</v>
+        <v>0.01277185081466991</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.3174743385537842</v>
+        <v>0.3877413303084479</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005809370507111275</v>
+        <v>0.01276438805658654</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.08187389980262566</v>
+        <v>0.09941771181786574</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007019917851265101</v>
+        <v>0.01431207477579107</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1294125216721096</v>
+        <v>0.1532320964700932</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006805929834244506</v>
+        <v>0.01436833216650365</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.2321435010394547</v>
+        <v>0.2743706136796394</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006472856855076589</v>
+        <v>0.01436833216650365</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.3335178435053282</v>
+        <v>0.4012006879138551</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006535541820500185</v>
+        <v>0.01435993656365986</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.08597218671644635</v>
+        <v>0.09141118453930619</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007799908723627889</v>
+        <v>0.01590230530643452</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1341184718825837</v>
+        <v>0.1574043815818675</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007562144260271673</v>
+        <v>0.01596481351833738</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.2434079666890904</v>
+        <v>0.2821678981034721</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007192063172307322</v>
+        <v>0.01596481351833738</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.3456255079786884</v>
+        <v>0.4144585690892726</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007261713133889095</v>
+        <v>0.01595548507073318</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.08687432102346193</v>
+        <v>0.1050908711470599</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008579899595990677</v>
+        <v>0.01749253583707797</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1383840201337474</v>
+        <v>0.1607875793156729</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00831835868629884</v>
+        <v>0.01756129487017113</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.2487710773436074</v>
+        <v>0.2913162407754621</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007911269489538054</v>
+        <v>0.01756129487017113</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.3558004475864367</v>
+        <v>0.4219061560655214</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007987884447278003</v>
+        <v>0.01755103357780649</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.09658582890647824</v>
+        <v>0.09756309526330695</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009359890468353466</v>
+        <v>0.01908276636772142</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1439118764875245</v>
+        <v>0.1633906453996531</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009074573112326007</v>
+        <v>0.01915777622200486</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2567382442456526</v>
+        <v>0.2950842778204652</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008630475806768786</v>
+        <v>0.01915777622200486</v>
       </c>
       <c r="N77" t="n">
-        <v>0.3683457779411446</v>
+        <v>0.4319346310734229</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008714055760666913</v>
+        <v>0.01914658208487981</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.09511223654830114</v>
+        <v>0.1009341805102275</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01013988134071626</v>
+        <v>0.02067299689836487</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1474047510058389</v>
+        <v>0.1673225355619516</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009830787538353175</v>
+        <v>0.0207542575738386</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2639148786378731</v>
+        <v>0.3002406453633375</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009349682123999517</v>
+        <v>0.0207542575738386</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3760646146553838</v>
+        <v>0.4395351763437978</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009440227074055823</v>
+        <v>0.02074213059195313</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.09645907013173641</v>
+        <v>0.1013104505100018</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01091987221307904</v>
+        <v>0.02226322742900833</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1513653537506148</v>
+        <v>0.169892205530712</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01058700196438034</v>
+        <v>0.02235073892567234</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2729063917629159</v>
+        <v>0.305753979528935</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01006888844123025</v>
+        <v>0.02235073892567234</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3883600733417265</v>
+        <v>0.4434989741074672</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01016639838744473</v>
+        <v>0.02233767909902645</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.10363185583959</v>
+        <v>0.098739754209099</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01169986308544183</v>
+        <v>0.02385345795965178</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1551963947837763</v>
+        <v>0.1715086098819899</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01134321639040751</v>
+        <v>0.02394722027750608</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2774181948634279</v>
+        <v>0.3112930641831781</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01078809475846098</v>
+        <v>0.02394722027750608</v>
       </c>
       <c r="N80" t="n">
-        <v>0.3965352696127442</v>
+        <v>0.4470166661701623</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01089256970083364</v>
+        <v>0.02393322760609977</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0996361198546675</v>
+        <v>0.110135685192717</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01247985395780462</v>
+        <v>0.02544368849029523</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1589005841672472</v>
+        <v>0.1743576246081168</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01209943081643468</v>
+        <v>0.02554370162933982</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2868556991820565</v>
+        <v>0.3135581974130742</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01150730107569171</v>
+        <v>0.02554370162933982</v>
       </c>
       <c r="N81" t="n">
-        <v>0.4077933190810086</v>
+        <v>0.4538784960164441</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01161874101422255</v>
+        <v>0.02552877611317309</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0984773883597749</v>
+        <v>0.1024853527962221</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01325984483016741</v>
+        <v>0.02703391902093868</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1631806319629515</v>
+        <v>0.1753433266531313</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01285564524246184</v>
+        <v>0.02714018298117356</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2901243159614484</v>
+        <v>0.3178088918707939</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01222650739292245</v>
+        <v>0.02714018298117356</v>
       </c>
       <c r="N82" t="n">
-        <v>0.4156373373590916</v>
+        <v>0.4620710368922681</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01234491232761146</v>
+        <v>0.0271243246202464</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1031611875377181</v>
+        <v>0.1117799464468414</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0140398357025302</v>
+        <v>0.02862414955158214</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1646392482328132</v>
+        <v>0.179151689612054</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01361185966848901</v>
+        <v>0.0287366643330073</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2953294564442505</v>
+        <v>0.3221197945854056</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01294571371015318</v>
+        <v>0.0287366643330073</v>
       </c>
       <c r="N83" t="n">
-        <v>0.4274704400595649</v>
+        <v>0.464157673520174</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01307108364100037</v>
+        <v>0.02871987312731972</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1006930435713027</v>
+        <v>0.110010655571802</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01481982657489299</v>
+        <v>0.03021438008222559</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1674791430387565</v>
+        <v>0.1796686870799057</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01436807409451618</v>
+        <v>0.03033314568484103</v>
       </c>
       <c r="L84" t="n">
-        <v>0.3013765318731101</v>
+        <v>0.325265552585977</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01366492002738391</v>
+        <v>0.03033314568484103</v>
       </c>
       <c r="N84" t="n">
-        <v>0.4345957427950001</v>
+        <v>0.4699017906227027</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01379725495438928</v>
+        <v>0.03031542163439304</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1040784826433347</v>
+        <v>0.1141686695983309</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01559981744725578</v>
+        <v>0.03180461061286904</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1711030264427053</v>
+        <v>0.1817802926517071</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01512428852054335</v>
+        <v>0.03192962703667477</v>
       </c>
       <c r="L85" t="n">
-        <v>0.3063709534906741</v>
+        <v>0.327920812901576</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01438412634461464</v>
+        <v>0.03192962703667477</v>
       </c>
       <c r="N85" t="n">
-        <v>0.4400163611779693</v>
+        <v>0.477866772922394</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01452342626777819</v>
+        <v>0.03191097014146636</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.10632303093662</v>
+        <v>0.1142451779536555</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01637980831961857</v>
+        <v>0.03339484114351249</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1742136085065836</v>
+        <v>0.1845724799224789</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01588050294657051</v>
+        <v>0.03352610838850852</v>
       </c>
       <c r="L86" t="n">
-        <v>0.3107181325395895</v>
+        <v>0.3318602225612707</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01510333266184538</v>
+        <v>0.03352610838850852</v>
       </c>
       <c r="N86" t="n">
-        <v>0.4487354108210443</v>
+        <v>0.4791160051417885</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0152495975811671</v>
+        <v>0.03350651864853967</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1144322146339642</v>
+        <v>0.1092313700650026</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01715979919198135</v>
+        <v>0.03498507167415594</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1759135992923154</v>
+        <v>0.1863312224872419</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01663671737259768</v>
+        <v>0.03512258974034226</v>
       </c>
       <c r="L87" t="n">
-        <v>0.3152234802625034</v>
+        <v>0.3350584285941288</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01582253897907611</v>
+        <v>0.03512258974034226</v>
       </c>
       <c r="N87" t="n">
-        <v>0.4552560073367967</v>
+        <v>0.4848128720034264</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01597576889455601</v>
+        <v>0.03510206715561299</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1144115599181733</v>
+        <v>0.1131184353595996</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01793979006434414</v>
+        <v>0.0365753022047994</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1779057088618247</v>
+        <v>0.1867424939410166</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01739293179862485</v>
+        <v>0.03671907109217599</v>
       </c>
       <c r="L88" t="n">
-        <v>0.3186924079020627</v>
+        <v>0.3374900780292185</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01654174529630684</v>
+        <v>0.03671907109217599</v>
       </c>
       <c r="N88" t="n">
-        <v>0.4602812663377981</v>
+        <v>0.4888207582298482</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01670194020794492</v>
+        <v>0.03669761566268631</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.106266592972053</v>
+        <v>0.1138975632646734</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01871978093670693</v>
+        <v>0.03816553273544285</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1806926472770354</v>
+        <v>0.1888922678788238</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01814914622465201</v>
+        <v>0.03831555244400973</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3237303267009146</v>
+        <v>0.3411298178956075</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01726095161353757</v>
+        <v>0.03831555244400973</v>
       </c>
       <c r="N89" t="n">
-        <v>0.4651143034366204</v>
+        <v>0.4945030485435941</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01742811152133383</v>
+        <v>0.03829316416975963</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1170028399784093</v>
+        <v>0.1215599432074513</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01949977180906972</v>
+        <v>0.0397557632660863</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1816771245998717</v>
+        <v>0.1899665178956843</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01890536065067918</v>
+        <v>0.03991203379584347</v>
       </c>
       <c r="L90" t="n">
-        <v>0.3258426479017059</v>
+        <v>0.3424522952223636</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0179801579307683</v>
+        <v>0.03991203379584347</v>
       </c>
       <c r="N90" t="n">
-        <v>0.4698582342458354</v>
+        <v>0.4968231276672044</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01815428283472274</v>
+        <v>0.03988871267683294</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1116258271200479</v>
+        <v>0.1130967646151604</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02027976268143251</v>
+        <v>0.04134599379672975</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1821618508922576</v>
+        <v>0.1900512175866186</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01966157507670635</v>
+        <v>0.04150851514767721</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3279347827470837</v>
+        <v>0.3435321570385551</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01869936424799903</v>
+        <v>0.04150851514767721</v>
       </c>
       <c r="N91" t="n">
-        <v>0.474416174378015</v>
+        <v>0.5007443803232194</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01888045414811165</v>
+        <v>0.04148426118390627</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1091410805797746</v>
+        <v>0.1214992169150276</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0210597535537953</v>
+        <v>0.0429362243273732</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1848495362161169</v>
+        <v>0.1905323405466477</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02041778950273352</v>
+        <v>0.04310499649951095</v>
       </c>
       <c r="L92" t="n">
-        <v>0.3308121424796951</v>
+        <v>0.3474440503732498</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01941857056522977</v>
+        <v>0.04310499649951095</v>
       </c>
       <c r="N92" t="n">
-        <v>0.4768912394457308</v>
+        <v>0.5011301912341796</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01960662546150056</v>
+        <v>0.04307980969097958</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1125541265403953</v>
+        <v>0.1228682631018857</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02183974442615809</v>
+        <v>0.04452645485801665</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1852428906333738</v>
+        <v>0.1926958603707921</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02117400392876069</v>
+        <v>0.04470147785134469</v>
       </c>
       <c r="L93" t="n">
-        <v>0.332480138342187</v>
+        <v>0.3480626222555155</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0201377768824605</v>
+        <v>0.04470147785134469</v>
       </c>
       <c r="N93" t="n">
-        <v>0.4793865450615544</v>
+        <v>0.502643945122625</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02033279677488946</v>
+        <v>0.04467535819805289</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1148704911847158</v>
+        <v>0.1228657719001454</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02261973529852088</v>
+        <v>0.04611668538866011</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1855446242059522</v>
+        <v>0.1933172737090181</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02193021835478785</v>
+        <v>0.04629795920317843</v>
       </c>
       <c r="L94" t="n">
-        <v>0.3364441815772067</v>
+        <v>0.3494243341931222</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02085698319969123</v>
+        <v>0.04629795920317843</v>
       </c>
       <c r="N94" t="n">
-        <v>0.484105206838058</v>
+        <v>0.5055313946772262</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02105896808827838</v>
+        <v>0.04627090670512621</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.110095700695542</v>
+        <v>0.1118416482390299</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02339972617088366</v>
+        <v>0.04770691591930356</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1877574469957762</v>
+        <v>0.1921156714708848</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02268643278081502</v>
+        <v>0.04789444055501216</v>
       </c>
       <c r="L95" t="n">
-        <v>0.3354096834274007</v>
+        <v>0.3483214381198318</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02157618951692197</v>
+        <v>0.04789444055501216</v>
       </c>
       <c r="N95" t="n">
-        <v>0.4860503403878133</v>
+        <v>0.5026204376860869</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02178513940166728</v>
+        <v>0.04786645521219953</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1122352812556796</v>
+        <v>0.1167405197423575</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02417971704324645</v>
+        <v>0.04929714644994701</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1885840690647698</v>
+        <v>0.1915343571616432</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02344264720684219</v>
+        <v>0.0494909219068459</v>
       </c>
       <c r="L96" t="n">
-        <v>0.3385820551354165</v>
+        <v>0.3469744610917476</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0222953958341527</v>
+        <v>0.0494909219068459</v>
       </c>
       <c r="N96" t="n">
-        <v>0.4898250613233919</v>
+        <v>0.5033768009089791</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02251131071505619</v>
+        <v>0.04946200371927285</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1162947590479345</v>
+        <v>0.1125682919506087</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02495970791560924</v>
+        <v>0.05088737698059046</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1880272004748569</v>
+        <v>0.1914354336312933</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02419886163286936</v>
+        <v>0.05108740325867964</v>
       </c>
       <c r="L97" t="n">
-        <v>0.3399667079439009</v>
+        <v>0.3478149033511783</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02301460215138343</v>
+        <v>0.05108740325867964</v>
       </c>
       <c r="N97" t="n">
-        <v>0.4919324852573653</v>
+        <v>0.5017278666560376</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0232374820284451</v>
+        <v>0.05105755222634617</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1112505992551152</v>
+        <v>0.1173296082897175</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02573969878797203</v>
+        <v>0.05247760751123391</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1881895512879616</v>
+        <v>0.1919262931997584</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02495507605889652</v>
+        <v>0.05268388461051338</v>
       </c>
       <c r="L98" t="n">
-        <v>0.337969053095501</v>
+        <v>0.3462561266449441</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02373380846861416</v>
+        <v>0.05268388461051338</v>
       </c>
       <c r="N98" t="n">
-        <v>0.4912757278023057</v>
+        <v>0.4996929322344098</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02396365334183401</v>
+        <v>0.05265310073341948</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1130352339500716</v>
+        <v>0.1140291121856183</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02651968966033482</v>
+        <v>0.05406783804187736</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1888521624071108</v>
+        <v>0.1918143281869615</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02571129048492369</v>
+        <v>0.05428036596234712</v>
       </c>
       <c r="L99" t="n">
-        <v>0.3403945018328638</v>
+        <v>0.3460114927198656</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02445301478584489</v>
+        <v>0.05428036596234712</v>
       </c>
       <c r="N99" t="n">
-        <v>0.4913579045707848</v>
+        <v>0.501291294951243</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02468982465522292</v>
+        <v>0.0542486492404928</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.119665205308542</v>
+        <v>0.1186714470642449</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02729968053269761</v>
+        <v>0.05565806857252081</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1871385132964916</v>
+        <v>0.1910069309128258</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02646750491095086</v>
+        <v>0.05587684731418086</v>
       </c>
       <c r="L100" t="n">
-        <v>0.3388484653986361</v>
+        <v>0.3465943633227632</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02517222110307563</v>
+        <v>0.05587684731418086</v>
       </c>
       <c r="N100" t="n">
-        <v>0.4930820511174615</v>
+        <v>0.4995422521136843</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02541599596861183</v>
+        <v>0.05584419774756612</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.110162044471241</v>
+        <v>0.1092612563515317</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0280796714050604</v>
+        <v>0.05724829910316427</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1863714893230293</v>
+        <v>0.1897114936972747</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02722371933697802</v>
+        <v>0.05747332866601459</v>
       </c>
       <c r="L101" t="n">
-        <v>0.3400245285978142</v>
+        <v>0.3453181002004571</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02589142742030636</v>
+        <v>0.05747332866601459</v>
       </c>
       <c r="N101" t="n">
-        <v>0.4917579603026254</v>
+        <v>0.4983651010288814</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02614216728200074</v>
+        <v>0.05743974625463943</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1145472825788829</v>
+        <v>0.1098031834734128</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02885966227742319</v>
+        <v>0.05883852963380772</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1862853669692335</v>
+        <v>0.1902354088602311</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02797993376300519</v>
+        <v>0.05906981001784833</v>
       </c>
       <c r="L102" t="n">
-        <v>0.3401238230646187</v>
+        <v>0.3410960650997675</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02661063373753709</v>
+        <v>0.05906981001784833</v>
       </c>
       <c r="N102" t="n">
-        <v>0.4929192349472067</v>
+        <v>0.4936791390039814</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02686833859538965</v>
+        <v>0.05903529476171275</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1178424507721823</v>
+        <v>0.1123018718558223</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02963965314978598</v>
+        <v>0.06042876016445117</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1859144227176134</v>
+        <v>0.1883860687216183</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02873614818903236</v>
+        <v>0.06066629136968207</v>
       </c>
       <c r="L103" t="n">
-        <v>0.3393702556083414</v>
+        <v>0.3413416197675151</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02732984005476782</v>
+        <v>0.06066629136968207</v>
       </c>
       <c r="N103" t="n">
-        <v>0.4898038627047908</v>
+        <v>0.4936036633461316</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02759450990877856</v>
+        <v>0.06063084326878607</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1080690801918535</v>
+        <v>0.1087619649246943</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03041964402214876</v>
+        <v>0.06201899069509462</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1852929330506787</v>
+        <v>0.1882708656013596</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02949236261505953</v>
+        <v>0.06226277272151581</v>
       </c>
       <c r="L104" t="n">
-        <v>0.339487829078524</v>
+        <v>0.3399681259505201</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02804904637199855</v>
+        <v>0.06226277272151581</v>
       </c>
       <c r="N104" t="n">
-        <v>0.4885498312289632</v>
+        <v>0.4915579713624793</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02832068122216747</v>
+        <v>0.06222639177585939</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.111248701978611</v>
+        <v>0.116188106105963</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03119963489451156</v>
+        <v>0.06360922122573809</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1838551744509387</v>
+        <v>0.1872971918193779</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03024857704108669</v>
+        <v>0.06385925407334954</v>
       </c>
       <c r="L105" t="n">
-        <v>0.337000546324708</v>
+        <v>0.3374889453956028</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02876825268922929</v>
+        <v>0.06385925407334954</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4883951281733095</v>
+        <v>0.4873613603601717</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02904685253555638</v>
+        <v>0.06382194028293271</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1134028472731692</v>
+        <v>0.1165849388255625</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03197962576687435</v>
+        <v>0.06519945175638153</v>
       </c>
       <c r="J106" t="n">
-        <v>0.181335423400903</v>
+        <v>0.1863724396955966</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03100479146711386</v>
+        <v>0.06545573542518329</v>
       </c>
       <c r="L106" t="n">
-        <v>0.3341324101964348</v>
+        <v>0.3381174398495834</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02948745900646002</v>
+        <v>0.06545573542518329</v>
       </c>
       <c r="N106" t="n">
-        <v>0.4835777411914148</v>
+        <v>0.4892331276463564</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02977302384894529</v>
+        <v>0.06541748879000603</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1105530472162428</v>
+        <v>0.1059571065094269</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03275961663923713</v>
+        <v>0.06678968228702498</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1812679563830812</v>
+        <v>0.1858040015499389</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03176100589314103</v>
+        <v>0.06705221677701703</v>
       </c>
       <c r="L107" t="n">
-        <v>0.3342074235432464</v>
+        <v>0.3359669710592825</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03020666532369075</v>
+        <v>0.06705221677701703</v>
       </c>
       <c r="N107" t="n">
-        <v>0.4801356579368649</v>
+        <v>0.4848925705281806</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03049919516233419</v>
+        <v>0.06701303729707934</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.101720832948546</v>
+        <v>0.1153092525834905</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03353960751159992</v>
+        <v>0.06837991281766843</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1787870498799825</v>
+        <v>0.1842992697023279</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0325172203191682</v>
+        <v>0.06864869812885077</v>
       </c>
       <c r="L108" t="n">
-        <v>0.3323495892146839</v>
+        <v>0.3329509007715205</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03092587164092149</v>
+        <v>0.06864869812885077</v>
       </c>
       <c r="N108" t="n">
-        <v>0.4770068660632447</v>
+        <v>0.4811589863127916</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03122536647572311</v>
+        <v>0.06860858580415266</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1059277356107933</v>
+        <v>0.1156460204736873</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03431959838396271</v>
+        <v>0.06997014334831188</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1770269803741164</v>
+        <v>0.1841656364726867</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03327343474519536</v>
+        <v>0.07024517948068451</v>
       </c>
       <c r="L109" t="n">
-        <v>0.3313829100602892</v>
+        <v>0.3307825907331174</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03164507795815222</v>
+        <v>0.07024517948068451</v>
       </c>
       <c r="N109" t="n">
-        <v>0.4753293532241402</v>
+        <v>0.4768516723073367</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03195153778911201</v>
+        <v>0.07020413431122598</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1041952863436992</v>
+        <v>0.1109720536059515</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0350995892563255</v>
+        <v>0.07156037387895534</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1767220243479925</v>
+        <v>0.1826104941809386</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03402964917122253</v>
+        <v>0.07184166083251825</v>
       </c>
       <c r="L110" t="n">
-        <v>0.3280313889296039</v>
+        <v>0.330875402690894</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03236428427538295</v>
+        <v>0.07184166083251825</v>
       </c>
       <c r="N110" t="n">
-        <v>0.4746411070731366</v>
+        <v>0.4736899258189631</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03267770910250092</v>
+        <v>0.07179968281829929</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1075450162879782</v>
+        <v>0.1132919954062171</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03587958012868828</v>
+        <v>0.07315060440959879</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1757064582841202</v>
+        <v>0.1808412351470067</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03478586359724969</v>
+        <v>0.07343814218435199</v>
       </c>
       <c r="L111" t="n">
-        <v>0.3258190286721697</v>
+        <v>0.3257426983916702</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03308349059261368</v>
+        <v>0.07343814218435199</v>
       </c>
       <c r="N111" t="n">
-        <v>0.4693801152638193</v>
+        <v>0.4736930441548182</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03340388041588984</v>
+        <v>0.07339523132537262</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1019984565843446</v>
+        <v>0.1126104893004185</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03665957100105108</v>
+        <v>0.07474083494024224</v>
       </c>
       <c r="J112" t="n">
-        <v>0.174514558665009</v>
+        <v>0.1801652516908142</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03554207802327686</v>
+        <v>0.07503462353618573</v>
       </c>
       <c r="L112" t="n">
-        <v>0.324569832137528</v>
+        <v>0.3245978395822667</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03380269690984441</v>
+        <v>0.07503462353618573</v>
       </c>
       <c r="N112" t="n">
-        <v>0.4688843654497737</v>
+        <v>0.4704803246220494</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03413005172927874</v>
+        <v>0.07499077983244594</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.100577138373513</v>
+        <v>0.1059321787144896</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03743956187341387</v>
+        <v>0.0763310654708857</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1722806019731684</v>
+        <v>0.1780899361322844</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03629829244930403</v>
+        <v>0.07663110488801946</v>
       </c>
       <c r="L113" t="n">
-        <v>0.3227078021752203</v>
+        <v>0.3228541880095037</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03452190322707514</v>
+        <v>0.07663110488801946</v>
       </c>
       <c r="N113" t="n">
-        <v>0.4675918452845854</v>
+        <v>0.4684710645278037</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03485622304266765</v>
+        <v>0.07658632833951926</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1063025927961978</v>
+        <v>0.1022616347839446</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03821955274577665</v>
+        <v>0.07792129600152915</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1720388646911077</v>
+        <v>0.1769226807913403</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0370545068753312</v>
+        <v>0.07822758623985319</v>
       </c>
       <c r="L114" t="n">
-        <v>0.3216569416347884</v>
+        <v>0.3210251054202015</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03524110954430588</v>
+        <v>0.07822758623985319</v>
       </c>
       <c r="N114" t="n">
-        <v>0.4636405424218397</v>
+        <v>0.4664845611792289</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03558239435605656</v>
+        <v>0.07818187684659257</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1071963509931134</v>
+        <v>0.105539934995822</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03899954361813945</v>
+        <v>0.0795115265321726</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1728236233013367</v>
+        <v>0.1771516732786583</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03781072130135837</v>
+        <v>0.07982406759168693</v>
       </c>
       <c r="L115" t="n">
-        <v>0.319241253365774</v>
+        <v>0.3180892407152291</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03596031586153661</v>
+        <v>0.07982406759168693</v>
       </c>
       <c r="N115" t="n">
-        <v>0.4579684445151222</v>
+        <v>0.4604685969300805</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03630856566944547</v>
+        <v>0.07977742535366589</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.10823453650752</v>
+        <v>0.1017233511234387</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03977953449050223</v>
+        <v>0.08110175706281604</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1706691542863645</v>
+        <v>0.1761464233447123</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03856693572738554</v>
+        <v>0.08142054894352067</v>
       </c>
       <c r="L116" t="n">
-        <v>0.3174847402177183</v>
+        <v>0.3187107304992239</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03667952217876734</v>
+        <v>0.08142054894352067</v>
       </c>
       <c r="N116" t="n">
-        <v>0.4553135392180182</v>
+        <v>0.459784325034829</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03703473698283438</v>
+        <v>0.0813729738607392</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1033602609067759</v>
+        <v>0.1018270120035412</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04055952536286502</v>
+        <v>0.0826919875934595</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1722692766749581</v>
+        <v>0.1747007437365524</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0393231501534127</v>
+        <v>0.08301703029535441</v>
       </c>
       <c r="L117" t="n">
-        <v>0.3148114050401634</v>
+        <v>0.3133783912048768</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03739872849599807</v>
+        <v>0.08301703029535441</v>
       </c>
       <c r="N117" t="n">
-        <v>0.4574138141841132</v>
+        <v>0.4562386940089372</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03776090829622329</v>
+        <v>0.08296852236781253</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.09856669337925228</v>
+        <v>0.09886604647287595</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04133951623522781</v>
+        <v>0.08428221812410294</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1720889240862725</v>
+        <v>0.1737387195161311</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04007936457943987</v>
+        <v>0.08461351164718815</v>
       </c>
       <c r="L118" t="n">
-        <v>0.3151452506826504</v>
+        <v>0.3113357570005277</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0381179348132288</v>
+        <v>0.08461351164718815</v>
       </c>
       <c r="N118" t="n">
-        <v>0.4524072570669925</v>
+        <v>0.4520945767857993</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0384870796096122</v>
+        <v>0.08456407087488585</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1038473013851708</v>
+        <v>0.1058555833681892</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0421195071075906</v>
+        <v>0.0858724486547464</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1711082742431397</v>
+        <v>0.1715844357454006</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04083557900546703</v>
+        <v>0.08620999299902189</v>
       </c>
       <c r="L119" t="n">
-        <v>0.3129102799947212</v>
+        <v>0.3086263620545169</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03883714113045954</v>
+        <v>0.08620999299902189</v>
       </c>
       <c r="N119" t="n">
-        <v>0.4492318555202417</v>
+        <v>0.4491148462988089</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03921325092300111</v>
+        <v>0.08615961938195915</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1071955523847532</v>
+        <v>0.1008107515262273</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04289949797995338</v>
+        <v>0.08746267918538986</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1720209644816753</v>
+        <v>0.1695619774863132</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0415917934314942</v>
+        <v>0.08780647435085563</v>
       </c>
       <c r="L120" t="n">
-        <v>0.3119304958259174</v>
+        <v>0.3060937405351847</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03955634744769027</v>
+        <v>0.08780647435085563</v>
       </c>
       <c r="N120" t="n">
-        <v>0.4497255971974461</v>
+        <v>0.44206237548136</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03993942223639002</v>
+        <v>0.08775516788903247</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.108604913838221</v>
+        <v>0.09974667978373672</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04367948885231618</v>
+        <v>0.0890529097160333</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1736206321379941</v>
+        <v>0.1677954298008214</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04234800785752137</v>
+        <v>0.08940295570268937</v>
       </c>
       <c r="L121" t="n">
-        <v>0.3117299010257805</v>
+        <v>0.3029814266108709</v>
       </c>
       <c r="M121" t="n">
-        <v>0.040275553764921</v>
+        <v>0.08940295570268937</v>
       </c>
       <c r="N121" t="n">
-        <v>0.4503264697521913</v>
+        <v>0.4396000372668463</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04066559354977892</v>
+        <v>0.08935071639610578</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1100688532057958</v>
+        <v>0.09867849697746389</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04445947972467897</v>
+        <v>0.09064314024667676</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1722009145482114</v>
+        <v>0.1672088777508774</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04310422228354854</v>
+        <v>0.09099943705452311</v>
       </c>
       <c r="L122" t="n">
-        <v>0.3091324984438522</v>
+        <v>0.3021329544499155</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04099476008215173</v>
+        <v>0.09099943705452311</v>
       </c>
       <c r="N122" t="n">
-        <v>0.4463724608380625</v>
+        <v>0.4338907045886619</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04139176486316784</v>
+        <v>0.0909462649031791</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1085808379476994</v>
+        <v>0.09962133194415509</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04523947059704175</v>
+        <v>0.09223337077732022</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1741554490484426</v>
+        <v>0.1649264063984337</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04386043670957571</v>
+        <v>0.09259591840635685</v>
       </c>
       <c r="L123" t="n">
-        <v>0.3100622909296739</v>
+        <v>0.2966918582206589</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04171396639938246</v>
+        <v>0.09259591840635685</v>
       </c>
       <c r="N123" t="n">
-        <v>0.4483015581086455</v>
+        <v>0.4306972503802003</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04211793617655675</v>
+        <v>0.09254181341025243</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1111343355241533</v>
+        <v>0.09159031352055677</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04601946146940455</v>
+        <v>0.09382360130796367</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1733778729748027</v>
+        <v>0.1635721008054424</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04461665113560288</v>
+        <v>0.09419239975819059</v>
       </c>
       <c r="L124" t="n">
-        <v>0.3101432813327872</v>
+        <v>0.2950016720914411</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0424331727166132</v>
+        <v>0.09419239975819059</v>
       </c>
       <c r="N124" t="n">
-        <v>0.4464517492175253</v>
+        <v>0.4244825475748558</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04284410748994566</v>
+        <v>0.09413736191732575</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1127228133953791</v>
+        <v>0.09660057054341531</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04679945234176733</v>
+        <v>0.09541383183860712</v>
       </c>
       <c r="J125" t="n">
-        <v>0.175861823663407</v>
+        <v>0.1612700460338561</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04537286556163004</v>
+        <v>0.09578888111002433</v>
       </c>
       <c r="L125" t="n">
-        <v>0.3078994736743773</v>
+        <v>0.2912059302306022</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04315237903384393</v>
+        <v>0.09578888111002433</v>
       </c>
       <c r="N125" t="n">
-        <v>0.4463524319685938</v>
+        <v>0.4212094691060222</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04357027880333457</v>
+        <v>0.09573291042439906</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1133397390215985</v>
+        <v>0.1006316230776471</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04757944321413012</v>
+        <v>0.09700406236925056</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1755009384503706</v>
+        <v>0.1595428696085436</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04612907998765721</v>
+        <v>0.09738536246185807</v>
       </c>
       <c r="L126" t="n">
-        <v>0.3096789773442</v>
+        <v>0.2881455322828558</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04387158535107466</v>
+        <v>0.09738536246185807</v>
       </c>
       <c r="N126" t="n">
-        <v>0.4459855798485139</v>
+        <v>0.418528834664878</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04429645011672347</v>
+        <v>0.09732845893147238</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1109785798630331</v>
+        <v>0.09657734051753511</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04835943408649291</v>
+        <v>0.09859429289989402</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1759888546718087</v>
+        <v>0.1588554059882705</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04688529441368437</v>
+        <v>0.09898184381369181</v>
       </c>
       <c r="L127" t="n">
-        <v>0.3104939035226291</v>
+        <v>0.285376164181769</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04459079166830539</v>
+        <v>0.09898184381369181</v>
       </c>
       <c r="N127" t="n">
-        <v>0.4490171588462317</v>
+        <v>0.4109479725373797</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04502262143011239</v>
+        <v>0.09892400743854569</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1046328033799047</v>
+        <v>0.08944858211491111</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0491394249588557</v>
+        <v>0.1001845234305375</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1783192096638366</v>
+        <v>0.1556313471899175</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04764150883971154</v>
+        <v>0.1005783251655255</v>
       </c>
       <c r="L128" t="n">
-        <v>0.3114154246623047</v>
+        <v>0.2827598979207879</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04530999798553612</v>
+        <v>0.1005783251655255</v>
       </c>
       <c r="N128" t="n">
-        <v>0.4509131271699877</v>
+        <v>0.4074175355819102</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04574879274350129</v>
+        <v>0.100519555945619</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1112958770324347</v>
+        <v>0.09826700480400963</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04991941583121848</v>
+        <v>0.1017747539611809</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1788856407625694</v>
+        <v>0.1545051709867253</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04839772326573871</v>
+        <v>0.1021748065173593</v>
       </c>
       <c r="L129" t="n">
-        <v>0.3131147132158671</v>
+        <v>0.2811590526746446</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04602920430276686</v>
+        <v>0.1021748065173593</v>
       </c>
       <c r="N129" t="n">
-        <v>0.451339443028022</v>
+        <v>0.4050275264210412</v>
       </c>
       <c r="O129" t="n">
-        <v>0.0464749640568902</v>
+        <v>0.1021151044526923</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1129612682808448</v>
+        <v>0.09705426551906515</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05069940670358128</v>
+        <v>0.1033649844918244</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1794817853041223</v>
+        <v>0.1523113551519341</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04915393769176588</v>
+        <v>0.103771287869193</v>
       </c>
       <c r="L130" t="n">
-        <v>0.3134629416359566</v>
+        <v>0.2773359476180715</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04674841061999759</v>
+        <v>0.103771287869193</v>
       </c>
       <c r="N130" t="n">
-        <v>0.4544620646285753</v>
+        <v>0.398167947677345</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04720113537027912</v>
+        <v>0.1037106529597657</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1096224445853567</v>
+        <v>0.09483202119431217</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05147939757594407</v>
+        <v>0.1049552150224678</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1801012806246106</v>
+        <v>0.1499843774587847</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04991015211779305</v>
+        <v>0.1053677692210268</v>
       </c>
       <c r="L131" t="n">
-        <v>0.314331282375213</v>
+        <v>0.2743529019258006</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04746761693722832</v>
+        <v>0.1053677692210268</v>
       </c>
       <c r="N131" t="n">
-        <v>0.456646950179888</v>
+        <v>0.3939288019733934</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04792730668366802</v>
+        <v>0.105306201466839</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.109272873406192</v>
+        <v>0.08762192876398497</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05225938844830685</v>
+        <v>0.1065454455531113</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1816377640601493</v>
+        <v>0.1496587156805176</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05066636654382021</v>
+        <v>0.1069642505728605</v>
       </c>
       <c r="L132" t="n">
-        <v>0.3166909078862769</v>
+        <v>0.2681722347725645</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04818682325445905</v>
+        <v>0.1069642505728605</v>
       </c>
       <c r="N132" t="n">
-        <v>0.4602600578902002</v>
+        <v>0.3866000919317587</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04865347799705694</v>
+        <v>0.1069017499739123</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1179060222035722</v>
+        <v>0.09244564516231826</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05303937932066965</v>
+        <v>0.1081356760837547</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1809848729468537</v>
+        <v>0.1469688475903731</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05142258096984738</v>
+        <v>0.1085607319246942</v>
       </c>
       <c r="L133" t="n">
-        <v>0.3196129906217883</v>
+        <v>0.266256265333095</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04890602957168979</v>
+        <v>0.1085607319246942</v>
       </c>
       <c r="N133" t="n">
-        <v>0.4618673459677527</v>
+        <v>0.3831718201750128</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04937964931044584</v>
+        <v>0.1084972984809856</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1145153584377192</v>
+        <v>0.08832482732354632</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05381937019303243</v>
+        <v>0.1097259066143982</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1820362446208391</v>
+        <v>0.1456492509615919</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05217879539587454</v>
+        <v>0.110157213276528</v>
       </c>
       <c r="L134" t="n">
-        <v>0.3210687030343873</v>
+        <v>0.2625673127821247</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04962523588892052</v>
+        <v>0.110157213276528</v>
       </c>
       <c r="N134" t="n">
-        <v>0.4651347726207855</v>
+        <v>0.3770339893257275</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05010582062383475</v>
+        <v>0.1100928469880589</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1090943495688544</v>
+        <v>0.0872811321819037</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05459936106539522</v>
+        <v>0.1113161371450416</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1831855164182206</v>
+        <v>0.1425344035674146</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05293500982190171</v>
+        <v>0.1117536946283617</v>
       </c>
       <c r="L135" t="n">
-        <v>0.3216292175767144</v>
+        <v>0.2580676962943856</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05034444220615125</v>
+        <v>0.1117536946283617</v>
       </c>
       <c r="N135" t="n">
-        <v>0.4640282960575394</v>
+        <v>0.3746766020064753</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05083199193722366</v>
+        <v>0.1116883954951322</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1096364630571996</v>
+        <v>0.08833621667162483</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05537935193775801</v>
+        <v>0.1129063676756851</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1838263256751133</v>
+        <v>0.1415587831810816</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05369122424792888</v>
+        <v>0.1133501759801955</v>
       </c>
       <c r="L136" t="n">
-        <v>0.3258657067014092</v>
+        <v>0.2561197350446101</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05106364852338199</v>
+        <v>0.1133501759801955</v>
       </c>
       <c r="N136" t="n">
-        <v>0.4679138744862545</v>
+        <v>0.372889660839828</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05155816325061257</v>
+        <v>0.1132839440022056</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1141351663629764</v>
+        <v>0.0825117377269442</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0561593428101208</v>
+        <v>0.1144965982063285</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1862523097276325</v>
+        <v>0.1414568675758334</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05444743867395604</v>
+        <v>0.1149466573320292</v>
       </c>
       <c r="L137" t="n">
-        <v>0.3262493428611125</v>
+        <v>0.2527857482075304</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05178285484061271</v>
+        <v>0.1149466573320292</v>
       </c>
       <c r="N137" t="n">
-        <v>0.4750574661151713</v>
+        <v>0.3668631684483576</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05228433456400148</v>
+        <v>0.1148794925092789</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1215839269464063</v>
+        <v>0.0768293522820962</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05693933368248359</v>
+        <v>0.116086828736972</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1859571059118935</v>
+        <v>0.1392631345249106</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05520365309998321</v>
+        <v>0.1165431386838629</v>
       </c>
       <c r="L138" t="n">
-        <v>0.3283512985084642</v>
+        <v>0.2526280549578786</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05250206115784345</v>
+        <v>0.1165431386838629</v>
       </c>
       <c r="N138" t="n">
-        <v>0.4765250291525301</v>
+        <v>0.3640871274546362</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05301050587739039</v>
+        <v>0.1164750410163522</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.121976212267711</v>
+        <v>0.08731071727131537</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05771932455484637</v>
+        <v>0.1176770592676154</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1866343515640113</v>
+        <v>0.1392120618015537</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05595986752601038</v>
+        <v>0.1181396200356967</v>
       </c>
       <c r="L139" t="n">
-        <v>0.3319427460961046</v>
+        <v>0.2511089744703871</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05322126747507418</v>
+        <v>0.1181396200356967</v>
       </c>
       <c r="N139" t="n">
-        <v>0.4812825218065716</v>
+        <v>0.3595515404812356</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05373667719077929</v>
+        <v>0.1180705895234255</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1153054897871122</v>
+        <v>0.07797748962883616</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05849931542720917</v>
+        <v>0.1192672897982589</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1886776840201011</v>
+        <v>0.1383381271790032</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05671608195203755</v>
+        <v>0.1197361013875304</v>
       </c>
       <c r="L140" t="n">
-        <v>0.3341948580766736</v>
+        <v>0.2498908259197881</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05394047379230491</v>
+        <v>0.1197361013875304</v>
       </c>
       <c r="N140" t="n">
-        <v>0.4820959022855359</v>
+        <v>0.3616464101507283</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05446284850416822</v>
+        <v>0.1196661380304988</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1185652269648315</v>
+        <v>0.07785132628889302</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05927930629957195</v>
+        <v>0.1208575203289023</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1891807406162782</v>
+        <v>0.1365758084304996</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05747229637806471</v>
+        <v>0.1213325827393641</v>
       </c>
       <c r="L141" t="n">
-        <v>0.3366788069028118</v>
+        <v>0.2478359284808138</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05465968010953565</v>
+        <v>0.1213325827393641</v>
       </c>
       <c r="N141" t="n">
-        <v>0.4858311287976637</v>
+        <v>0.3590617390856861</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05518901981755712</v>
+        <v>0.1212616865375721</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1107488912610905</v>
+        <v>0.08286519608693227</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06005929717193475</v>
+        <v>0.1224477508595458</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1889371586886578</v>
+        <v>0.1374272368668463</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05822851080409188</v>
+        <v>0.1229290640911979</v>
       </c>
       <c r="L142" t="n">
-        <v>0.3395657650271592</v>
+        <v>0.2487481345348064</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05537888642676638</v>
+        <v>0.1229290640911979</v>
       </c>
       <c r="N142" t="n">
-        <v>0.4869541595511949</v>
+        <v>0.3598738094841366</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05591519113094603</v>
+        <v>0.1228572350446455</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1228682631018857</v>
+        <v>0.07691158792838818</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06083928804429753</v>
+        <v>0.1240379813901892</v>
       </c>
       <c r="J143" t="n">
-        <v>0.190740575573355</v>
+        <v>0.1374766279291084</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05898472523011905</v>
+        <v>0.1245255454430316</v>
       </c>
       <c r="L143" t="n">
-        <v>0.3411269049023559</v>
+        <v>0.2482374097388009</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05609809274399711</v>
+        <v>0.1245255454430316</v>
       </c>
       <c r="N143" t="n">
-        <v>0.4911309527543706</v>
+        <v>0.3591123052388252</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05664136244433494</v>
+        <v>0.1244527835517188</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1128676535489932</v>
+        <v>0.07698846809787488</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06161927891666032</v>
+        <v>0.1256282119208327</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1919846286064851</v>
+        <v>0.1377755665057163</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05974093965614622</v>
+        <v>0.1261220267948654</v>
       </c>
       <c r="L144" t="n">
-        <v>0.3406333989810421</v>
+        <v>0.247116242936652</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05681729906122784</v>
+        <v>0.1261220267948654</v>
       </c>
       <c r="N144" t="n">
-        <v>0.4937274666154304</v>
+        <v>0.3590797502437589</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05736753375772385</v>
+        <v>0.1260483320587921</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1148599784978852</v>
+        <v>0.08609424525175383</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06239926978902311</v>
+        <v>0.1272184424514762</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1917629551241632</v>
+        <v>0.1374215191824514</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06049715408217338</v>
+        <v>0.1277185081466991</v>
       </c>
       <c r="L145" t="n">
-        <v>0.344756419715858</v>
+        <v>0.2470800549381012</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05753650537845858</v>
+        <v>0.1277185081466991</v>
       </c>
       <c r="N145" t="n">
-        <v>0.4942096593426154</v>
+        <v>0.3577695311390169</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05809370507111276</v>
+        <v>0.1276438805658654</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1128437998175812</v>
+        <v>0.08422732804638638</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06317926066138589</v>
+        <v>0.1288086729821196</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1933172737090181</v>
+        <v>0.1387119525450952</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06125336850820055</v>
+        <v>0.1293149894985328</v>
       </c>
       <c r="L146" t="n">
-        <v>0.3437671395594439</v>
+        <v>0.25032426655289</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05825571169568931</v>
+        <v>0.1293149894985328</v>
       </c>
       <c r="N146" t="n">
-        <v>0.5005434891441655</v>
+        <v>0.3580750345646768</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05881987638450166</v>
+        <v>0.1292394290729387</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1198194919825759</v>
+        <v>0.0833861251381339</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06395925153374869</v>
+        <v>0.1303989035127631</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1923321096456109</v>
+        <v>0.138944333179429</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06200958293422772</v>
+        <v>0.1309114708503666</v>
       </c>
       <c r="L147" t="n">
-        <v>0.3453367309644401</v>
+        <v>0.25084429859076</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05897491801292004</v>
+        <v>0.1309114708503666</v>
       </c>
       <c r="N147" t="n">
-        <v>0.4986949142283215</v>
+        <v>0.3624896471608179</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05954604769789058</v>
+        <v>0.1308349775800121</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1137874294673635</v>
+        <v>0.07756904518335778</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06473924240611147</v>
+        <v>0.1319891340434065</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1930001547975446</v>
+        <v>0.1374161276712343</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06276579736025489</v>
+        <v>0.1325079522022003</v>
       </c>
       <c r="L148" t="n">
-        <v>0.3452363663834863</v>
+        <v>0.2513355718614528</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05969412433015077</v>
+        <v>0.1325079522022003</v>
       </c>
       <c r="N148" t="n">
-        <v>0.4991298928033235</v>
+        <v>0.3596067555675183</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06027221901127949</v>
+        <v>0.1324305260870854</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1127479867464389</v>
+        <v>0.08377449683841942</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06551923327847427</v>
+        <v>0.13357936457405</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1931723713782917</v>
+        <v>0.1388248026062927</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06352201178628206</v>
+        <v>0.1341044335540341</v>
       </c>
       <c r="L149" t="n">
-        <v>0.3486372182692231</v>
+        <v>0.2514935071747099</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0604133306473815</v>
+        <v>0.1341044335540341</v>
       </c>
       <c r="N149" t="n">
-        <v>0.5055313946772262</v>
+        <v>0.3621197464248564</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06099839032466839</v>
+        <v>0.1340260745941587</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1147015382942965</v>
+        <v>0.0790008887596802</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06629922415083706</v>
+        <v>0.1351695951046934</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1947473421912237</v>
+        <v>0.1397678245703853</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06427822621230922</v>
+        <v>0.1357009149058678</v>
       </c>
       <c r="L150" t="n">
-        <v>0.3494243341931222</v>
+        <v>0.2506135253402729</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06113253696461224</v>
+        <v>0.1357009149058678</v>
       </c>
       <c r="N150" t="n">
-        <v>0.5011722932100058</v>
+        <v>0.364322006372911</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06172456163805731</v>
+        <v>0.135621623101232</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1186484585854308</v>
+        <v>0.08224662960350149</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06707921502319984</v>
+        <v>0.1367598256353369</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1950236500397125</v>
+        <v>0.1396426601492939</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0650344406383364</v>
+        <v>0.1372973962577015</v>
       </c>
       <c r="L151" t="n">
-        <v>0.3465229892894899</v>
+        <v>0.2525910471678833</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06185174328184297</v>
+        <v>0.1372973962577015</v>
       </c>
       <c r="N151" t="n">
-        <v>0.5046784623671021</v>
+        <v>0.3639069220517605</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06245073295144622</v>
+        <v>0.1372171716083053</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1135891220943365</v>
+        <v>0.07751012802624466</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06785920589556263</v>
+        <v>0.1383500561659803</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1948998777271296</v>
+        <v>0.1406467759287996</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06579065506436356</v>
+        <v>0.1388938776095353</v>
       </c>
       <c r="L152" t="n">
-        <v>0.3488167637735951</v>
+        <v>0.2521214934672827</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06257094959907371</v>
+        <v>0.1388938776095353</v>
       </c>
       <c r="N152" t="n">
-        <v>0.5053710709152339</v>
+        <v>0.3638678801014831</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06317690426483512</v>
+        <v>0.1388127201153787</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1225239032955081</v>
+        <v>0.08778979268427109</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06863919676792542</v>
+        <v>0.1399402866966238</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1964746080568465</v>
+        <v>0.1403776384946842</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06654686949039072</v>
+        <v>0.140490358961369</v>
       </c>
       <c r="L153" t="n">
-        <v>0.3461055944325585</v>
+        <v>0.2550002850482128</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06329015591630444</v>
+        <v>0.140490358961369</v>
       </c>
       <c r="N153" t="n">
-        <v>0.5067476821220386</v>
+        <v>0.3666982671621576</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06390307557822403</v>
+        <v>0.140408268622452</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1144531766634402</v>
+        <v>0.08512986104471221</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0694191876402882</v>
+        <v>0.1415305172272672</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1956464238322351</v>
+        <v>0.1409369565626911</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06730308391641789</v>
+        <v>0.1420868403132027</v>
       </c>
       <c r="L154" t="n">
-        <v>0.3461896171304181</v>
+        <v>0.2558305104440963</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06400936223353516</v>
+        <v>0.1420868403132027</v>
       </c>
       <c r="N154" t="n">
-        <v>0.5083058592551535</v>
+        <v>0.3678154648917871</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06462924689161294</v>
+        <v>0.1420038171295253</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1143773166726272</v>
+        <v>0.08672088102367792</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07019917851265099</v>
+        <v>0.1431207477579107</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1971139078566669</v>
+        <v>0.1404902717423673</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06805929834244506</v>
+        <v>0.1436833216650365</v>
       </c>
       <c r="L155" t="n">
-        <v>0.3473689677312115</v>
+        <v>0.2557921407322006</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06472856855076589</v>
+        <v>0.1436833216650365</v>
       </c>
       <c r="N155" t="n">
-        <v>0.5079431655822162</v>
+        <v>0.3717568875909172</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06535541820500185</v>
+        <v>0.1435993656365986</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1172966977975639</v>
+        <v>0.07954260622089357</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07097916938501379</v>
+        <v>0.1447109782885541</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1977756429335135</v>
+        <v>0.1418420696896391</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06881551276847224</v>
+        <v>0.1452798030168702</v>
       </c>
       <c r="L156" t="n">
-        <v>0.3470437820989766</v>
+        <v>0.2560740355527134</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06544777486799663</v>
+        <v>0.1452798030168702</v>
       </c>
       <c r="N156" t="n">
-        <v>0.5085571643708638</v>
+        <v>0.3747264165648976</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06608158951839076</v>
+        <v>0.1451949141436719</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1182116945127447</v>
+        <v>0.08054699781275407</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07175916025737657</v>
+        <v>0.1463012088191976</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1978302118661467</v>
+        <v>0.1436158727438614</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06957172719449939</v>
+        <v>0.146876284368704</v>
       </c>
       <c r="L157" t="n">
-        <v>0.3482141960977512</v>
+        <v>0.2617379602040022</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06616698118522736</v>
+        <v>0.146876284368704</v>
       </c>
       <c r="N157" t="n">
-        <v>0.5072454188887339</v>
+        <v>0.3761244104396109</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06680776083177968</v>
+        <v>0.1467904626507452</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1121226812926641</v>
+        <v>0.08368601697565434</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07253915112973937</v>
+        <v>0.147891439349841</v>
       </c>
       <c r="J158" t="n">
-        <v>0.197076197457938</v>
+        <v>0.1458352032443889</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07032794162052657</v>
+        <v>0.1484727657205377</v>
       </c>
       <c r="L158" t="n">
-        <v>0.3482803455915731</v>
+        <v>0.2641456799844345</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0668861875024581</v>
+        <v>0.1484727657205377</v>
       </c>
       <c r="N158" t="n">
-        <v>0.5073054924034639</v>
+        <v>0.3789512278409403</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06753393214516858</v>
+        <v>0.1483860111578185</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1160300326118167</v>
+        <v>0.09491162488598937</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07331914200210216</v>
+        <v>0.1494816698804845</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1980121825122592</v>
+        <v>0.1485235835305766</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07108415604655373</v>
+        <v>0.1500692470723715</v>
       </c>
       <c r="L159" t="n">
-        <v>0.3466423664444799</v>
+        <v>0.2684589601923779</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06760539381968882</v>
+        <v>0.1500692470723715</v>
       </c>
       <c r="N159" t="n">
-        <v>0.5091349481826911</v>
+        <v>0.3887072273947683</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06826010345855749</v>
+        <v>0.1499815596648919</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1169341229446972</v>
+        <v>0.090175782720154</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07409913287446494</v>
+        <v>0.1510719004111279</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1996367498324818</v>
+        <v>0.1504045359417793</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07184037047258091</v>
+        <v>0.1516657284242052</v>
       </c>
       <c r="L160" t="n">
-        <v>0.3478003945205098</v>
+        <v>0.2718395661261996</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06832460013691956</v>
+        <v>0.1516657284242052</v>
       </c>
       <c r="N160" t="n">
-        <v>0.5129313494940529</v>
+        <v>0.3917927677269778</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0689862747719464</v>
+        <v>0.1515771081719652</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1128353267658</v>
+        <v>0.08643045165454319</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07487912374682773</v>
+        <v>0.1526621309417714</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1990484822219774</v>
+        <v>0.1513015828173518</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07259658489860805</v>
+        <v>0.1532622097760389</v>
       </c>
       <c r="L161" t="n">
-        <v>0.3479545656837003</v>
+        <v>0.2737492630842673</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06904380645415029</v>
+        <v>0.1532622097760389</v>
       </c>
       <c r="N161" t="n">
-        <v>0.5116922596051869</v>
+        <v>0.3945082074634518</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06971244608533531</v>
+        <v>0.1531726566790385</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1127340185496198</v>
+        <v>0.08962759286555183</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07565911461919052</v>
+        <v>0.1542523614724148</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1996459624841178</v>
+        <v>0.152938246496649</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07335279932463523</v>
+        <v>0.1548586911278727</v>
       </c>
       <c r="L162" t="n">
-        <v>0.3485050157980891</v>
+        <v>0.2770498163649485</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06976301277138103</v>
+        <v>0.1548586911278727</v>
       </c>
       <c r="N162" t="n">
-        <v>0.5096152417837303</v>
+        <v>0.4011539052300733</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07043861739872422</v>
+        <v>0.1547682051861118</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.110630572770651</v>
+        <v>0.09071916752957487</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07643910549155331</v>
+        <v>0.1558425920030583</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1997277734222747</v>
+        <v>0.1558380493190258</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07410901375066241</v>
+        <v>0.1564551724797064</v>
       </c>
       <c r="L163" t="n">
-        <v>0.3456518807277145</v>
+        <v>0.2803029912666105</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07048221908861176</v>
+        <v>0.1564551724797064</v>
       </c>
       <c r="N163" t="n">
-        <v>0.5098978592973206</v>
+        <v>0.4083302196527251</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07116478871211313</v>
+        <v>0.1563637536931851</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1195253639033882</v>
+        <v>0.09666341301780348</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07721909636391609</v>
+        <v>0.1574328225337017</v>
       </c>
       <c r="J164" t="n">
-        <v>0.2011924978398194</v>
+        <v>0.156924513623837</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07486522817668956</v>
+        <v>0.1580516538315402</v>
       </c>
       <c r="L164" t="n">
-        <v>0.3477952963366138</v>
+        <v>0.2823705530876209</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07120142540584248</v>
+        <v>0.1580516538315402</v>
       </c>
       <c r="N164" t="n">
-        <v>0.5146376754135953</v>
+        <v>0.4119375093572897</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07189096002550203</v>
+        <v>0.1579593022002585</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.118418766422326</v>
+        <v>0.09954432013419123</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07799908723627889</v>
+        <v>0.1590230530643452</v>
       </c>
       <c r="J165" t="n">
-        <v>0.2003387185401238</v>
+        <v>0.1588315396517383</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07562144260271673</v>
+        <v>0.1596481351833739</v>
       </c>
       <c r="L165" t="n">
-        <v>0.347435398488825</v>
+        <v>0.2852137771025212</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07192063172307321</v>
+        <v>0.1596481351833739</v>
       </c>
       <c r="N165" t="n">
-        <v>0.5114322534001915</v>
+        <v>0.4125057582242223</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07261713133889094</v>
+        <v>0.1595548507073318</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1103111548019589</v>
+        <v>0.09040412976277651</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07877907810864167</v>
+        <v>0.1606132835949886</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2007650183265596</v>
+        <v>0.1605022739621578</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0763776570287439</v>
+        <v>0.1612446165352076</v>
       </c>
       <c r="L166" t="n">
-        <v>0.3471723230483857</v>
+        <v>0.2880914032069269</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07263983804030395</v>
+        <v>0.1612446165352076</v>
       </c>
       <c r="N166" t="n">
-        <v>0.5147791565247469</v>
+        <v>0.4153832004524737</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07334330265227985</v>
+        <v>0.1611503992144051</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1212029035167816</v>
+        <v>0.09424436583963056</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07955906898100447</v>
+        <v>0.1622035141256321</v>
       </c>
       <c r="J167" t="n">
-        <v>0.2015699800024983</v>
+        <v>0.1613410383337683</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07713387145477107</v>
+        <v>0.1628410978870413</v>
       </c>
       <c r="L167" t="n">
-        <v>0.3455062058793341</v>
+        <v>0.2916112430909488</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07335904435753468</v>
+        <v>0.1628410978870413</v>
       </c>
       <c r="N167" t="n">
-        <v>0.5144759480548987</v>
+        <v>0.4208775007196995</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07406947396566876</v>
+        <v>0.1627459477214784</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1190943870412885</v>
+        <v>0.1040665523008245</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08033905985336726</v>
+        <v>0.1637937446562756</v>
       </c>
       <c r="J168" t="n">
-        <v>0.2011521863713115</v>
+        <v>0.1618502588681466</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07789008588079822</v>
+        <v>0.1644375792388751</v>
       </c>
       <c r="L168" t="n">
-        <v>0.3479371828457077</v>
+        <v>0.2927776819753792</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07407825067476542</v>
+        <v>0.1644375792388751</v>
       </c>
       <c r="N168" t="n">
-        <v>0.5124201912582845</v>
+        <v>0.4270949922511645</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07479564527905767</v>
+        <v>0.1643414962285517</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1089859798499742</v>
+        <v>0.1018722130824297</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08111905072573004</v>
+        <v>0.165383975186919</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2027102202363711</v>
+        <v>0.1644323616668696</v>
       </c>
       <c r="K169" t="n">
-        <v>0.0786463003068254</v>
+        <v>0.1660340605907088</v>
       </c>
       <c r="L169" t="n">
-        <v>0.3484653898115444</v>
+        <v>0.2942951050810105</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07479745699199614</v>
+        <v>0.1660340605907088</v>
       </c>
       <c r="N169" t="n">
-        <v>0.5132094494025418</v>
+        <v>0.4304420082721327</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07552181659244658</v>
+        <v>0.1659370447356251</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1208780564173332</v>
+        <v>0.1016628721205173</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08189904159809283</v>
+        <v>0.1669742057175625</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2012426644010484</v>
+        <v>0.1647897728315143</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07940251473285258</v>
+        <v>0.1676305419425426</v>
       </c>
       <c r="L170" t="n">
-        <v>0.3471909626408819</v>
+        <v>0.296867897628635</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07551666330922688</v>
+        <v>0.1676305419425426</v>
       </c>
       <c r="N170" t="n">
-        <v>0.5137412857553074</v>
+        <v>0.4317248820078688</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07624798790583549</v>
+        <v>0.1675325932426984</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1117709912178602</v>
+        <v>0.1034400533511585</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08267903247045562</v>
+        <v>0.1685644362482059</v>
       </c>
       <c r="J171" t="n">
-        <v>0.2017481016687154</v>
+        <v>0.1667249184636573</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08015872915887974</v>
+        <v>0.1692270232943763</v>
       </c>
       <c r="L171" t="n">
-        <v>0.3455140371977581</v>
+        <v>0.2987004448390451</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07623586962645761</v>
+        <v>0.1692270232943763</v>
       </c>
       <c r="N171" t="n">
-        <v>0.5138132635842194</v>
+        <v>0.4337499466836369</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0769741592192244</v>
+        <v>0.1691281417497717</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.120661760027314</v>
+        <v>0.1012052807104245</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08345902334281841</v>
+        <v>0.1701546667788494</v>
       </c>
       <c r="J172" t="n">
-        <v>0.2031251148427434</v>
+        <v>0.1666402246648758</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0809149435849069</v>
+        <v>0.17082350464621</v>
       </c>
       <c r="L172" t="n">
-        <v>0.3473347493462108</v>
+        <v>0.3015971319330331</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07695507594368835</v>
+        <v>0.17082350464621</v>
       </c>
       <c r="N172" t="n">
-        <v>0.5164169261601442</v>
+        <v>0.4368235355247011</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07770033053261331</v>
+        <v>0.170723690256845</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.118546403412888</v>
+        <v>0.1029600781343866</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08423901421518119</v>
+        <v>0.1717448973094928</v>
       </c>
       <c r="J173" t="n">
-        <v>0.2032722867265043</v>
+        <v>0.1681381175367464</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08167115801093407</v>
+        <v>0.1724199859980438</v>
       </c>
       <c r="L173" t="n">
-        <v>0.3450532349502776</v>
+        <v>0.3033623441313911</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07767428226091908</v>
+        <v>0.1724199859980438</v>
       </c>
       <c r="N173" t="n">
-        <v>0.513180160015665</v>
+        <v>0.441351981756326</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07842650184600222</v>
+        <v>0.1723192387639183</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1174250668525714</v>
+        <v>0.108705969559116</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08501900508754399</v>
+        <v>0.1733351278401363</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2019882001233697</v>
+        <v>0.1693210231808462</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08242737243696124</v>
+        <v>0.1740164673498775</v>
       </c>
       <c r="L174" t="n">
-        <v>0.3462696298739966</v>
+        <v>0.3050004666549118</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07839348857814982</v>
+        <v>0.1740164673498775</v>
       </c>
       <c r="N174" t="n">
-        <v>0.5124889600708328</v>
+        <v>0.4438416186037761</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07915267315939113</v>
+        <v>0.1739147872709916</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.109297907091452</v>
+        <v>0.1054444789206838</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08579899595990677</v>
+        <v>0.1749253583707797</v>
       </c>
       <c r="J175" t="n">
-        <v>0.203471437836711</v>
+        <v>0.1707913676987519</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08318358686298841</v>
+        <v>0.1756129487017113</v>
       </c>
       <c r="L175" t="n">
-        <v>0.348179830371784</v>
+        <v>0.309715884724387</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07911269489538053</v>
+        <v>0.1756129487017113</v>
       </c>
       <c r="N175" t="n">
-        <v>0.514651508381654</v>
+        <v>0.4457987792923154</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07987884447278004</v>
+        <v>0.1755103357780649</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1191650808746171</v>
+        <v>0.09819159859515117</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08657898683226957</v>
+        <v>0.1765155889014232</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2030205826699001</v>
+        <v>0.1710572265682416</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08393980128901557</v>
+        <v>0.177209430053545</v>
       </c>
       <c r="L176" t="n">
-        <v>0.3448299828743824</v>
+        <v>0.3116231949063411</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07983190121261127</v>
+        <v>0.177209430053545</v>
       </c>
       <c r="N176" t="n">
-        <v>0.5122759870041338</v>
+        <v>0.4493494577087678</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08060501578616895</v>
+        <v>0.1771058842851383</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1190267449471544</v>
+        <v>0.1049819034200297</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08735897770463236</v>
+        <v>0.1781058194320666</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2029332747615201</v>
+        <v>0.1723846259742183</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08469601571504275</v>
+        <v>0.1788059114053787</v>
       </c>
       <c r="L177" t="n">
-        <v>0.3462069764574038</v>
+        <v>0.3129417406782412</v>
       </c>
       <c r="M177" t="n">
-        <v>0.080551107529842</v>
+        <v>0.1788059114053787</v>
       </c>
       <c r="N177" t="n">
-        <v>0.5097705779942784</v>
+        <v>0.454466249403021</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08133118709955785</v>
+        <v>0.1787014327922116</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1158830560541515</v>
+        <v>0.1007931183863563</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08813896857699514</v>
+        <v>0.17969604996271</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2030367802079322</v>
+        <v>0.1743593803821108</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08545223014106991</v>
+        <v>0.1804023927572125</v>
       </c>
       <c r="L178" t="n">
-        <v>0.345214995588885</v>
+        <v>0.3166458814396512</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08127031384707274</v>
+        <v>0.1804023927572125</v>
       </c>
       <c r="N178" t="n">
-        <v>0.5105434634080935</v>
+        <v>0.4540011976168943</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08205735841294677</v>
+        <v>0.1802969812992849</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1097341709406959</v>
+        <v>0.1105990649602364</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08891895944935793</v>
+        <v>0.1812862804933535</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2018938519719298</v>
+        <v>0.1749398136458125</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08620844456709709</v>
+        <v>0.1819988741090462</v>
       </c>
       <c r="L179" t="n">
-        <v>0.3464582247368621</v>
+        <v>0.3171602868316965</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08198952016430347</v>
+        <v>0.1819988741090462</v>
       </c>
       <c r="N179" t="n">
-        <v>0.5106028253015851</v>
+        <v>0.4612455087104351</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08278352972633568</v>
+        <v>0.1818925298063582</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1115802463518753</v>
+        <v>0.1133735646077759</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08969895032172072</v>
+        <v>0.182876511023997</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2027152719837991</v>
+        <v>0.1773842496192164</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08696465899312424</v>
+        <v>0.18359535546088</v>
       </c>
       <c r="L180" t="n">
-        <v>0.3442408483693715</v>
+        <v>0.3186096264955031</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0827087264815342</v>
+        <v>0.18359535546088</v>
       </c>
       <c r="N180" t="n">
-        <v>0.5076568457307589</v>
+        <v>0.4607903890436905</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08350970103972459</v>
+        <v>0.1834880783134315</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1094214390327772</v>
+        <v>0.1110904387950802</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09047894119408351</v>
+        <v>0.1844667415546404</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2018118221738261</v>
+        <v>0.1788510121562158</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08772087341915141</v>
+        <v>0.1851918368127137</v>
       </c>
       <c r="L181" t="n">
-        <v>0.3461670509544497</v>
+        <v>0.3218185700721965</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08342793279876493</v>
+        <v>0.1851918368127137</v>
       </c>
       <c r="N181" t="n">
-        <v>0.5075137067516207</v>
+        <v>0.4686270449767079</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0842358723531135</v>
+        <v>0.1850836268205049</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.111257905728489</v>
+        <v>0.1107235089882549</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09125893206644629</v>
+        <v>0.1860569720852839</v>
       </c>
       <c r="J182" t="n">
-        <v>0.201594284472297</v>
+        <v>0.1795984251107043</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08847708784517858</v>
+        <v>0.1867883181645474</v>
       </c>
       <c r="L182" t="n">
-        <v>0.3447410169601327</v>
+        <v>0.3256117872029028</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08414713911599567</v>
+        <v>0.1867883181645474</v>
       </c>
       <c r="N182" t="n">
-        <v>0.5066815904201764</v>
+        <v>0.4684466828695346</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08496204366650241</v>
+        <v>0.1866791753275782</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1160898031840986</v>
+        <v>0.1122465966534059</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0920389229388091</v>
+        <v>0.1876472026159273</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2009734408094979</v>
+        <v>0.1791848123365749</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08923330227120575</v>
+        <v>0.1883847995163812</v>
       </c>
       <c r="L183" t="n">
-        <v>0.345166930854457</v>
+        <v>0.3248139475287478</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0848663454332264</v>
+        <v>0.1883847995163812</v>
       </c>
       <c r="N183" t="n">
-        <v>0.5055686787924317</v>
+        <v>0.4694405090822177</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08568821497989132</v>
+        <v>0.1882747238346515</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1179172881446934</v>
+        <v>0.1086335232566386</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09281891381117187</v>
+        <v>0.1892374331465708</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2000600731157149</v>
+        <v>0.1810684976877208</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08998951669723292</v>
+        <v>0.1899812808682149</v>
       </c>
       <c r="L184" t="n">
-        <v>0.3439489771054592</v>
+        <v>0.3285497206908572</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08558555175045714</v>
+        <v>0.1899812808682149</v>
       </c>
       <c r="N184" t="n">
-        <v>0.5039831539243927</v>
+        <v>0.4737997299748045</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08641438629328022</v>
+        <v>0.1898702723417248</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.113740517355361</v>
+        <v>0.105929435742165</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09359890468353466</v>
+        <v>0.1908276636772142</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1987649633212341</v>
+        <v>0.1812565983501935</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09074573112326008</v>
+        <v>0.1915777622200487</v>
       </c>
       <c r="L185" t="n">
-        <v>0.3407913401811754</v>
+        <v>0.3287319711267932</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08630475806768786</v>
+        <v>0.1915777622200487</v>
       </c>
       <c r="N185" t="n">
-        <v>0.5005331978720652</v>
+        <v>0.4748634353484614</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08714055760666914</v>
+        <v>0.1914658208487981</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.116559647561189</v>
+        <v>0.1162187179521733</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09437889555589746</v>
+        <v>0.1924178942078577</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1980988933563413</v>
+        <v>0.182416575481061</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09150194554928726</v>
+        <v>0.1931742435718824</v>
       </c>
       <c r="L186" t="n">
-        <v>0.340498204549642</v>
+        <v>0.329863387790259</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08702396438491859</v>
+        <v>0.1931742435718824</v>
       </c>
       <c r="N186" t="n">
-        <v>0.5026269926914549</v>
+        <v>0.4754644054109957</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08786672892005805</v>
+        <v>0.1930613693558715</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1183748355072648</v>
+        <v>0.1145016997498156</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09515888642826024</v>
+        <v>0.1940081247385011</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1965726451513231</v>
+        <v>0.1820666084870339</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09225815997531442</v>
+        <v>0.1947707249237161</v>
       </c>
       <c r="L187" t="n">
-        <v>0.3390737546788953</v>
+        <v>0.3286768302750404</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08774317070214932</v>
+        <v>0.1947707249237161</v>
       </c>
       <c r="N187" t="n">
-        <v>0.5016727204385675</v>
+        <v>0.4790393833630588</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08859290023344694</v>
+        <v>0.1946569178629448</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1121862379386763</v>
+        <v>0.1127782847945446</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09593887730062303</v>
+        <v>0.1955983552691446</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1951970006364651</v>
+        <v>0.182006543994255</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09301437440134158</v>
+        <v>0.1963672062755498</v>
       </c>
       <c r="L188" t="n">
-        <v>0.3416221750369718</v>
+        <v>0.3313720213552231</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08846237701938006</v>
+        <v>0.1963672062755498</v>
       </c>
       <c r="N188" t="n">
-        <v>0.4997785631694092</v>
+        <v>0.4798879688293346</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08931907154683587</v>
+        <v>0.1962524663700181</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1169940116005108</v>
+        <v>0.1160483767458133</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09671886817298582</v>
+        <v>0.197188585799788</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1946827417420537</v>
+        <v>0.1835362286288672</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09377058882736874</v>
+        <v>0.1979636876273836</v>
       </c>
       <c r="L189" t="n">
-        <v>0.3402476500919077</v>
+        <v>0.3315486838048931</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08918158333661079</v>
+        <v>0.1979636876273836</v>
       </c>
       <c r="N189" t="n">
-        <v>0.4958527029399856</v>
+        <v>0.4782097614345062</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09004524286022478</v>
+        <v>0.1978480148770914</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.108798313237856</v>
+        <v>0.1083118792630745</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09749885904534861</v>
+        <v>0.1987788163304315</v>
       </c>
       <c r="J190" t="n">
-        <v>0.193240650398375</v>
+        <v>0.1831555090170133</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09452680325339592</v>
+        <v>0.1995601689792173</v>
       </c>
       <c r="L190" t="n">
-        <v>0.3384543643117394</v>
+        <v>0.3314065403981363</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08990078965384153</v>
+        <v>0.1995601689792173</v>
       </c>
       <c r="N190" t="n">
-        <v>0.4943033218063025</v>
+        <v>0.480604360803257</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09077141417361367</v>
+        <v>0.1994435633841647</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1105992995957995</v>
+        <v>0.1125686960057811</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09827884991771139</v>
+        <v>0.2003690468610749</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1921815085357149</v>
+        <v>0.1841642317848362</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09528301767942308</v>
+        <v>0.2011566503310511</v>
       </c>
       <c r="L191" t="n">
-        <v>0.3391465021645034</v>
+        <v>0.3311453139090385</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09061999597107225</v>
+        <v>0.2011566503310511</v>
       </c>
       <c r="N191" t="n">
-        <v>0.494338601824366</v>
+        <v>0.4797713665602703</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09149758548700258</v>
+        <v>0.201039111891238</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1083971274194288</v>
+        <v>0.117818730633386</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0990588407900742</v>
+        <v>0.2019592773917184</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1905160980843597</v>
+        <v>0.1839622435584784</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09603923210545025</v>
+        <v>0.2027531316828848</v>
       </c>
       <c r="L192" t="n">
-        <v>0.3376282481182357</v>
+        <v>0.3330647271116856</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09133920228830299</v>
+        <v>0.2027531316828848</v>
       </c>
       <c r="N192" t="n">
-        <v>0.4917667250501816</v>
+        <v>0.4827103783302293</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09222375680039151</v>
+        <v>0.2026346603983114</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1051919534538315</v>
+        <v>0.1130618868053419</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09983883166243697</v>
+        <v>0.2035495079223618</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1898552009745952</v>
+        <v>0.1856493909640832</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09679544653147742</v>
+        <v>0.2043496130347186</v>
       </c>
       <c r="L193" t="n">
-        <v>0.3377037866409729</v>
+        <v>0.3353645027801634</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09205840860553371</v>
+        <v>0.2043496130347186</v>
       </c>
       <c r="N193" t="n">
-        <v>0.4908958735397553</v>
+        <v>0.4853209957378175</v>
       </c>
       <c r="O193" t="n">
-        <v>0.0929499281137804</v>
+        <v>0.2042302089053847</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1119839344440952</v>
+        <v>0.1112980681811019</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1006188225347998</v>
+        <v>0.2051397384530053</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1880095991367079</v>
+        <v>0.1844255206277933</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09755166095750459</v>
+        <v>0.2059460943865523</v>
       </c>
       <c r="L194" t="n">
-        <v>0.3359773022007513</v>
+        <v>0.335744363688558</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09277761492276446</v>
+        <v>0.2059460943865523</v>
       </c>
       <c r="N194" t="n">
-        <v>0.4887342293490927</v>
+        <v>0.4855028184077183</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09367609942716931</v>
+        <v>0.205825757412458</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1127732271353075</v>
+        <v>0.1085271784201186</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1013988134071626</v>
+        <v>0.2067299689836488</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1877900745009837</v>
+        <v>0.1853904791757512</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09830787538353175</v>
+        <v>0.2075425757383861</v>
       </c>
       <c r="L195" t="n">
-        <v>0.3354529792656074</v>
+        <v>0.3367040326109548</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09349682123999518</v>
+        <v>0.2075425757383861</v>
       </c>
       <c r="N195" t="n">
-        <v>0.4844899745342002</v>
+        <v>0.483155445964615</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09440227074055824</v>
+        <v>0.2074213059195313</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1115599882725558</v>
+        <v>0.1077491211818451</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1021788042795253</v>
+        <v>0.2083201995142922</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1865074089977085</v>
+        <v>0.1857441132341003</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09906408980955891</v>
+        <v>0.2091390570902198</v>
       </c>
       <c r="L196" t="n">
-        <v>0.3336350023035772</v>
+        <v>0.33424323232144</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09421602755722591</v>
+        <v>0.2091390570902198</v>
       </c>
       <c r="N196" t="n">
-        <v>0.4871712911510832</v>
+        <v>0.4845784780331909</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09512844205394715</v>
+        <v>0.2090168544266046</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1053443746009279</v>
+        <v>0.1089638001257343</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1029587951518881</v>
+        <v>0.2099104300449356</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1844723845571686</v>
+        <v>0.1864862694289831</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09982030423558609</v>
+        <v>0.2107355384420535</v>
       </c>
       <c r="L197" t="n">
-        <v>0.3313275557826976</v>
+        <v>0.3375616855940994</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09493523387445664</v>
+        <v>0.2107355384420535</v>
       </c>
       <c r="N197" t="n">
-        <v>0.4822863612557475</v>
+        <v>0.4879715142381291</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09585461336733604</v>
+        <v>0.2106124029336779</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1111265428655113</v>
+        <v>0.1101711189112388</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1037387860242509</v>
+        <v>0.2115006605755791</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1848957831096502</v>
+        <v>0.1865167943865423</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1005765186616133</v>
+        <v>0.2123320197938872</v>
       </c>
       <c r="L198" t="n">
-        <v>0.3302348241710044</v>
+        <v>0.3374591152030191</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09565444019168738</v>
+        <v>0.2123320197938872</v>
       </c>
       <c r="N198" t="n">
-        <v>0.4831433669041992</v>
+        <v>0.4898341542041135</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09658078468072495</v>
+        <v>0.2122079514407512</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1119066498113935</v>
+        <v>0.1083709811978117</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1045187768966137</v>
+        <v>0.2130908911062226</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1836883865854391</v>
+        <v>0.186935534732921</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1013327330876404</v>
+        <v>0.213928501145721</v>
       </c>
       <c r="L199" t="n">
-        <v>0.330060991936534</v>
+        <v>0.3366352439222845</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09637364650891811</v>
+        <v>0.213928501145721</v>
       </c>
       <c r="N199" t="n">
-        <v>0.481650490152444</v>
+        <v>0.488165997555827</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09730695599411388</v>
+        <v>0.2138034999478245</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1076848521836622</v>
+        <v>0.1145632906449057</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1052987677689765</v>
+        <v>0.214681121636866</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1829609769148217</v>
+        <v>0.1872423370942619</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1020889475136676</v>
+        <v>0.2155249824975548</v>
       </c>
       <c r="L200" t="n">
-        <v>0.3305102435473232</v>
+        <v>0.3366897945259817</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09709285282614885</v>
+        <v>0.2155249824975548</v>
       </c>
       <c r="N200" t="n">
-        <v>0.4767159130564875</v>
+        <v>0.4901666439179531</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09803312730750277</v>
+        <v>0.2153990484548979</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1084613067274048</v>
+        <v>0.1137479509119738</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1060787586413393</v>
+        <v>0.2162713521675095</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1825243360280838</v>
+        <v>0.1864370480967079</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1028451619396948</v>
+        <v>0.2171214638493885</v>
       </c>
       <c r="L201" t="n">
-        <v>0.329886763471408</v>
+        <v>0.3392224897881967</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09781205914337958</v>
+        <v>0.2171214638493885</v>
       </c>
       <c r="N201" t="n">
-        <v>0.4800478176723361</v>
+        <v>0.4915356929151752</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09875929862089168</v>
+        <v>0.2169945969619712</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1062359410774912</v>
+        <v>0.1109248656584689</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1068587495137021</v>
+        <v>0.2178615826981529</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1803892458555117</v>
+        <v>0.1874195143664019</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1036013763657219</v>
+        <v>0.2187179452012222</v>
       </c>
       <c r="L202" t="n">
-        <v>0.3292947361768247</v>
+        <v>0.338033052483015</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09853126546061031</v>
+        <v>0.2187179452012222</v>
       </c>
       <c r="N202" t="n">
-        <v>0.4744543860559951</v>
+        <v>0.4903727441721766</v>
       </c>
       <c r="O202" t="n">
-        <v>0.0994854699342806</v>
+        <v>0.2185901454690445</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1150071359086067</v>
+        <v>0.1110939385438437</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1076387403860649</v>
+        <v>0.2194518132287964</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1807664883273915</v>
+        <v>0.1878895825294866</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1043575907917491</v>
+        <v>0.220314426553056</v>
       </c>
       <c r="L203" t="n">
-        <v>0.3293383461316098</v>
+        <v>0.3404212053845228</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09925047177784103</v>
+        <v>0.220314426553056</v>
       </c>
       <c r="N203" t="n">
-        <v>0.4765438002634705</v>
+        <v>0.4937773973136403</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1002116412476695</v>
+        <v>0.2201856939761178</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1067745522557575</v>
+        <v>0.1202550732275512</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1084187312584277</v>
+        <v>0.2210420437594398</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1813668453740091</v>
+        <v>0.1884470992121049</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1051138052177763</v>
+        <v>0.2219109079048897</v>
       </c>
       <c r="L204" t="n">
-        <v>0.3293217778037996</v>
+        <v>0.3418866712668057</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09996967809507178</v>
+        <v>0.2219109079048897</v>
       </c>
       <c r="N204" t="n">
-        <v>0.4743242423507683</v>
+        <v>0.4930492519642502</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1009378125610584</v>
+        <v>0.2217812424831911</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1135381983403022</v>
+        <v>0.1114081733690442</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1091987221307904</v>
+        <v>0.2226322742900833</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1806010989256508</v>
+        <v>0.1886919110403996</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1058700196438034</v>
+        <v>0.2235073892567234</v>
       </c>
       <c r="L205" t="n">
-        <v>0.3276492156614306</v>
+        <v>0.3410291729039499</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1006888844123025</v>
+        <v>0.2235073892567234</v>
       </c>
       <c r="N205" t="n">
-        <v>0.4716038943738942</v>
+        <v>0.4934879077486893</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1016639838744473</v>
+        <v>0.2233767909902645</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1122980823835996</v>
+        <v>0.1165531426277756</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1099787130031532</v>
+        <v>0.2242225048207267</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1803800309126026</v>
+        <v>0.1881238646405134</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1066262340698306</v>
+        <v>0.2251038706085572</v>
       </c>
       <c r="L206" t="n">
-        <v>0.3267248441725388</v>
+        <v>0.341248433070041</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1014080907295332</v>
+        <v>0.2251038706085572</v>
       </c>
       <c r="N206" t="n">
-        <v>0.469890938388854</v>
+        <v>0.4939929642916412</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1023901551878362</v>
+        <v>0.2249723394973378</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1130542126070083</v>
+        <v>0.1166898846631983</v>
       </c>
       <c r="G207" t="n">
-        <v>0.110758703875516</v>
+        <v>0.2258127353513702</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1790735272304289</v>
+        <v>0.1896428066385896</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1073824484958578</v>
+        <v>0.2267003519603909</v>
       </c>
       <c r="L207" t="n">
-        <v>0.327452847805161</v>
+        <v>0.3429441745391648</v>
       </c>
       <c r="M207" t="n">
-        <v>0.102127297046764</v>
+        <v>0.2267003519603909</v>
       </c>
       <c r="N207" t="n">
-        <v>0.4711935564516536</v>
+        <v>0.4955640212177889</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1031163265012251</v>
+        <v>0.2265678880044111</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1108065972318868</v>
+        <v>0.117818303134765</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1115386947478788</v>
+        <v>0.2274029658820136</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1806735915167949</v>
+        <v>0.1894485836607705</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1081386629218849</v>
+        <v>0.2282968333122246</v>
       </c>
       <c r="L208" t="n">
-        <v>0.3257374110273332</v>
+        <v>0.3432161200854075</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1028465033639947</v>
+        <v>0.2282968333122246</v>
       </c>
       <c r="N208" t="n">
-        <v>0.4689199306182988</v>
+        <v>0.4969006781518158</v>
       </c>
       <c r="O208" t="n">
-        <v>0.103842497814614</v>
+        <v>0.2281634365114844</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.106555244479594</v>
+        <v>0.1129383017019288</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1123186856202416</v>
+        <v>0.2289931964126571</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1800737975312826</v>
+        <v>0.1888410423331991</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1088948773479121</v>
+        <v>0.2298933146640584</v>
       </c>
       <c r="L209" t="n">
-        <v>0.3236827183070921</v>
+        <v>0.3416639924828546</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1035657096812254</v>
+        <v>0.2298933146640584</v>
       </c>
       <c r="N209" t="n">
-        <v>0.4675782429447953</v>
+        <v>0.4941025347184056</v>
       </c>
       <c r="O209" t="n">
-        <v>0.104568669128003</v>
+        <v>0.2297589850185577</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1103001625714886</v>
+        <v>0.1160497840241425</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1130986764926044</v>
+        <v>0.2305834269433005</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1792742280331219</v>
+        <v>0.1888200292820186</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1096510917739393</v>
+        <v>0.2314897960158921</v>
       </c>
       <c r="L210" t="n">
-        <v>0.3233929541124735</v>
+        <v>0.341087514505592</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1042849159984562</v>
+        <v>0.2314897960158921</v>
       </c>
       <c r="N210" t="n">
-        <v>0.4698766754871494</v>
+        <v>0.4933691905422413</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1052948404413919</v>
+        <v>0.2313545335256311</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.107041359728929</v>
+        <v>0.1111526537608589</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1138786673649672</v>
+        <v>0.232173657473944</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1803749657815427</v>
+        <v>0.1901853911333713</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1104073061999664</v>
+        <v>0.2330862773677259</v>
       </c>
       <c r="L211" t="n">
-        <v>0.323772302911514</v>
+        <v>0.3444864089277059</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1050041223156869</v>
+        <v>0.2330862773677259</v>
       </c>
       <c r="N211" t="n">
-        <v>0.4679234103013665</v>
+        <v>0.4968002452480063</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1060210117547808</v>
+        <v>0.2329500820327044</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.100778844173274</v>
+        <v>0.1142468145715308</v>
       </c>
       <c r="G212" t="n">
-        <v>0.11465865823733</v>
+        <v>0.2337638880045874</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1798760935357751</v>
+        <v>0.1904369745134003</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1111635206259936</v>
+        <v>0.2346827587195596</v>
       </c>
       <c r="L212" t="n">
-        <v>0.3245249491722504</v>
+        <v>0.3425603985232819</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1057233286329176</v>
+        <v>0.2346827587195596</v>
       </c>
       <c r="N212" t="n">
-        <v>0.4687266294434526</v>
+        <v>0.4961952984603841</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1067471830681697</v>
+        <v>0.2345456305397777</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1015126241258823</v>
+        <v>0.1123321701156113</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1154386491096927</v>
+        <v>0.2353541185352309</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1809776940550488</v>
+        <v>0.1906746260482484</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1119197350520208</v>
+        <v>0.2362792400713933</v>
       </c>
       <c r="L213" t="n">
-        <v>0.3260550773627184</v>
+        <v>0.3436092060664059</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1064425349501484</v>
+        <v>0.2362792400713933</v>
       </c>
       <c r="N213" t="n">
-        <v>0.4706259120625318</v>
+        <v>0.4984539498040579</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1074733543815586</v>
+        <v>0.236141179046851</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1002427078081126</v>
+        <v>0.1204086240525531</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1162186399820555</v>
+        <v>0.2369443490658743</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1795798500985941</v>
+        <v>0.1907981923640585</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1126759494780479</v>
+        <v>0.2378757214232271</v>
       </c>
       <c r="L214" t="n">
-        <v>0.3246497102931865</v>
+        <v>0.3443325543311636</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1071617412673791</v>
+        <v>0.2378757214232271</v>
       </c>
       <c r="N214" t="n">
-        <v>0.4685262500110475</v>
+        <v>0.4976757989037111</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1081995256949475</v>
+        <v>0.2377367275539243</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1039691034413236</v>
+        <v>0.119476080041809</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1169986308544183</v>
+        <v>0.2385345795965178</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1794826444256407</v>
+        <v>0.1906075200869733</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1134321639040751</v>
+        <v>0.2394722027750608</v>
       </c>
       <c r="L215" t="n">
-        <v>0.3262499229152419</v>
+        <v>0.3452301660916414</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1078809475846098</v>
+        <v>0.2394722027750608</v>
       </c>
       <c r="N215" t="n">
-        <v>0.4668272142201423</v>
+        <v>0.4988604453840269</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1089256970083364</v>
+        <v>0.2393322760609976</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1036918192468737</v>
+        <v>0.1135344417428321</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1177786217267811</v>
+        <v>0.2401248101271612</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1795861597954186</v>
+        <v>0.1894024558431357</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1141883783301023</v>
+        <v>0.2410686841268946</v>
       </c>
       <c r="L216" t="n">
-        <v>0.3243506402374615</v>
+        <v>0.3446017641219244</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1086001539018406</v>
+        <v>0.2410686841268946</v>
       </c>
       <c r="N216" t="n">
-        <v>0.4685291335723426</v>
+        <v>0.4973074888696888</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1096518683217253</v>
+        <v>0.240927824568071</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1054108634461219</v>
+        <v>0.118583612815075</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1185586125991439</v>
+        <v>0.2417150406578047</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1809904789671579</v>
+        <v>0.1904828462586886</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1149445927561294</v>
+        <v>0.2426651654787283</v>
       </c>
       <c r="L217" t="n">
-        <v>0.3260521701504848</v>
+        <v>0.3426470711960992</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1093193602190713</v>
+        <v>0.2426651654787283</v>
       </c>
       <c r="N217" t="n">
-        <v>0.4668323369501748</v>
+        <v>0.4977165289853801</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1103780396351142</v>
+        <v>0.2425233730751443</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1061262442604267</v>
+        <v>0.1166234969179908</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1193386034715067</v>
+        <v>0.2433052711884482</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1807956847000884</v>
+        <v>0.1902485379597748</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1157008071821566</v>
+        <v>0.2442616468305621</v>
       </c>
       <c r="L218" t="n">
-        <v>0.3254548205449517</v>
+        <v>0.3458658100882509</v>
       </c>
       <c r="M218" t="n">
-        <v>0.110038566536302</v>
+        <v>0.2442616468305621</v>
       </c>
       <c r="N218" t="n">
-        <v>0.4691371532361656</v>
+        <v>0.4973871653557841</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1111042109485032</v>
+        <v>0.2441189215822176</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1098379699111467</v>
+        <v>0.1116539977110322</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1201185943438695</v>
+        <v>0.2448955017190916</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1800018597534401</v>
+        <v>0.190099377572537</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1164570216081838</v>
+        <v>0.2458581281823958</v>
       </c>
       <c r="L219" t="n">
-        <v>0.3256588993115015</v>
+        <v>0.3432577035724661</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1107577728535328</v>
+        <v>0.2458581281823958</v>
       </c>
       <c r="N219" t="n">
-        <v>0.4712439113128414</v>
+        <v>0.5005189976055842</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1118303822618921</v>
+        <v>0.2457144700892909</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.09854604861964078</v>
+        <v>0.1176750188536523</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1208985852162323</v>
+        <v>0.246485732249735</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1797090868864429</v>
+        <v>0.1908352117231182</v>
       </c>
       <c r="K220" t="n">
-        <v>0.117213236034211</v>
+        <v>0.2474546095342295</v>
       </c>
       <c r="L220" t="n">
-        <v>0.3239647143407742</v>
+        <v>0.3445224744228302</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1114769791707635</v>
+        <v>0.2474546095342295</v>
       </c>
       <c r="N220" t="n">
-        <v>0.4711529400627287</v>
+        <v>0.4958116253594638</v>
       </c>
       <c r="O220" t="n">
-        <v>0.112556553575281</v>
+        <v>0.2473100185963642</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1022504886072674</v>
+        <v>0.1166864640053036</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1216785760885951</v>
+        <v>0.2480759627803785</v>
       </c>
       <c r="J221" t="n">
-        <v>0.180317448858327</v>
+        <v>0.1910558870376612</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1179694504602381</v>
+        <v>0.2490510908860632</v>
       </c>
       <c r="L221" t="n">
-        <v>0.3259725735234092</v>
+        <v>0.3427598454134294</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1121961854879942</v>
+        <v>0.2490510908860632</v>
       </c>
       <c r="N221" t="n">
-        <v>0.4689645683683541</v>
+        <v>0.4988646482421061</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1132827248886699</v>
+        <v>0.2489055671034376</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1059512980953853</v>
+        <v>0.1106733680377127</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1224585669609579</v>
+        <v>0.2496661933110219</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1802270284283221</v>
+        <v>0.1901558340111422</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1187256648862653</v>
+        <v>0.250647572237897</v>
       </c>
       <c r="L222" t="n">
-        <v>0.3232827847500462</v>
+        <v>0.3445597495670741</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1129153918052249</v>
+        <v>0.250647572237897</v>
       </c>
       <c r="N222" t="n">
-        <v>0.4700791251122441</v>
+        <v>0.4996585646919363</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1140088962020588</v>
+        <v>0.2505011156105109</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1046484853053532</v>
+        <v>0.1124327710255161</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1232385578333206</v>
+        <v>0.2512564238416654</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1802379083556582</v>
+        <v>0.1901495219018596</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1194818793122924</v>
+        <v>0.2522440535897307</v>
       </c>
       <c r="L223" t="n">
-        <v>0.325595655911325</v>
+        <v>0.3426060851024982</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1136345981224557</v>
+        <v>0.2522440535897307</v>
       </c>
       <c r="N223" t="n">
-        <v>0.4707969391769252</v>
+        <v>0.496529052004528</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1147350675154477</v>
+        <v>0.2520966641175842</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1073420584585298</v>
+        <v>0.1119235800124111</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1240185487056834</v>
+        <v>0.2528466543723089</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1809501713995654</v>
+        <v>0.1893096076973599</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1202380937383196</v>
+        <v>0.2538405349415644</v>
       </c>
       <c r="L224" t="n">
-        <v>0.323211494897885</v>
+        <v>0.3427686773100809</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1143538044396864</v>
+        <v>0.2538405349415644</v>
       </c>
       <c r="N224" t="n">
-        <v>0.4672183394449239</v>
+        <v>0.4961699713611574</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1154612388288366</v>
+        <v>0.2536922126246575</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1000320257762736</v>
+        <v>0.1121758285264333</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1247985395780462</v>
+        <v>0.2544368849029524</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1808639003192736</v>
+        <v>0.1885839046826639</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1209943081643468</v>
+        <v>0.2554370162933982</v>
       </c>
       <c r="L225" t="n">
-        <v>0.3255306096003661</v>
+        <v>0.3413339495340134</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1150730107569172</v>
+        <v>0.2554370162933982</v>
       </c>
       <c r="N225" t="n">
-        <v>0.4673436547987668</v>
+        <v>0.4915061371173118</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1161874101422255</v>
+        <v>0.2552877611317309</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1057183954799434</v>
+        <v>0.1152195500956185</v>
       </c>
       <c r="G226" t="n">
-        <v>0.125578530450409</v>
+        <v>0.2560271154335957</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1797791778740126</v>
+        <v>0.1870202261427921</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1217505225903739</v>
+        <v>0.257033497645232</v>
       </c>
       <c r="L226" t="n">
-        <v>0.3259533079094079</v>
+        <v>0.3364883251184876</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1157922170741479</v>
+        <v>0.257033497645232</v>
       </c>
       <c r="N226" t="n">
-        <v>0.4693732141209802</v>
+        <v>0.4896623636284787</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1169135814556144</v>
+        <v>0.2568833096388041</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1014011757908978</v>
+        <v>0.1110847782480024</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1263585213227718</v>
+        <v>0.2576173459642392</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1797960868230125</v>
+        <v>0.1846663853627655</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1225067370164011</v>
+        <v>0.2586299789970657</v>
       </c>
       <c r="L227" t="n">
-        <v>0.3247798977156497</v>
+        <v>0.3331182274076955</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1165114233913786</v>
+        <v>0.2586299789970657</v>
       </c>
       <c r="N227" t="n">
-        <v>0.4700073462940907</v>
+        <v>0.4834634652501449</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1176397527690033</v>
+        <v>0.2584788581458775</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1020803749304955</v>
+        <v>0.1118015465116206</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1271385121951346</v>
+        <v>0.2592075764948827</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1806147099255033</v>
+        <v>0.1834701956276047</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1232629514424283</v>
+        <v>0.2602264603488994</v>
       </c>
       <c r="L228" t="n">
-        <v>0.3238106869097317</v>
+        <v>0.3300100797458285</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1172306297086094</v>
+        <v>0.2602264603488994</v>
       </c>
       <c r="N228" t="n">
-        <v>0.468946380200625</v>
+        <v>0.4769342563377982</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1183659240823922</v>
+        <v>0.2600744066529508</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1067560011200951</v>
+        <v>0.112399888414509</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1279185030674974</v>
+        <v>0.2607978070255261</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1810351299407149</v>
+        <v>0.1816794702223306</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1240191658684554</v>
+        <v>0.2618229417007332</v>
       </c>
       <c r="L229" t="n">
-        <v>0.3234459833822932</v>
+        <v>0.3273503054770784</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1179498360258401</v>
+        <v>0.2618229417007332</v>
       </c>
       <c r="N229" t="n">
-        <v>0.4680906447231094</v>
+        <v>0.4727995512469254</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1190920953957812</v>
+        <v>0.2616699551600241</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.09942806258105544</v>
+        <v>0.1089098374847031</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1286984939398602</v>
+        <v>0.2623880375561696</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1801574296278771</v>
+        <v>0.1784420224319639</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1247753802944826</v>
+        <v>0.2634194230525669</v>
       </c>
       <c r="L230" t="n">
-        <v>0.324986095023974</v>
+        <v>0.3219253279456372</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1186690423430708</v>
+        <v>0.2634194230525669</v>
       </c>
       <c r="N230" t="n">
-        <v>0.4720404687440705</v>
+        <v>0.465384164333014</v>
       </c>
       <c r="O230" t="n">
-        <v>0.11981826670917</v>
+        <v>0.2632655036670974</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1010965675347351</v>
+        <v>0.1103614272502388</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1294784848122229</v>
+        <v>0.263978268086813</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1796816917462201</v>
+        <v>0.1766056655415253</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1255315947205098</v>
+        <v>0.2650159044044006</v>
       </c>
       <c r="L231" t="n">
-        <v>0.3255313297254137</v>
+        <v>0.3193215704956964</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1193882486603015</v>
+        <v>0.2650159044044006</v>
       </c>
       <c r="N231" t="n">
-        <v>0.4707961811460348</v>
+        <v>0.4591129099515512</v>
       </c>
       <c r="O231" t="n">
-        <v>0.120544438022559</v>
+        <v>0.2648610521741707</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1057615242024926</v>
+        <v>0.1097846912391517</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1302584756845857</v>
+        <v>0.2655684986174565</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1803079990549738</v>
+        <v>0.1730182128360356</v>
       </c>
       <c r="K232" t="n">
-        <v>0.126287809146537</v>
+        <v>0.2666123857562344</v>
       </c>
       <c r="L232" t="n">
-        <v>0.3238819953772518</v>
+        <v>0.3124254564714478</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1201074549775323</v>
+        <v>0.2666123857562344</v>
       </c>
       <c r="N232" t="n">
-        <v>0.4673581108115288</v>
+        <v>0.4520106024580244</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1212706093359479</v>
+        <v>0.266456600681244</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.09442294080568678</v>
+        <v>0.1002096629794775</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1310384665569485</v>
+        <v>0.2671587291480999</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1794364343133681</v>
+        <v>0.1708274776005155</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1270440235725641</v>
+        <v>0.2682088671080681</v>
       </c>
       <c r="L233" t="n">
-        <v>0.3233383998701282</v>
+        <v>0.3093234092170831</v>
       </c>
       <c r="M233" t="n">
-        <v>0.120826661294763</v>
+        <v>0.2682088671080681</v>
       </c>
       <c r="N233" t="n">
-        <v>0.4678265866230791</v>
+        <v>0.4471020562079208</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1219967806493368</v>
+        <v>0.2680521491883174</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1050808255656763</v>
+        <v>0.107666375999252</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1318184574293113</v>
+        <v>0.2687489596787433</v>
       </c>
       <c r="J234" t="n">
-        <v>0.180767080280633</v>
+        <v>0.168481273119986</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1278002379985913</v>
+        <v>0.2698053484599018</v>
       </c>
       <c r="L234" t="n">
-        <v>0.3252008510946823</v>
+        <v>0.3064018520767943</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1215458676119937</v>
+        <v>0.2698053484599018</v>
       </c>
       <c r="N234" t="n">
-        <v>0.470401937463212</v>
+        <v>0.4409120855567273</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1227229519627257</v>
+        <v>0.2696476976953907</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1047351867038198</v>
+        <v>0.1001848638265108</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1325984483016741</v>
+        <v>0.2703391902093868</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1801000197159984</v>
+        <v>0.1667274126794674</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1285564524246184</v>
+        <v>0.2714018298117356</v>
       </c>
       <c r="L235" t="n">
-        <v>0.3254696569415542</v>
+        <v>0.3000472083947728</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1222650739292245</v>
+        <v>0.2714018298117356</v>
       </c>
       <c r="N235" t="n">
-        <v>0.4677844922144542</v>
+        <v>0.4349655048599319</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1234491232761146</v>
+        <v>0.271243246202464</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.09638603244147587</v>
+        <v>0.1037951599892897</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1333784391740369</v>
+        <v>0.2719294207400303</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1807353353786944</v>
+        <v>0.1635137095639809</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1293126668506456</v>
+        <v>0.2729983111635693</v>
       </c>
       <c r="L236" t="n">
-        <v>0.323745125301383</v>
+        <v>0.2974459015152104</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1229842802464552</v>
+        <v>0.2729983111635693</v>
       </c>
       <c r="N236" t="n">
-        <v>0.4711745797593323</v>
+        <v>0.4279871284730212</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1241752945895035</v>
+        <v>0.2728387947095373</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.09603337100000328</v>
+        <v>0.1025216445183824</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1341584300463997</v>
+        <v>0.2735196512706737</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1798731100279507</v>
+        <v>0.1613846656905066</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1300688812766728</v>
+        <v>0.2745947925154031</v>
       </c>
       <c r="L237" t="n">
-        <v>0.3251275640648086</v>
+        <v>0.2925783694269783</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1237034865636859</v>
+        <v>0.2745947925154031</v>
       </c>
       <c r="N237" t="n">
-        <v>0.4705725289803726</v>
+        <v>0.4256913866117983</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1249014659028924</v>
+        <v>0.2744343432166106</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1046772106007607</v>
+        <v>0.09728077053871198</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1349384209187625</v>
+        <v>0.2751098818013172</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1795134264229975</v>
+        <v>0.160525383419055</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1308250957027</v>
+        <v>0.2761912738672368</v>
       </c>
       <c r="L238" t="n">
-        <v>0.3261172811224706</v>
+        <v>0.2895369326476199</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1244226928809167</v>
+        <v>0.2761912738672368</v>
       </c>
       <c r="N238" t="n">
-        <v>0.4717786687601017</v>
+        <v>0.4211704982627191</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1256276372162813</v>
+        <v>0.276029891723684</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1043175594651067</v>
+        <v>0.08903532174740325</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1357184117911253</v>
+        <v>0.2767001123319606</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1809563673230647</v>
+        <v>0.1577588581084353</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1315813101287271</v>
+        <v>0.2777877552190706</v>
       </c>
       <c r="L239" t="n">
-        <v>0.3271145843650087</v>
+        <v>0.2863824039490024</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1251418991981474</v>
+        <v>0.2777877552190706</v>
       </c>
       <c r="N239" t="n">
-        <v>0.467793327981046</v>
+        <v>0.4118306867477454</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1263538085296702</v>
+        <v>0.2776254402307573</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1029544258144</v>
+        <v>0.09078522699391445</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1364984026634881</v>
+        <v>0.2782903428626041</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1796020154873821</v>
+        <v>0.1553849764872024</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1323375245547543</v>
+        <v>0.2793842365709043</v>
       </c>
       <c r="L240" t="n">
-        <v>0.3240197816830627</v>
+        <v>0.2807145785910187</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1258611055153781</v>
+        <v>0.2793842365709043</v>
       </c>
       <c r="N240" t="n">
-        <v>0.4725168355257323</v>
+        <v>0.4099716563770402</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1270799798430592</v>
+        <v>0.2792209887378306</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.09558781786999931</v>
+        <v>0.09553041512770402</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1372783935358508</v>
+        <v>0.2798805733932475</v>
       </c>
       <c r="J241" t="n">
-        <v>0.18015045367518</v>
+        <v>0.154603625283911</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1330937389807814</v>
+        <v>0.280980717922738</v>
       </c>
       <c r="L241" t="n">
-        <v>0.3247331809672719</v>
+        <v>0.2777332518335612</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1265803118326089</v>
+        <v>0.280980717922738</v>
       </c>
       <c r="N241" t="n">
-        <v>0.4682495202766868</v>
+        <v>0.4007931114607673</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1278061511564481</v>
+        <v>0.2808165372449039</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.09121774385326326</v>
+        <v>0.09727081499823026</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1380583844082136</v>
+        <v>0.281470803923891</v>
       </c>
       <c r="J242" t="n">
-        <v>0.181501764645688</v>
+        <v>0.1513146912271158</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1338499534068086</v>
+        <v>0.2825771992745718</v>
       </c>
       <c r="L242" t="n">
-        <v>0.3248550901082762</v>
+        <v>0.2751382189365228</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1272995181498396</v>
+        <v>0.2825771992745718</v>
       </c>
       <c r="N242" t="n">
-        <v>0.4721917111164362</v>
+        <v>0.3992947563090897</v>
       </c>
       <c r="O242" t="n">
-        <v>0.128532322469837</v>
+        <v>0.2824120857519772</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.09884421198555049</v>
+        <v>0.09200635545495151</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1388383752805764</v>
+        <v>0.2830610344545345</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1799560311581362</v>
+        <v>0.1501180610453716</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1346061678328358</v>
+        <v>0.2841736806264055</v>
       </c>
       <c r="L243" t="n">
-        <v>0.3261858169967152</v>
+        <v>0.2724292751597963</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1280187244670703</v>
+        <v>0.2841736806264055</v>
       </c>
       <c r="N243" t="n">
-        <v>0.468443736927507</v>
+        <v>0.3915762952321707</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1292584937832259</v>
+        <v>0.2840076342590506</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.09846723048821976</v>
+        <v>0.08773696534732608</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1396183661529392</v>
+        <v>0.2846512649851779</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1807133359717546</v>
+        <v>0.1479136214672329</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1353623822588629</v>
+        <v>0.2857701619782393</v>
       </c>
       <c r="L244" t="n">
-        <v>0.3277256695232286</v>
+        <v>0.2695062157632744</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1287379307843011</v>
+        <v>0.2857701619782393</v>
       </c>
       <c r="N244" t="n">
-        <v>0.4722059265924257</v>
+        <v>0.3851374325401737</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1299846650966148</v>
+        <v>0.2856031827661239</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.09508680758262958</v>
+        <v>0.09046257352481238</v>
       </c>
       <c r="G245" t="n">
-        <v>0.140398357025302</v>
+        <v>0.2862414955158213</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1805737618457731</v>
+        <v>0.1453012592212544</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1361185966848901</v>
+        <v>0.287366643330073</v>
       </c>
       <c r="L245" t="n">
-        <v>0.3261749555784559</v>
+        <v>0.2640688360068498</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1294571371015318</v>
+        <v>0.287366643330073</v>
       </c>
       <c r="N245" t="n">
-        <v>0.4693786089937186</v>
+        <v>0.3819778725432621</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1307108364100037</v>
+        <v>0.2871987312731972</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.09570295149013874</v>
+        <v>0.08218310883686866</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1411783478976648</v>
+        <v>0.2878317260464648</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1802373915394217</v>
+        <v>0.143280861035991</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1368748111109173</v>
+        <v>0.2889631246819067</v>
       </c>
       <c r="L246" t="n">
-        <v>0.3252339830530369</v>
+        <v>0.2602169311504152</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1301763434187625</v>
+        <v>0.2889631246819067</v>
       </c>
       <c r="N246" t="n">
-        <v>0.4719621130139126</v>
+        <v>0.3745973195515988</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1314370077233926</v>
+        <v>0.2887942797802705</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.09531567043210595</v>
+        <v>0.08589850013295328</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1419583387700276</v>
+        <v>0.2894219565771083</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1807043078119304</v>
+        <v>0.1427523136399974</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1376310255369445</v>
+        <v>0.2905596060337404</v>
       </c>
       <c r="L247" t="n">
-        <v>0.3256030598376111</v>
+        <v>0.2572502964538634</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1308955497359933</v>
+        <v>0.2905596060337404</v>
       </c>
       <c r="N247" t="n">
-        <v>0.4694567675355339</v>
+        <v>0.3739954778753476</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1321631790367815</v>
+        <v>0.2903898282873438</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.08892497262988974</v>
+        <v>0.08560867626252464</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1427383296423904</v>
+        <v>0.2910121871077517</v>
       </c>
       <c r="J248" t="n">
-        <v>0.180474593422529</v>
+        <v>0.139715503761828</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1383872399629716</v>
+        <v>0.2921560873855742</v>
       </c>
       <c r="L248" t="n">
-        <v>0.3258824938228182</v>
+        <v>0.2535687271770869</v>
       </c>
       <c r="M248" t="n">
-        <v>0.131614756053224</v>
+        <v>0.2921560873855742</v>
       </c>
       <c r="N248" t="n">
-        <v>0.4707629014411093</v>
+        <v>0.3665720518246715</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1328893503501704</v>
+        <v>0.2919853767944172</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.09853086630484884</v>
+        <v>0.08731356607504095</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1435183205147531</v>
+        <v>0.2926024176383952</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1805483311304475</v>
+        <v>0.1375703181300378</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1391434543889988</v>
+        <v>0.293752568737408</v>
       </c>
       <c r="L249" t="n">
-        <v>0.3275725928992981</v>
+        <v>0.2479720185799789</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1323339623704547</v>
+        <v>0.293752568737408</v>
       </c>
       <c r="N249" t="n">
-        <v>0.473580843613165</v>
+        <v>0.3622267457097338</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1336155216635594</v>
+        <v>0.2935809253014905</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1001333596783419</v>
+        <v>0.07901309841996065</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1442983113871159</v>
+        <v>0.2941926481690386</v>
       </c>
       <c r="J250" t="n">
-        <v>0.180625603694916</v>
+        <v>0.1369166434731815</v>
       </c>
       <c r="K250" t="n">
-        <v>0.139899668815026</v>
+        <v>0.2953490500892417</v>
       </c>
       <c r="L250" t="n">
-        <v>0.3287736649576901</v>
+        <v>0.2458599659224318</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1330531686876855</v>
+        <v>0.2953490500892417</v>
       </c>
       <c r="N250" t="n">
-        <v>0.4709109229342276</v>
+        <v>0.3536592638406978</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1343416929769482</v>
+        <v>0.2951764738085638</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.09273246097172769</v>
+        <v>0.07370720214674203</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1450783022594787</v>
+        <v>0.2957828786996821</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1813064938751643</v>
+        <v>0.1342543665198137</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1406558832410531</v>
+        <v>0.2969455314410754</v>
       </c>
       <c r="L251" t="n">
-        <v>0.328486017888634</v>
+        <v>0.2434323644643384</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1337723750049162</v>
+        <v>0.2969455314410754</v>
       </c>
       <c r="N251" t="n">
-        <v>0.4730534682868238</v>
+        <v>0.3523693105277271</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1350678642903372</v>
+        <v>0.2967720223156371</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.09632817840636476</v>
+        <v>0.07639580610484342</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1458582931318415</v>
+        <v>0.2973731092303255</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1805910844304225</v>
+        <v>0.132583373998489</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1414120976670803</v>
+        <v>0.2985420127929092</v>
       </c>
       <c r="L252" t="n">
-        <v>0.3275099595827694</v>
+        <v>0.2377890094655912</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1344915813221469</v>
+        <v>0.2985420127929092</v>
       </c>
       <c r="N252" t="n">
-        <v>0.47460880855348</v>
+        <v>0.3431565900809846</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1357940356037261</v>
+        <v>0.2983675708227104</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.09392052020361183</v>
+        <v>0.07507883914372324</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1466382840042043</v>
+        <v>0.2989633397609689</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1804794581199204</v>
+        <v>0.1299035526377623</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1421683120931075</v>
+        <v>0.3001384941447429</v>
       </c>
       <c r="L253" t="n">
-        <v>0.3271457979307361</v>
+        <v>0.2359296961860834</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1352107876393776</v>
+        <v>0.3001384941447429</v>
       </c>
       <c r="N253" t="n">
-        <v>0.4734772726167227</v>
+        <v>0.3371208068106338</v>
       </c>
       <c r="O253" t="n">
-        <v>0.136520206917115</v>
+        <v>0.2999631193297838</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.09650949458482749</v>
+        <v>0.07475623011283969</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1474182748765671</v>
+        <v>0.3005535702916124</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1808716977028881</v>
+        <v>0.1269147891661882</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1429245265191346</v>
+        <v>0.3017349754965766</v>
       </c>
       <c r="L254" t="n">
-        <v>0.3267938408231734</v>
+        <v>0.2315542198857075</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1359299939566084</v>
+        <v>0.3017349754965766</v>
       </c>
       <c r="N254" t="n">
-        <v>0.4757591893590783</v>
+        <v>0.3348616650268379</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1372463782305039</v>
+        <v>0.3015586678368571</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.09609510977137051</v>
+        <v>0.07542790786165124</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1481982657489299</v>
+        <v>0.3021438008222558</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1813678859385555</v>
+        <v>0.1256169703123214</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1436807409451618</v>
+        <v>0.3033314568484103</v>
       </c>
       <c r="L255" t="n">
-        <v>0.3295543961507215</v>
+        <v>0.2282623758243562</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1366492002738391</v>
+        <v>0.3033314568484103</v>
       </c>
       <c r="N255" t="n">
-        <v>0.4738548876630736</v>
+        <v>0.3308788690397604</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1379725495438928</v>
+        <v>0.3031542163439304</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.09567737398459952</v>
+        <v>0.07609380123961609</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1489782566212927</v>
+        <v>0.3037340313528993</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1809681055861526</v>
+        <v>0.1226099828047166</v>
       </c>
       <c r="K256" t="n">
-        <v>0.144436955371189</v>
+        <v>0.3049279382002441</v>
       </c>
       <c r="L256" t="n">
-        <v>0.3289277718040196</v>
+        <v>0.2246539592619221</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1373684065910699</v>
+        <v>0.3049279382002441</v>
       </c>
       <c r="N256" t="n">
-        <v>0.4753646964112348</v>
+        <v>0.3215721231595644</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1386987208572817</v>
+        <v>0.3047497648510037</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.09725629544587316</v>
+        <v>0.0667538390961927</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1497582474936555</v>
+        <v>0.3053242618835428</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1824724394049092</v>
+        <v>0.1211937133719286</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1451931697972161</v>
+        <v>0.3065244195520778</v>
       </c>
       <c r="L257" t="n">
-        <v>0.3296142756737074</v>
+        <v>0.2200287654582982</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1380876129083006</v>
+        <v>0.3065244195520778</v>
       </c>
       <c r="N257" t="n">
-        <v>0.4752889444860887</v>
+        <v>0.3159411316964131</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1394248921706706</v>
+        <v>0.306345313358077</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.08483188237655012</v>
+        <v>0.06540795028083932</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1505382383660183</v>
+        <v>0.3069144924141862</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1817809701540555</v>
+        <v>0.118868048742512</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1459493842232433</v>
+        <v>0.3081209009039116</v>
       </c>
       <c r="L258" t="n">
-        <v>0.3302142156504246</v>
+        <v>0.2173865896733771</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1388068192255313</v>
+        <v>0.3081209009039116</v>
       </c>
       <c r="N258" t="n">
-        <v>0.4758279607701615</v>
+        <v>0.3135855989604701</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1401510634840595</v>
+        <v>0.3079408618651504</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0904041429979891</v>
+        <v>0.06705606364301431</v>
       </c>
       <c r="G259" t="n">
-        <v>0.151318229238381</v>
+        <v>0.3085047229448297</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1812937805928212</v>
+        <v>0.1171328756450215</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1467055986492705</v>
+        <v>0.3097173822557454</v>
       </c>
       <c r="L259" t="n">
-        <v>0.3295278996248111</v>
+        <v>0.2134272271670514</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1395260255427621</v>
+        <v>0.3097173822557454</v>
       </c>
       <c r="N259" t="n">
-        <v>0.47388207414598</v>
+        <v>0.3085052292618986</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1408772347974484</v>
+        <v>0.3095364103722236</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0849730855315487</v>
+        <v>0.07269810803217605</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1520982201107438</v>
+        <v>0.3100949534754731</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1817109534804364</v>
+        <v>0.1152880808080119</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1474618130752976</v>
+        <v>0.3113138636075791</v>
       </c>
       <c r="L260" t="n">
-        <v>0.3309556354875062</v>
+        <v>0.208050473199214</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1402452318599928</v>
+        <v>0.3113138636075791</v>
       </c>
       <c r="N260" t="n">
-        <v>0.4730516134960705</v>
+        <v>0.3000997269108618</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1416034061108374</v>
+        <v>0.311131958879297</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.08853871819858763</v>
+        <v>0.07133401229778277</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1528782109831066</v>
+        <v>0.3116851840061166</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1817325715761312</v>
+        <v>0.1136335509600379</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1482180275013248</v>
+        <v>0.3129103449594128</v>
       </c>
       <c r="L261" t="n">
-        <v>0.3298977311291498</v>
+        <v>0.2029561230297577</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1409644381772235</v>
+        <v>0.3129103449594128</v>
       </c>
       <c r="N261" t="n">
-        <v>0.4751369077029597</v>
+        <v>0.295968796217523</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1423295774242263</v>
+        <v>0.3127275073863703</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.08610104922046455</v>
+        <v>0.06796370528929296</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1536582018554694</v>
+        <v>0.31327541453676</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1814587176391352</v>
+        <v>0.1106691728296541</v>
       </c>
       <c r="K262" t="n">
-        <v>0.148974241927352</v>
+        <v>0.3145068263112465</v>
       </c>
       <c r="L262" t="n">
-        <v>0.3302544944403814</v>
+        <v>0.2016439719185753</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1416836444944543</v>
+        <v>0.3145068263112465</v>
       </c>
       <c r="N262" t="n">
-        <v>0.478438285649174</v>
+        <v>0.2884121414920456</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1430557487376152</v>
+        <v>0.3143230558934436</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.08366008681853818</v>
+        <v>0.0615871158561648</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1544381927278322</v>
+        <v>0.3148656450674035</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1834894744286787</v>
+        <v>0.1079948331454152</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1497304563533791</v>
+        <v>0.3161033076630803</v>
       </c>
       <c r="L263" t="n">
-        <v>0.3326262333118406</v>
+        <v>0.197613815125559</v>
       </c>
       <c r="M263" t="n">
-        <v>0.142402850811685</v>
+        <v>0.3161033076630803</v>
       </c>
       <c r="N263" t="n">
-        <v>0.47895607621724</v>
+        <v>0.2814294670445929</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1437819200510041</v>
+        <v>0.3159186044005169</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.08421583921416706</v>
+        <v>0.05620417284785676</v>
       </c>
       <c r="G264" t="n">
-        <v>0.155218183600195</v>
+        <v>0.3164558755980469</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1829249247039915</v>
+        <v>0.105910418635876</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1504866707794063</v>
+        <v>0.317699789014914</v>
       </c>
       <c r="L264" t="n">
-        <v>0.3302132556341671</v>
+        <v>0.1932654479106022</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1431220571289157</v>
+        <v>0.317699789014914</v>
       </c>
       <c r="N264" t="n">
-        <v>0.476390608289684</v>
+        <v>0.2796204771853282</v>
       </c>
       <c r="O264" t="n">
-        <v>0.144508091364393</v>
+        <v>0.3175141529075902</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1413.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1413.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.5616288532109226</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.05688345513976188</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.05688345513976188</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.09101352822361901</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1627171315509428</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.06143413155094284</v>
+        <v>0.09665863685450905</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00159366708079646</v>
+        <v>0.002507428423594708</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,17 +9250,17 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.03413007308385713</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0005312223602654866</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.05026249116434471</v>
+        <v>0</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0.000782317668161549</v>
+        <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
         <v>0</v>
@@ -9295,10 +9269,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.1314381626160788</v>
+        <v>0</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0006427450787802616</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.06143413155094284</v>
+        <v>0.03820094368476044</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.00159366708079646</v>
+        <v>0.0005299992770060072</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.07551098636182939</v>
+        <v>0.03820094368476044</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001596481351833739</v>
+        <v>0.0005299992770060072</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.1048273002579367</v>
+        <v>0.103080178586971</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008209996837913741</v>
+        <v>0.0008237921997226371</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.2096554961760706</v>
+        <v>0.1061615928822175</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001595548507073318</v>
+        <v>0.00053411545562842</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.06874620732141964</v>
+        <v>0.05412883663852507</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003180461061286904</v>
+        <v>0.000842495950327822</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.09665863685450905</v>
+        <v>0.05412883663852507</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.002837580497663551</v>
+        <v>0.000842495950327822</v>
       </c>
       <c r="L67" s="172" t="n">
         <v>0.1747121670965611</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.002837580497663552</v>
+        <v>0.002327096609385981</v>
       </c>
       <c r="N67" s="171" t="n">
         <v>0.2527656973386131</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.002651944390339767</v>
+        <v>0.002119505776303254</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0699132442597119</v>
+        <v>0.08037177442933423</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004770691591930356</v>
+        <v>0.001589997831018021</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.1095260300860566</v>
+        <v>0.08037177442933423</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004789444055501216</v>
+        <v>0.001589997831018021</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1977155073560067</v>
+        <v>0.1837979331819769</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004789444055501216</v>
+        <v>0.002931889124920691</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2895310177528309</v>
+        <v>0.267560492468283</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004786645521219953</v>
+        <v>0.002928759614874217</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.07602222972905631</v>
+        <v>0.09287724464194867</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006360922122573808</v>
+        <v>0.002119997108024029</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1205209097566608</v>
+        <v>0.09287724464194867</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006385925407334955</v>
+        <v>0.002119997108024029</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.2140478009128728</v>
+        <v>0.1950769908166733</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006385925407334955</v>
+        <v>0.003909185499894254</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.3159654909705019</v>
+        <v>0.2906185866252396</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006382194028293271</v>
+        <v>0.003905012819832289</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005312223602654866</v>
+        <v>0.000842495950327822</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03413007308385713</v>
+        <v>0.05412883663852507</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.08017948735163302</v>
+        <v>0.09665863685450905</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007951152653217261</v>
+        <v>0.002507428423594708</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1287729676804342</v>
+        <v>0.09665863685450905</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.007982406759168692</v>
+        <v>0.002507428423594708</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.2310193359687599</v>
+        <v>0.2091238954183767</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007982406759168692</v>
+        <v>0.004886481874867818</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.3391425766040781</v>
+        <v>0.3116670471327178</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007977742535366589</v>
+        <v>0.004881266024790362</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.09249134074962215</v>
+        <v>0.09840098875105278</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009541383183860712</v>
+        <v>0.003179995662036043</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1362911595855205</v>
+        <v>0.09840098875105278</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009578888111002432</v>
+        <v>0.003179995662036043</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.2446987486485241</v>
+        <v>0.2233530742974131</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009578888111002432</v>
+        <v>0.005863778249841381</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.3585534568843806</v>
+        <v>0.3299366254623004</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009573291042439907</v>
+        <v>0.005857519229748433</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.08406411354520385</v>
+        <v>0.09974445616083531</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01113161371450416</v>
+        <v>0.00370999493904205</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1435844412000634</v>
+        <v>0.09974445616083531</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01117536946283617</v>
+        <v>0.00370999493904205</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.2564546750770215</v>
+        <v>0.2325789547641087</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01117536946283617</v>
+        <v>0.006841074624814945</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.37678931404223</v>
+        <v>0.3455580730855718</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01116883954951322</v>
+        <v>0.006833772434706506</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.09300412936055835</v>
+        <v>0.1010621465209147</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01272184424514762</v>
+        <v>0.004239994216048057</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1475617682522064</v>
+        <v>0.1010621465209147</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01277185081466991</v>
+        <v>0.004239994216048057</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.2677557513791078</v>
+        <v>0.2445159641287896</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01277185081466991</v>
+        <v>0.007818370999788507</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.3877413303084479</v>
+        <v>0.363262141474116</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01276438805658654</v>
+        <v>0.007810025639664578</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.09941771181786574</v>
+        <v>0.1023543058026243</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01431207477579107</v>
+        <v>0.004769993493054064</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1532320964700932</v>
+        <v>0.1023543058026243</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01436833216650365</v>
+        <v>0.004769993493054064</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.2743706136796394</v>
+        <v>0.2566785297017822</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01436833216650365</v>
+        <v>0.00879566737476207</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.4012006879138551</v>
+        <v>0.3785795820995164</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01435993656365986</v>
+        <v>0.008786278844622651</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.09141118453930619</v>
+        <v>0.1036211799772977</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01590230530643452</v>
+        <v>0.005299992770060072</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1574043815818675</v>
+        <v>0.1036211799772977</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01596481351833738</v>
+        <v>0.005299992770060072</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.2821678981034721</v>
+        <v>0.2660810787934126</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01596481351833738</v>
+        <v>0.009772963749735636</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.4144585690892726</v>
+        <v>0.3936411464333571</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01595548507073318</v>
+        <v>0.009762532049580724</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1050908711470599</v>
+        <v>0.1048630150162681</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01749253583707797</v>
+        <v>0.005829992047066078</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1607875793156729</v>
+        <v>0.1048630150162681</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01756129487017113</v>
+        <v>0.005829992047066078</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.2913162407754621</v>
+        <v>0.2743380387140068</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01756129487017113</v>
+        <v>0.0107502601247092</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.4219061560655214</v>
+        <v>0.4054775859472217</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01755103357780649</v>
+        <v>0.0107387852545388</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.09756309526330695</v>
+        <v>0.1060800568908691</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01908276636772142</v>
+        <v>0.006359991324072086</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1633906453996531</v>
+        <v>0.1060800568908691</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01915777622200486</v>
+        <v>0.006359991324072086</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2950842778204652</v>
+        <v>0.2843638367738913</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01915777622200486</v>
+        <v>0.01172755649968276</v>
       </c>
       <c r="N77" t="n">
-        <v>0.4319346310734229</v>
+        <v>0.4177196521126945</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01914658208487981</v>
+        <v>0.01171503845949687</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1009341805102275</v>
+        <v>0.107272551572434</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02067299689836487</v>
+        <v>0.006889990601078093</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1673225355619516</v>
+        <v>0.107272551572434</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0207542575738386</v>
+        <v>0.006889990601078093</v>
       </c>
       <c r="L78" t="n">
-        <v>0.3002406453633375</v>
+        <v>0.291972900283392</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0207542575738386</v>
+        <v>0.01270485287465632</v>
       </c>
       <c r="N78" t="n">
-        <v>0.4395351763437978</v>
+        <v>0.4267980964013588</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02074213059195313</v>
+        <v>0.01269129166445494</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1013104505100018</v>
+        <v>0.1084407450322962</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02226322742900833</v>
+        <v>0.0074199898780841</v>
       </c>
       <c r="J79" t="n">
-        <v>0.169892205530712</v>
+        <v>0.1084407450322962</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02235073892567234</v>
+        <v>0.0074199898780841</v>
       </c>
       <c r="L79" t="n">
-        <v>0.305753979528935</v>
+        <v>0.2999796565528351</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02235073892567234</v>
+        <v>0.01368214924962989</v>
       </c>
       <c r="N79" t="n">
-        <v>0.4434989741074672</v>
+        <v>0.4406436702847988</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02233767909902645</v>
+        <v>0.01366754486941301</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.098739754209099</v>
+        <v>0.1095848832417891</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02385345795965178</v>
+        <v>0.007949989155090107</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1715086098819899</v>
+        <v>0.1095848832417891</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02394722027750608</v>
+        <v>0.007949989155090107</v>
       </c>
       <c r="L80" t="n">
-        <v>0.3112930641831781</v>
+        <v>0.305498532892547</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02394722027750608</v>
+        <v>0.01465944562460345</v>
       </c>
       <c r="N80" t="n">
-        <v>0.4470166661701623</v>
+        <v>0.4462871252345983</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02393322760609977</v>
+        <v>0.01464379807437109</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.110135685192717</v>
+        <v>0.1107052121722462</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02544368849029523</v>
+        <v>0.008479988432096115</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1743576246081168</v>
+        <v>0.1107052121722462</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02554370162933982</v>
+        <v>0.008479988432096115</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3135581974130742</v>
+        <v>0.3133439566128536</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02554370162933982</v>
+        <v>0.01563674199957701</v>
       </c>
       <c r="N81" t="n">
-        <v>0.4538784960164441</v>
+        <v>0.4582592127223412</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02552877611317309</v>
+        <v>0.01562005127932916</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1024853527962221</v>
+        <v>0.1118019777950007</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02703391902093868</v>
+        <v>0.009009987709102121</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1753433266531313</v>
+        <v>0.1118019777950007</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02714018298117356</v>
+        <v>0.009009987709102121</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3178088918707939</v>
+        <v>0.3164303550240811</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02714018298117356</v>
+        <v>0.01661403837455058</v>
       </c>
       <c r="N82" t="n">
-        <v>0.4620710368922681</v>
+        <v>0.464190684219611</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0271243246202464</v>
+        <v>0.01659630448428723</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1117799464468414</v>
+        <v>0.1128754260813863</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02862414955158214</v>
+        <v>0.009539986986108128</v>
       </c>
       <c r="J83" t="n">
-        <v>0.179151689612054</v>
+        <v>0.1128754260813863</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0287366643330073</v>
+        <v>0.009539986986108128</v>
       </c>
       <c r="L83" t="n">
-        <v>0.3221197945854056</v>
+        <v>0.3226721554365559</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0287366643330073</v>
+        <v>0.01759133474952414</v>
       </c>
       <c r="N83" t="n">
-        <v>0.464157673520174</v>
+        <v>0.4702122911979918</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02871987312731972</v>
+        <v>0.0175725576892453</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.110010655571802</v>
+        <v>0.1139258030027362</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03021438008222559</v>
+        <v>0.01006998626311414</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1796686870799057</v>
+        <v>0.1139258030027362</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03033314568484103</v>
+        <v>0.01006998626311414</v>
       </c>
       <c r="L84" t="n">
-        <v>0.325265552585977</v>
+        <v>0.3269837851606042</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03033314568484103</v>
+        <v>0.01856863112449771</v>
       </c>
       <c r="N84" t="n">
-        <v>0.4699017906227027</v>
+        <v>0.4793547851290676</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03031542163439304</v>
+        <v>0.01854881089420337</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1141686695983309</v>
+        <v>0.1149533545303839</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03180461061286904</v>
+        <v>0.01059998554012014</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1817802926517071</v>
+        <v>0.1149533545303839</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03192962703667477</v>
+        <v>0.01059998554012014</v>
       </c>
       <c r="L85" t="n">
-        <v>0.327920812901576</v>
+        <v>0.330679671506552</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03192962703667477</v>
+        <v>0.01954592749947127</v>
       </c>
       <c r="N85" t="n">
-        <v>0.477866772922394</v>
+        <v>0.4820489174844219</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03191097014146636</v>
+        <v>0.01952506409916145</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1142451779536555</v>
+        <v>0.1159583266356627</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03339484114351249</v>
+        <v>0.01112998481712615</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1845724799224789</v>
+        <v>0.1159583266356627</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03352610838850852</v>
+        <v>0.01112998481712615</v>
       </c>
       <c r="L86" t="n">
-        <v>0.3318602225612707</v>
+        <v>0.3346742417847254</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03352610838850852</v>
+        <v>0.02052322387444483</v>
       </c>
       <c r="N86" t="n">
-        <v>0.4791160051417885</v>
+        <v>0.4879254397356388</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03350651864853967</v>
+        <v>0.02050131730411952</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1092313700650026</v>
+        <v>0.1169409652899061</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03498507167415594</v>
+        <v>0.01165998409413216</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1863312224872419</v>
+        <v>0.1169409652899061</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03512258974034226</v>
+        <v>0.01165998409413216</v>
       </c>
       <c r="L87" t="n">
-        <v>0.3350584285941288</v>
+        <v>0.3376819233054508</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03512258974034226</v>
+        <v>0.0215005202494184</v>
       </c>
       <c r="N87" t="n">
-        <v>0.4848128720034264</v>
+        <v>0.491815103354302</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03510206715561299</v>
+        <v>0.02147757050907759</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1131184353595996</v>
+        <v>0.1179015164644475</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0365753022047994</v>
+        <v>0.01218998337113817</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1867424939410166</v>
+        <v>0.1179015164644475</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03671907109217599</v>
+        <v>0.01218998337113817</v>
       </c>
       <c r="L88" t="n">
-        <v>0.3374900780292185</v>
+        <v>0.3412171433790541</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03671907109217599</v>
+        <v>0.02247781662439196</v>
       </c>
       <c r="N88" t="n">
-        <v>0.4888207582298482</v>
+        <v>0.4930486598119953</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03669761566268631</v>
+        <v>0.02245382371403566</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1138975632646734</v>
+        <v>0.1188402261306202</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03816553273544285</v>
+        <v>0.01271998264814417</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1888922678788238</v>
+        <v>0.1188402261306202</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03831555244400973</v>
+        <v>0.01271998264814417</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3411298178956075</v>
+        <v>0.3446943293158616</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03831555244400973</v>
+        <v>0.02345511299936552</v>
       </c>
       <c r="N89" t="n">
-        <v>0.4945030485435941</v>
+        <v>0.4990568605803026</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03829316416975963</v>
+        <v>0.02343007691899373</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1215599432074513</v>
+        <v>0.1197573402597578</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0397557632660863</v>
+        <v>0.01324998192515018</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1899665178956843</v>
+        <v>0.1197573402597578</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03991203379584347</v>
+        <v>0.01324998192515018</v>
       </c>
       <c r="L90" t="n">
-        <v>0.3424522952223636</v>
+        <v>0.3449279084261996</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03991203379584347</v>
+        <v>0.02443240937433909</v>
       </c>
       <c r="N90" t="n">
-        <v>0.4968231276672044</v>
+        <v>0.4981704571308081</v>
       </c>
       <c r="O90" t="n">
-        <v>0.03988871267683294</v>
+        <v>0.02440633012395181</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1130967646151604</v>
+        <v>0.1206531048231936</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04134599379672975</v>
+        <v>0.01377998120215619</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1900512175866186</v>
+        <v>0.1206531048231936</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04150851514767721</v>
+        <v>0.01377998120215619</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3435321570385551</v>
+        <v>0.3460323080203941</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04150851514767721</v>
+        <v>0.02540970574931265</v>
       </c>
       <c r="N91" t="n">
-        <v>0.5007443803232194</v>
+        <v>0.5005202009350951</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04148426118390627</v>
+        <v>0.02538258332890988</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1214992169150276</v>
+        <v>0.1215277657922609</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0429362243273732</v>
+        <v>0.01430998047916219</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1905323405466477</v>
+        <v>0.1215277657922609</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04310499649951095</v>
+        <v>0.01430998047916219</v>
       </c>
       <c r="L92" t="n">
-        <v>0.3474440503732498</v>
+        <v>0.3463219554087716</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04310499649951095</v>
+        <v>0.02638700212428621</v>
       </c>
       <c r="N92" t="n">
-        <v>0.5011301912341796</v>
+        <v>0.5023368434647476</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04307980969097958</v>
+        <v>0.02635883653386795</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1228682631018857</v>
+        <v>0.1223815691382934</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04452645485801665</v>
+        <v>0.0148399797561682</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1926958603707921</v>
+        <v>0.1223815691382934</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04470147785134469</v>
+        <v>0.0148399797561682</v>
       </c>
       <c r="L93" t="n">
-        <v>0.3480626222555155</v>
+        <v>0.3494243341931222</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04470147785134469</v>
+        <v>0.02736429849925978</v>
       </c>
       <c r="N93" t="n">
-        <v>0.502643945122625</v>
+        <v>0.5055313946772262</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04467535819805289</v>
+        <v>0.02733508973882602</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1228657719001454</v>
+        <v>0.1232147608326242</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04611668538866011</v>
+        <v>0.01536997903317421</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1933172737090181</v>
+        <v>0.1232147608326242</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04629795920317843</v>
+        <v>0.01536997903317421</v>
       </c>
       <c r="L94" t="n">
-        <v>0.3494243341931222</v>
+        <v>0.3460200413411489</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04629795920317843</v>
+        <v>0.02834159487423334</v>
       </c>
       <c r="N94" t="n">
-        <v>0.5055313946772262</v>
+        <v>0.5028075580622259</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04627090670512621</v>
+        <v>0.0283113429437841</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1118416482390299</v>
+        <v>0.1240275868465868</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04770691591930356</v>
+        <v>0.01589997831018021</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1921156714708848</v>
+        <v>0.1240275868465868</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04789444055501216</v>
+        <v>0.01589997831018021</v>
       </c>
       <c r="L95" t="n">
-        <v>0.3483214381198318</v>
+        <v>0.3493016824316312</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04789444055501216</v>
+        <v>0.0293188912492069</v>
       </c>
       <c r="N95" t="n">
-        <v>0.5026204376860869</v>
+        <v>0.5033552036288171</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04786645521219953</v>
+        <v>0.02928759614874217</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1167405197423575</v>
+        <v>0.1248202931515147</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04929714644994701</v>
+        <v>0.01642997758718622</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1915343571616432</v>
+        <v>0.1248202931515147</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0494909219068459</v>
+        <v>0.01642997758718622</v>
       </c>
       <c r="L96" t="n">
-        <v>0.3469744610917476</v>
+        <v>0.3473292904162134</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0494909219068459</v>
+        <v>0.03029618762418047</v>
       </c>
       <c r="N96" t="n">
-        <v>0.5033768009089791</v>
+        <v>0.5003437605974624</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04946200371927285</v>
+        <v>0.03026384935370024</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1125682919506087</v>
+        <v>0.1255931257187413</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05088737698059046</v>
+        <v>0.01695997686419223</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1914354336312933</v>
+        <v>0.1255931257187413</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05108740325867964</v>
+        <v>0.01695997686419223</v>
       </c>
       <c r="L97" t="n">
-        <v>0.3478149033511783</v>
+        <v>0.3472137307412007</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05108740325867964</v>
+        <v>0.03127348399915403</v>
       </c>
       <c r="N97" t="n">
-        <v>0.5017278666560376</v>
+        <v>0.5006936390960437</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05105755222634617</v>
+        <v>0.03124010255865831</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1173296082897175</v>
+        <v>0.1263463305195998</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05247760751123391</v>
+        <v>0.01748997614119823</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1919262931997584</v>
+        <v>0.1263463305195998</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05268388461051338</v>
+        <v>0.01748997614119823</v>
       </c>
       <c r="L98" t="n">
-        <v>0.3462561266449441</v>
+        <v>0.3461658688528979</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05268388461051338</v>
+        <v>0.0322507803741276</v>
       </c>
       <c r="N98" t="n">
-        <v>0.4996929322344098</v>
+        <v>0.5020252492524436</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05265310073341948</v>
+        <v>0.03221635576361639</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1140291121856183</v>
+        <v>0.1270801535254239</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05406783804187736</v>
+        <v>0.01801997541820424</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1918143281869615</v>
+        <v>0.1270801535254239</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05428036596234712</v>
+        <v>0.01801997541820424</v>
       </c>
       <c r="L99" t="n">
-        <v>0.3460114927198656</v>
+        <v>0.3444965701976105</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05428036596234712</v>
+        <v>0.03322807674910116</v>
       </c>
       <c r="N99" t="n">
-        <v>0.501291294951243</v>
+        <v>0.5017590011945441</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0542486492404928</v>
+        <v>0.03319260896857446</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1186714470642449</v>
+        <v>0.1277948407075468</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05565806857252081</v>
+        <v>0.01854997469521025</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1910069309128258</v>
+        <v>0.1277948407075468</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05587684731418086</v>
+        <v>0.01854997469521025</v>
       </c>
       <c r="L100" t="n">
-        <v>0.3465943633227632</v>
+        <v>0.3446167002216431</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05587684731418086</v>
+        <v>0.03420537312407472</v>
       </c>
       <c r="N100" t="n">
-        <v>0.4995422521136843</v>
+        <v>0.4996153050502276</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05584419774756612</v>
+        <v>0.03416886217353253</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1092612563515317</v>
+        <v>0.128490638037302</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05724829910316427</v>
+        <v>0.01907997397221626</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1897114936972747</v>
+        <v>0.128490638037302</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05747332866601459</v>
+        <v>0.01907997397221626</v>
       </c>
       <c r="L101" t="n">
-        <v>0.3453181002004571</v>
+        <v>0.342537124371301</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05747332866601459</v>
+        <v>0.03518266949904828</v>
       </c>
       <c r="N101" t="n">
-        <v>0.4983651010288814</v>
+        <v>0.4984145709473762</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05743974625463943</v>
+        <v>0.0351451153784906</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1098031834734128</v>
+        <v>0.1291677914860229</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05883852963380772</v>
+        <v>0.01960997324922227</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1902354088602311</v>
+        <v>0.1291677914860229</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05906981001784833</v>
+        <v>0.01960997324922227</v>
       </c>
       <c r="L102" t="n">
-        <v>0.3410960650997675</v>
+        <v>0.3415687080928892</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05906981001784833</v>
+        <v>0.03615996587402185</v>
       </c>
       <c r="N102" t="n">
-        <v>0.4936791390039814</v>
+        <v>0.4957772090138725</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05903529476171275</v>
+        <v>0.03612136858344867</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1123018718558223</v>
+        <v>0.1298265470250429</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06042876016445117</v>
+        <v>0.02013997252622827</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1883860687216183</v>
+        <v>0.1298265470250429</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06066629136968207</v>
+        <v>0.02013997252622827</v>
       </c>
       <c r="L103" t="n">
-        <v>0.3413416197675151</v>
+        <v>0.3436223168327126</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06066629136968207</v>
+        <v>0.03713726224899541</v>
       </c>
       <c r="N103" t="n">
-        <v>0.4936036633461316</v>
+        <v>0.4938236293775983</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06063084326878607</v>
+        <v>0.03709762178840675</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1087619649246943</v>
+        <v>0.1304671506256953</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06201899069509462</v>
+        <v>0.02066997180323428</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1882708656013596</v>
+        <v>0.1304671506256953</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06226277272151581</v>
+        <v>0.02066997180323428</v>
       </c>
       <c r="L104" t="n">
-        <v>0.3399681259505201</v>
+        <v>0.3401088160370764</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06226277272151581</v>
+        <v>0.03811455862396897</v>
       </c>
       <c r="N104" t="n">
-        <v>0.4915579713624793</v>
+        <v>0.4925742421664363</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06222639177585939</v>
+        <v>0.03807387499336482</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.116188106105963</v>
+        <v>0.1310898482593136</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06360922122573809</v>
+        <v>0.02119997108024029</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1872971918193779</v>
+        <v>0.1310898482593136</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06385925407334954</v>
+        <v>0.02119997108024029</v>
       </c>
       <c r="L105" t="n">
-        <v>0.3374889453956028</v>
+        <v>0.3406390711522855</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06385925407334954</v>
+        <v>0.03909185499894254</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4873613603601717</v>
+        <v>0.4911494575082683</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06382194028293271</v>
+        <v>0.0390501281983229</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1165849388255625</v>
+        <v>0.1316948858972313</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06519945175638153</v>
+        <v>0.02172997035724629</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1863724396955966</v>
+        <v>0.1316948858972313</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06545573542518329</v>
+        <v>0.02172997035724629</v>
       </c>
       <c r="L106" t="n">
-        <v>0.3381174398495834</v>
+        <v>0.3400239476246453</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06545573542518329</v>
+        <v>0.0400691513739161</v>
       </c>
       <c r="N106" t="n">
-        <v>0.4892331276463564</v>
+        <v>0.4850696855309771</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06541748879000603</v>
+        <v>0.04002638140328096</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1059571065094269</v>
+        <v>0.1322825095107817</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06678968228702498</v>
+        <v>0.0222599696342523</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1858040015499389</v>
+        <v>0.1322825095107817</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06705221677701703</v>
+        <v>0.0222599696342523</v>
       </c>
       <c r="L107" t="n">
-        <v>0.3359669710592825</v>
+        <v>0.3361743109004605</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06705221677701703</v>
+        <v>0.04104644774888967</v>
       </c>
       <c r="N107" t="n">
-        <v>0.4848925705281806</v>
+        <v>0.4864553363624446</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06701303729707934</v>
+        <v>0.04100263460823903</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1153092525834905</v>
+        <v>0.1328529650712982</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06837991281766843</v>
+        <v>0.02278996891125831</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1842992697023279</v>
+        <v>0.1328529650712982</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06864869812885077</v>
+        <v>0.02278996891125831</v>
       </c>
       <c r="L108" t="n">
-        <v>0.3329509007715205</v>
+        <v>0.3371010264260361</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06864869812885077</v>
+        <v>0.04202374412386323</v>
       </c>
       <c r="N108" t="n">
-        <v>0.4811589863127916</v>
+        <v>0.4852268201305531</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06860858580415266</v>
+        <v>0.04197888781319711</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1156460204736873</v>
+        <v>0.1334064985501143</v>
       </c>
       <c r="G109" t="n">
-        <v>0.06997014334831188</v>
+        <v>0.02331996818826431</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1841656364726867</v>
+        <v>0.1334064985501143</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07024517948068451</v>
+        <v>0.02331996818826431</v>
       </c>
       <c r="L109" t="n">
-        <v>0.3307825907331174</v>
+        <v>0.3358149596476774</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07024517948068451</v>
+        <v>0.0430010404988368</v>
       </c>
       <c r="N109" t="n">
-        <v>0.4768516723073367</v>
+        <v>0.4789045469631849</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07020413431122598</v>
+        <v>0.04295514101815518</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1109720536059515</v>
+        <v>0.1339433559185632</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07156037387895534</v>
+        <v>0.02384996746527032</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1826104941809386</v>
+        <v>0.1339433559185632</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07184166083251825</v>
+        <v>0.02384996746527032</v>
       </c>
       <c r="L110" t="n">
-        <v>0.330875402690894</v>
+        <v>0.3347269760116892</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07184166083251825</v>
+        <v>0.04397833687381036</v>
       </c>
       <c r="N110" t="n">
-        <v>0.4736899258189631</v>
+        <v>0.4777089269882223</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07179968281829929</v>
+        <v>0.04393139422311326</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1132919954062171</v>
+        <v>0.1344637831479785</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07315060440959879</v>
+        <v>0.02437996674227633</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1808412351470067</v>
+        <v>0.1344637831479785</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07343814218435199</v>
+        <v>0.02437996674227633</v>
       </c>
       <c r="L111" t="n">
-        <v>0.3257426983916702</v>
+        <v>0.3316479409643768</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07343814218435199</v>
+        <v>0.04495563324878392</v>
       </c>
       <c r="N111" t="n">
-        <v>0.4736930441548182</v>
+        <v>0.4772603703335474</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07339523132537262</v>
+        <v>0.04490764742807132</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1126104893004185</v>
+        <v>0.1349680262096936</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07474083494024224</v>
+        <v>0.02490996601928233</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1801652516908142</v>
+        <v>0.1349680262096936</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07503462353618573</v>
+        <v>0.02490996601928233</v>
       </c>
       <c r="L112" t="n">
-        <v>0.3245978395822667</v>
+        <v>0.3321887199520451</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07503462353618573</v>
+        <v>0.04593292962375748</v>
       </c>
       <c r="N112" t="n">
-        <v>0.4704803246220494</v>
+        <v>0.4771792871270428</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07499077983244594</v>
+        <v>0.0458839006330294</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1059321787144896</v>
+        <v>0.1354563310750418</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0763310654708857</v>
+        <v>0.02543996529628834</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1780899361322844</v>
+        <v>0.1354563310750418</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07663110488801946</v>
+        <v>0.02543996529628834</v>
       </c>
       <c r="L113" t="n">
-        <v>0.3228541880095037</v>
+        <v>0.3279601784209992</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07663110488801946</v>
+        <v>0.04691022599873105</v>
       </c>
       <c r="N113" t="n">
-        <v>0.4684710645278037</v>
+        <v>0.4748860874965904</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07658632833951926</v>
+        <v>0.04686015383798747</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1022616347839446</v>
+        <v>0.1359289437153567</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07792129600152915</v>
+        <v>0.02596996457329435</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1769226807913403</v>
+        <v>0.1359289437153567</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07822758623985319</v>
+        <v>0.02596996457329435</v>
       </c>
       <c r="L114" t="n">
-        <v>0.3210251054202015</v>
+        <v>0.3280731818175441</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07822758623985319</v>
+        <v>0.04788752237370461</v>
       </c>
       <c r="N114" t="n">
-        <v>0.4664845611792289</v>
+        <v>0.4736011815700726</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07818187684659257</v>
+        <v>0.04783640704294554</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.105539934995822</v>
+        <v>0.1363861101019714</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0795115265321726</v>
+        <v>0.02649996385030036</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1771516732786583</v>
+        <v>0.1363861101019714</v>
       </c>
       <c r="K115" t="n">
-        <v>0.07982406759168693</v>
+        <v>0.02649996385030036</v>
       </c>
       <c r="L115" t="n">
-        <v>0.3180892407152291</v>
+        <v>0.3273385955879847</v>
       </c>
       <c r="M115" t="n">
-        <v>0.07982406759168693</v>
+        <v>0.04886481874867817</v>
       </c>
       <c r="N115" t="n">
-        <v>0.4604685969300805</v>
+        <v>0.4694449794753719</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07977742535366589</v>
+        <v>0.04881266024790362</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1017233511234387</v>
+        <v>0.1368280762062196</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08110175706281604</v>
+        <v>0.02702996312730636</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1761464233447123</v>
+        <v>0.1368280762062196</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08142054894352067</v>
+        <v>0.02702996312730636</v>
       </c>
       <c r="L116" t="n">
-        <v>0.3187107304992239</v>
+        <v>0.3274672851786264</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08142054894352067</v>
+        <v>0.04984211512365173</v>
       </c>
       <c r="N116" t="n">
-        <v>0.459784325034829</v>
+        <v>0.4684378913403699</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0813729738607392</v>
+        <v>0.04978891345286168</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1018270120035412</v>
+        <v>0.1372550879994345</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0826919875934595</v>
+        <v>0.02755996240431237</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1747007437365524</v>
+        <v>0.1372550879994345</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08301703029535441</v>
+        <v>0.02755996240431237</v>
       </c>
       <c r="L117" t="n">
-        <v>0.3133783912048768</v>
+        <v>0.325870116035774</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08301703029535441</v>
+        <v>0.0508194114986253</v>
       </c>
       <c r="N117" t="n">
-        <v>0.4562386940089372</v>
+        <v>0.4696003272929495</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08296852236781253</v>
+        <v>0.05076516665781976</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.09886604647287595</v>
+        <v>0.1376673914529497</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08428221812410294</v>
+        <v>0.02808996168131838</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1737387195161311</v>
+        <v>0.1376673914529497</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08461351164718815</v>
+        <v>0.02808996168131838</v>
       </c>
       <c r="L118" t="n">
-        <v>0.3113357570005277</v>
+        <v>0.3253579536057325</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08461351164718815</v>
+        <v>0.05179670787359886</v>
       </c>
       <c r="N118" t="n">
-        <v>0.4520945767857993</v>
+        <v>0.4692526974609927</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08456407087488585</v>
+        <v>0.05174141986277783</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1058555833681892</v>
+        <v>0.1380652325380984</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0858724486547464</v>
+        <v>0.02861996095832438</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1715844357454006</v>
+        <v>0.1380652325380984</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08620999299902189</v>
+        <v>0.02861996095832438</v>
       </c>
       <c r="L119" t="n">
-        <v>0.3086263620545169</v>
+        <v>0.3239416633348072</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08620999299902189</v>
+        <v>0.05277400424857243</v>
       </c>
       <c r="N119" t="n">
-        <v>0.4491148462988089</v>
+        <v>0.467715411972382</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08615961938195915</v>
+        <v>0.05271767306773591</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1008107515262273</v>
+        <v>0.1384488572262141</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08746267918538986</v>
+        <v>0.02914996023533039</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1695619774863132</v>
+        <v>0.1384488572262141</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08780647435085563</v>
+        <v>0.02914996023533039</v>
       </c>
       <c r="L120" t="n">
-        <v>0.3060937405351847</v>
+        <v>0.3227321106693029</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08780647435085563</v>
+        <v>0.05375130062354599</v>
       </c>
       <c r="N120" t="n">
-        <v>0.44206237548136</v>
+        <v>0.4637088809549993</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08775516788903247</v>
+        <v>0.05369392627269397</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.09974667978373672</v>
+        <v>0.1388185114886303</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0890529097160333</v>
+        <v>0.0296799595123364</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1677954298008214</v>
+        <v>0.1388185114886303</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08940295570268937</v>
+        <v>0.0296799595123364</v>
       </c>
       <c r="L121" t="n">
-        <v>0.3029814266108709</v>
+        <v>0.3222401610555248</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08940295570268937</v>
+        <v>0.05472859699851956</v>
       </c>
       <c r="N121" t="n">
-        <v>0.4396000372668463</v>
+        <v>0.4660535145367272</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08935071639610578</v>
+        <v>0.05467017947765205</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.09867849697746389</v>
+        <v>0.1391744412966802</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09064314024667676</v>
+        <v>0.03020995878934241</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1672088777508774</v>
+        <v>0.1391744412966802</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09099943705452311</v>
+        <v>0.03020995878934241</v>
       </c>
       <c r="L122" t="n">
-        <v>0.3021329544499155</v>
+        <v>0.3204765234491962</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09099943705452311</v>
+        <v>0.05570589337349312</v>
       </c>
       <c r="N122" t="n">
-        <v>0.4338907045886619</v>
+        <v>0.4649653710746804</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0909462649031791</v>
+        <v>0.05564643268261012</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.09962133194415509</v>
+        <v>0.1395168926216974</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09223337077732022</v>
+        <v>0.03073995806634841</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1649264063984337</v>
+        <v>0.1395168926216974</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09259591840635685</v>
+        <v>0.03073995806634841</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2966918582206589</v>
+        <v>0.3200839745272452</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09259591840635685</v>
+        <v>0.05668318974846669</v>
       </c>
       <c r="N123" t="n">
-        <v>0.4306972503802003</v>
+        <v>0.4633184470970118</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09254181341025243</v>
+        <v>0.05662268588756819</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.09159031352055677</v>
+        <v>0.1398461114350153</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09382360130796367</v>
+        <v>0.03126995734335442</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1635721008054424</v>
+        <v>0.1398461114350153</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09419239975819059</v>
+        <v>0.03126995734335442</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2950016720914411</v>
+        <v>0.3221092563581138</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09419239975819059</v>
+        <v>0.05766048612344025</v>
       </c>
       <c r="N124" t="n">
-        <v>0.4244825475748558</v>
+        <v>0.4648421592188007</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09413736191732575</v>
+        <v>0.05759893909252626</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.09660057054341531</v>
+        <v>0.1401623437079672</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09541383183860712</v>
+        <v>0.03179995662036043</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1612700460338561</v>
+        <v>0.1401623437079672</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09578888111002433</v>
+        <v>0.03179995662036043</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2912059302306022</v>
+        <v>0.3192514704005321</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09578888111002433</v>
+        <v>0.05863778249841381</v>
       </c>
       <c r="N125" t="n">
-        <v>0.4212094691060222</v>
+        <v>0.4663303428252175</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09573291042439906</v>
+        <v>0.05857519229748434</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1006316230776471</v>
+        <v>0.1404658354118865</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09700406236925056</v>
+        <v>0.03232995589736644</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1595428696085436</v>
+        <v>0.1404658354118865</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09738536246185807</v>
+        <v>0.03232995589736644</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2881455322828558</v>
+        <v>0.3186097181132297</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09738536246185807</v>
+        <v>0.05961507887338737</v>
       </c>
       <c r="N126" t="n">
-        <v>0.418528834664878</v>
+        <v>0.4668768333014317</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09732845893147238</v>
+        <v>0.05955144550244242</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.09657734051753511</v>
+        <v>0.1407568325181067</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09859429289989402</v>
+        <v>0.03285995517437244</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1588554059882705</v>
+        <v>0.1407568325181067</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09898184381369181</v>
+        <v>0.03285995517437244</v>
       </c>
       <c r="L127" t="n">
-        <v>0.285376164181769</v>
+        <v>0.3200831009549366</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09898184381369181</v>
+        <v>0.06059237524836094</v>
       </c>
       <c r="N127" t="n">
-        <v>0.4109479725373797</v>
+        <v>0.4663754660326137</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09892400743854569</v>
+        <v>0.06052769870740048</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.08944858211491111</v>
+        <v>0.1410355809979612</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1001845234305375</v>
+        <v>0.03338995445137845</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1556313471899175</v>
+        <v>0.1410355809979612</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1005783251655255</v>
+        <v>0.03338995445137845</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2827598979207879</v>
+        <v>0.319470720384383</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1005783251655255</v>
+        <v>0.0615696716233345</v>
       </c>
       <c r="N128" t="n">
-        <v>0.4074175355819102</v>
+        <v>0.4679200764039334</v>
       </c>
       <c r="O128" t="n">
-        <v>0.100519555945619</v>
+        <v>0.06150395191235856</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.09826700480400963</v>
+        <v>0.1413023268227833</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1017747539611809</v>
+        <v>0.03391995372838446</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1545051709867253</v>
+        <v>0.1413023268227833</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1021748065173593</v>
+        <v>0.03391995372838446</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2811590526746446</v>
+        <v>0.3201716778602983</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1021748065173593</v>
+        <v>0.06254696799830806</v>
       </c>
       <c r="N129" t="n">
-        <v>0.4050275264210412</v>
+        <v>0.4654044998005609</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1021151044526923</v>
+        <v>0.06248020511731663</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.09705426551906515</v>
+        <v>0.1415573159639065</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1033649844918244</v>
+        <v>0.03444995300539046</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1523113551519341</v>
+        <v>0.1415573159639065</v>
       </c>
       <c r="K130" t="n">
-        <v>0.103771287869193</v>
+        <v>0.03444995300539046</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2773359476180715</v>
+        <v>0.3201850748414127</v>
       </c>
       <c r="M130" t="n">
-        <v>0.103771287869193</v>
+        <v>0.06352426437328162</v>
       </c>
       <c r="N130" t="n">
-        <v>0.398167947677345</v>
+        <v>0.4675225716076663</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1037106529597657</v>
+        <v>0.0634564583222747</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.09483202119431217</v>
+        <v>0.1418007943926642</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1049552150224678</v>
+        <v>0.03497995228239647</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1499843774587847</v>
+        <v>0.1418007943926642</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1053677692210268</v>
+        <v>0.03497995228239647</v>
       </c>
       <c r="L131" t="n">
-        <v>0.2743529019258006</v>
+        <v>0.3173100127864562</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1053677692210268</v>
+        <v>0.06450156074825519</v>
       </c>
       <c r="N131" t="n">
-        <v>0.3939288019733934</v>
+        <v>0.4672681272104194</v>
       </c>
       <c r="O131" t="n">
-        <v>0.105306201466839</v>
+        <v>0.06443271152723277</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.08762192876398497</v>
+        <v>0.1420330080803898</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1065454455531113</v>
+        <v>0.03550995155940248</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1496587156805176</v>
+        <v>0.1420330080803898</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1069642505728605</v>
+        <v>0.03550995155940248</v>
       </c>
       <c r="L132" t="n">
-        <v>0.2681722347725645</v>
+        <v>0.3195455931541583</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1069642505728605</v>
+        <v>0.06547885712322875</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3866000919317587</v>
+        <v>0.4661350019939905</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1069017499739123</v>
+        <v>0.06540896473219084</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.09244564516231826</v>
+        <v>0.1422542029984166</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1081356760837547</v>
+        <v>0.03603995083640849</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1469688475903731</v>
+        <v>0.1422542029984166</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1085607319246942</v>
+        <v>0.03603995083640849</v>
       </c>
       <c r="L133" t="n">
-        <v>0.266256265333095</v>
+        <v>0.3199909174032494</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1085607319246942</v>
+        <v>0.06645615349820232</v>
       </c>
       <c r="N133" t="n">
-        <v>0.3831718201750128</v>
+        <v>0.4689170313435495</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1084972984809856</v>
+        <v>0.06638521793714891</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.08832482732354632</v>
+        <v>0.1424646251180782</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1097259066143982</v>
+        <v>0.03656995011341449</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1456492509615919</v>
+        <v>0.1424646251180782</v>
       </c>
       <c r="K134" t="n">
-        <v>0.110157213276528</v>
+        <v>0.03656995011341449</v>
       </c>
       <c r="L134" t="n">
-        <v>0.2625673127821247</v>
+        <v>0.319445086992459</v>
       </c>
       <c r="M134" t="n">
-        <v>0.110157213276528</v>
+        <v>0.06743344987317587</v>
       </c>
       <c r="N134" t="n">
-        <v>0.3770339893257275</v>
+        <v>0.4707080506442664</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1100928469880589</v>
+        <v>0.067361471142107</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0872811321819037</v>
+        <v>0.1426645204107079</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1113161371450416</v>
+        <v>0.0370999493904205</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1425344035674146</v>
+        <v>0.1426645204107079</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1117536946283617</v>
+        <v>0.0370999493904205</v>
       </c>
       <c r="L135" t="n">
-        <v>0.2580676962943856</v>
+        <v>0.3184072033805173</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1117536946283617</v>
+        <v>0.06841074624814944</v>
       </c>
       <c r="N135" t="n">
-        <v>0.3746766020064753</v>
+        <v>0.4707018952813112</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1116883954951322</v>
+        <v>0.06833772434706506</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.08833621667162483</v>
+        <v>0.1428541348476391</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1129063676756851</v>
+        <v>0.03762994866742651</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1415587831810816</v>
+        <v>0.1428541348476391</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1133501759801955</v>
+        <v>0.03762994866742651</v>
       </c>
       <c r="L136" t="n">
-        <v>0.2561197350446101</v>
+        <v>0.3179763680261541</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1133501759801955</v>
+        <v>0.06938804262312299</v>
       </c>
       <c r="N136" t="n">
-        <v>0.372889660839828</v>
+        <v>0.4683924006398541</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1132839440022056</v>
+        <v>0.06931397755202313</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0825117377269442</v>
+        <v>0.1430337144002053</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1144965982063285</v>
+        <v>0.03815994794443251</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1414568675758334</v>
+        <v>0.1430337144002053</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1149466573320292</v>
+        <v>0.03815994794443251</v>
       </c>
       <c r="L137" t="n">
-        <v>0.2527857482075304</v>
+        <v>0.3185516823880992</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1149466573320292</v>
+        <v>0.07036533899809656</v>
       </c>
       <c r="N137" t="n">
-        <v>0.3668631684483576</v>
+        <v>0.4690734021050651</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1148794925092789</v>
+        <v>0.07029023075698121</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0768293522820962</v>
+        <v>0.1432035050397398</v>
       </c>
       <c r="G138" t="n">
-        <v>0.116086828736972</v>
+        <v>0.03868994722143852</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1392631345249106</v>
+        <v>0.1432035050397398</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1165431386838629</v>
+        <v>0.03868994722143852</v>
       </c>
       <c r="L138" t="n">
-        <v>0.2526280549578786</v>
+        <v>0.3157322479250826</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1165431386838629</v>
+        <v>0.07134263537307013</v>
       </c>
       <c r="N138" t="n">
-        <v>0.3640871274546362</v>
+        <v>0.4723387350621142</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1164750410163522</v>
+        <v>0.07126648396193928</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.08731071727131537</v>
+        <v>0.1433637527375761</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1176770592676154</v>
+        <v>0.03921994649844453</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1392120618015537</v>
+        <v>0.1433637527375761</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1181396200356967</v>
+        <v>0.03921994649844453</v>
       </c>
       <c r="L139" t="n">
-        <v>0.2511089744703871</v>
+        <v>0.3169171660958341</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1181396200356967</v>
+        <v>0.0723199317480437</v>
       </c>
       <c r="N139" t="n">
-        <v>0.3595515404812356</v>
+        <v>0.4697822348961713</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1180705895234255</v>
+        <v>0.07224273716689734</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.07797748962883616</v>
+        <v>0.1435147034650474</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1192672897982589</v>
+        <v>0.03974994577545053</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1383381271790032</v>
+        <v>0.1435147034650474</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1197361013875304</v>
+        <v>0.03974994577545053</v>
       </c>
       <c r="L140" t="n">
-        <v>0.2498908259197881</v>
+        <v>0.3166055383590839</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1197361013875304</v>
+        <v>0.07329722812301727</v>
       </c>
       <c r="N140" t="n">
-        <v>0.3616464101507283</v>
+        <v>0.4725977369924068</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1196661380304988</v>
+        <v>0.07321899037185542</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.07785132628889302</v>
+        <v>0.1436566031934873</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1208575203289023</v>
+        <v>0.04027994505245654</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1365758084304996</v>
+        <v>0.1436566031934873</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1213325827393641</v>
+        <v>0.04027994505245654</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2478359284808138</v>
+        <v>0.3148964661735617</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1213325827393641</v>
+        <v>0.07427452449799082</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3590617390856861</v>
+        <v>0.4722790767359902</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1212616865375721</v>
+        <v>0.07419524357681349</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.08286519608693227</v>
+        <v>0.1437896978942292</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1224477508595458</v>
+        <v>0.04080994432946256</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1374272368668463</v>
+        <v>0.1437896978942292</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1229290640911979</v>
+        <v>0.04080994432946256</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2487481345348064</v>
+        <v>0.3176890509979973</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1229290640911979</v>
+        <v>0.07525182087296439</v>
       </c>
       <c r="N142" t="n">
-        <v>0.3598738094841366</v>
+        <v>0.4716200895120921</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1228572350446455</v>
+        <v>0.07517149678177155</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.07691158792838818</v>
+        <v>0.1439142335386065</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1240379813901892</v>
+        <v>0.04133994360646855</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1374766279291084</v>
+        <v>0.1439142335386065</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1245255454430316</v>
+        <v>0.04133994360646855</v>
       </c>
       <c r="L143" t="n">
-        <v>0.2482374097388009</v>
+        <v>0.3171823942911207</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1245255454430316</v>
+        <v>0.07622911724793795</v>
       </c>
       <c r="N143" t="n">
-        <v>0.3591123052388252</v>
+        <v>0.4709146107058821</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1244527835517188</v>
+        <v>0.07614774998672964</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.07698846809787488</v>
+        <v>0.1440304560979526</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1256282119208327</v>
+        <v>0.04186994288347456</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1377755665057163</v>
+        <v>0.1440304560979526</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1261220267948654</v>
+        <v>0.04186994288347456</v>
       </c>
       <c r="L144" t="n">
-        <v>0.247116242936652</v>
+        <v>0.3170755975116619</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1261220267948654</v>
+        <v>0.07720641362291152</v>
       </c>
       <c r="N144" t="n">
-        <v>0.3590797502437589</v>
+        <v>0.4735564757025305</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1260483320587921</v>
+        <v>0.07712400319168772</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.08609424525175383</v>
+        <v>0.1441386115436008</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1272184424514762</v>
+        <v>0.04239994216048058</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1374215191824514</v>
+        <v>0.1441386115436008</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1277185081466991</v>
+        <v>0.04239994216048058</v>
       </c>
       <c r="L145" t="n">
-        <v>0.2470800549381012</v>
+        <v>0.3171677621183507</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1277185081466991</v>
+        <v>0.07818370999788508</v>
       </c>
       <c r="N145" t="n">
-        <v>0.3577695311390169</v>
+        <v>0.4752395198872073</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1276438805658654</v>
+        <v>0.07810025639664579</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.08422732804638638</v>
+        <v>0.1442389458468846</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1288086729821196</v>
+        <v>0.04292994143748657</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1387119525450952</v>
+        <v>0.1442389458468846</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1293149894985328</v>
+        <v>0.04292994143748657</v>
       </c>
       <c r="L146" t="n">
-        <v>0.25032426655289</v>
+        <v>0.3154579895699171</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1293149894985328</v>
+        <v>0.07916100637285864</v>
       </c>
       <c r="N146" t="n">
-        <v>0.3580750345646768</v>
+        <v>0.4732575786450823</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1292394290729387</v>
+        <v>0.07907650960160385</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0833861251381339</v>
+        <v>0.1443317049791374</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1303989035127631</v>
+        <v>0.04345994071449259</v>
       </c>
       <c r="J147" t="n">
-        <v>0.138944333179429</v>
+        <v>0.1443317049791374</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1309114708503666</v>
+        <v>0.04345994071449259</v>
       </c>
       <c r="L147" t="n">
-        <v>0.25084429859076</v>
+        <v>0.315445381325091</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1309114708503666</v>
+        <v>0.08013830274783221</v>
       </c>
       <c r="N147" t="n">
-        <v>0.3624896471608179</v>
+        <v>0.4733044873613259</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1308349775800121</v>
+        <v>0.08005276280656193</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.07756904518335778</v>
+        <v>0.1444171349116926</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1319891340434065</v>
+        <v>0.0439899399914986</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1374161276712343</v>
+        <v>0.1444171349116926</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1325079522022003</v>
+        <v>0.0439899399914986</v>
       </c>
       <c r="L148" t="n">
-        <v>0.2513355718614528</v>
+        <v>0.3166328443541488</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1325079522022003</v>
+        <v>0.08111559912280576</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3596067555675183</v>
+        <v>0.4709026073766377</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1324305260870854</v>
+        <v>0.08102901601152</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.08377449683841942</v>
+        <v>0.1444954816158837</v>
       </c>
       <c r="G149" t="n">
-        <v>0.13357936457405</v>
+        <v>0.04451993926850459</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1388248026062927</v>
+        <v>0.1444954816158837</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1341044335540341</v>
+        <v>0.04451993926850459</v>
       </c>
       <c r="L149" t="n">
-        <v>0.2514935071747099</v>
+        <v>0.3164287655866141</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1341044335540341</v>
+        <v>0.08209289549777933</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3621197464248564</v>
+        <v>0.471093974522712</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1340260745941587</v>
+        <v>0.08200526921647806</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0790008887596802</v>
+        <v>0.1445669910630439</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1351695951046934</v>
+        <v>0.04504993854551061</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1397678245703853</v>
+        <v>0.1445669910630439</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1357009149058678</v>
+        <v>0.04504993854551061</v>
       </c>
       <c r="L150" t="n">
-        <v>0.2506135253402729</v>
+        <v>0.3161329603751558</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1357009149058678</v>
+        <v>0.08307019187275289</v>
       </c>
       <c r="N150" t="n">
-        <v>0.364322006372911</v>
+        <v>0.4719791636946606</v>
       </c>
       <c r="O150" t="n">
-        <v>0.135621623101232</v>
+        <v>0.08298152242143614</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.08224662960350149</v>
+        <v>0.1446319092245068</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1367598256353369</v>
+        <v>0.04557993782251662</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1396426601492939</v>
+        <v>0.1446319092245068</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1372973962577015</v>
+        <v>0.04557993782251662</v>
       </c>
       <c r="L151" t="n">
-        <v>0.2525910471678833</v>
+        <v>0.316144849960261</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1372973962577015</v>
+        <v>0.08404748824772645</v>
       </c>
       <c r="N151" t="n">
-        <v>0.3639069220517605</v>
+        <v>0.4744582397165845</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1372171716083053</v>
+        <v>0.08395777562639421</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.07751012802624466</v>
+        <v>0.1446904820716057</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1383500561659803</v>
+        <v>0.04610993709952262</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1406467759287996</v>
+        <v>0.1446904820716057</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1388938776095353</v>
+        <v>0.04610993709952262</v>
       </c>
       <c r="L152" t="n">
-        <v>0.2521214934672827</v>
+        <v>0.3157638555824169</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1388938776095353</v>
+        <v>0.08502478462270002</v>
       </c>
       <c r="N152" t="n">
-        <v>0.3638678801014831</v>
+        <v>0.4710312674125839</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1388127201153787</v>
+        <v>0.0849340288313523</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.08778979268427109</v>
+        <v>0.1447429555756741</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1399402866966238</v>
+        <v>0.04663993637652863</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1403776384946842</v>
+        <v>0.1447429555756741</v>
       </c>
       <c r="K153" t="n">
-        <v>0.140490358961369</v>
+        <v>0.04663993637652863</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2550002850482128</v>
+        <v>0.3129893984821106</v>
       </c>
       <c r="M153" t="n">
-        <v>0.140490358961369</v>
+        <v>0.08600208099767359</v>
       </c>
       <c r="N153" t="n">
-        <v>0.3666982671621576</v>
+        <v>0.47219831160676</v>
       </c>
       <c r="O153" t="n">
-        <v>0.140408268622452</v>
+        <v>0.08591028203631036</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.08512986104471221</v>
+        <v>0.1447895757080453</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1415305172272672</v>
+        <v>0.04716993565353464</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1409369565626911</v>
+        <v>0.1447895757080453</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1420868403132027</v>
+        <v>0.04716993565353464</v>
       </c>
       <c r="L154" t="n">
-        <v>0.2558305104440963</v>
+        <v>0.3156208998998297</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1420868403132027</v>
+        <v>0.08697937737264716</v>
       </c>
       <c r="N154" t="n">
-        <v>0.3678154648917871</v>
+        <v>0.4742594371232129</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1420038171295253</v>
+        <v>0.08688653524126844</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.08672088102367792</v>
+        <v>0.1448305884400528</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1431207477579107</v>
+        <v>0.04769993493054064</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1404902717423673</v>
+        <v>0.1448305884400528</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1436833216650365</v>
+        <v>0.04769993493054064</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2557921407322006</v>
+        <v>0.3143577810760612</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1436833216650365</v>
+        <v>0.08795667374762071</v>
       </c>
       <c r="N155" t="n">
-        <v>0.3717568875909172</v>
+        <v>0.4746147087860435</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1435993656365986</v>
+        <v>0.08786278844622651</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.07954260622089357</v>
+        <v>0.1448662397430299</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1447109782885541</v>
+        <v>0.04822993420754665</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1418420696896391</v>
+        <v>0.1448662397430299</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1452798030168702</v>
+        <v>0.04822993420754665</v>
       </c>
       <c r="L156" t="n">
-        <v>0.2560740355527134</v>
+        <v>0.3126994632512924</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1452798030168702</v>
+        <v>0.08893397012259428</v>
       </c>
       <c r="N156" t="n">
-        <v>0.3747264165648976</v>
+        <v>0.4751641914193525</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1451949141436719</v>
+        <v>0.08883904165118457</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.08054699781275407</v>
+        <v>0.1448967755883101</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1463012088191976</v>
+        <v>0.04875993348455266</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1436158727438614</v>
+        <v>0.1448967755883101</v>
       </c>
       <c r="K157" t="n">
-        <v>0.146876284368704</v>
+        <v>0.04875993348455266</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2617379602040022</v>
+        <v>0.3137453676660107</v>
       </c>
       <c r="M157" t="n">
-        <v>0.146876284368704</v>
+        <v>0.08991126649756784</v>
       </c>
       <c r="N157" t="n">
-        <v>0.3761244104396109</v>
+        <v>0.4742079498472405</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1467904626507452</v>
+        <v>0.08981529485614265</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.08368601697565434</v>
+        <v>0.1449224419472268</v>
       </c>
       <c r="G158" t="n">
-        <v>0.147891439349841</v>
+        <v>0.04928993276155866</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1458352032443889</v>
+        <v>0.1449224419472268</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1484727657205377</v>
+        <v>0.04928993276155866</v>
       </c>
       <c r="L158" t="n">
-        <v>0.2641456799844345</v>
+        <v>0.3132949155607028</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1484727657205377</v>
+        <v>0.09088856287254141</v>
       </c>
       <c r="N158" t="n">
-        <v>0.3789512278409403</v>
+        <v>0.474046048893808</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1483860111578185</v>
+        <v>0.09079154806110072</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.09491162488598937</v>
+        <v>0.1449434847911133</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1494816698804845</v>
+        <v>0.04981993203856467</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1485235835305766</v>
+        <v>0.1449434847911133</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1500692470723715</v>
+        <v>0.04981993203856467</v>
       </c>
       <c r="L159" t="n">
-        <v>0.2684589601923779</v>
+        <v>0.3141475281758568</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1500692470723715</v>
+        <v>0.09186585924751496</v>
       </c>
       <c r="N159" t="n">
-        <v>0.3887072273947683</v>
+        <v>0.4718785533831557</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1499815596648919</v>
+        <v>0.0917678012660588</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.090175782720154</v>
+        <v>0.1449601500913031</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1510719004111279</v>
+        <v>0.05034993131557068</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1504045359417793</v>
+        <v>0.1449601500913031</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1516657284242052</v>
+        <v>0.05034993131557068</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2718395661261996</v>
+        <v>0.3130026267519592</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1516657284242052</v>
+        <v>0.09284315562248853</v>
       </c>
       <c r="N160" t="n">
-        <v>0.3917927677269778</v>
+        <v>0.4731055281393843</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1515771081719652</v>
+        <v>0.09274405447101686</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.08643045165454319</v>
+        <v>0.1449726838191297</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1526621309417714</v>
+        <v>0.05087993059257669</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1513015828173518</v>
+        <v>0.1449726838191297</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1532622097760389</v>
+        <v>0.05087993059257669</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2737492630842673</v>
+        <v>0.3125596325294976</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1532622097760389</v>
+        <v>0.0938204519974621</v>
       </c>
       <c r="N161" t="n">
-        <v>0.3945082074634518</v>
+        <v>0.4716270379865946</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1531726566790385</v>
+        <v>0.09372030767597493</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.08962759286555183</v>
+        <v>0.1449813319459263</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1542523614724148</v>
+        <v>0.05140992986958269</v>
       </c>
       <c r="J162" t="n">
-        <v>0.152938246496649</v>
+        <v>0.1449813319459263</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1548586911278727</v>
+        <v>0.05140992986958269</v>
       </c>
       <c r="L162" t="n">
-        <v>0.2770498163649485</v>
+        <v>0.3129179667489592</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1548586911278727</v>
+        <v>0.09479774837243565</v>
       </c>
       <c r="N162" t="n">
-        <v>0.4011539052300733</v>
+        <v>0.4704431477488867</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1547682051861118</v>
+        <v>0.09469656088093302</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.09071916752957487</v>
+        <v>0.1449863404430265</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1558425920030583</v>
+        <v>0.0519399291465887</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1558380493190258</v>
+        <v>0.1449863404430265</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1564551724797064</v>
+        <v>0.0519399291465887</v>
       </c>
       <c r="L163" t="n">
-        <v>0.2803029912666105</v>
+        <v>0.3128770506508313</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1564551724797064</v>
+        <v>0.09577504474740922</v>
       </c>
       <c r="N163" t="n">
-        <v>0.4083302196527251</v>
+        <v>0.4722539222503618</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1563637536931851</v>
+        <v>0.09567281408589108</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.09666341301780348</v>
+        <v>0.1449879552817635</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1574328225337017</v>
+        <v>0.05246992842359471</v>
       </c>
       <c r="J164" t="n">
-        <v>0.156924513623837</v>
+        <v>0.1449879552817635</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1580516538315402</v>
+        <v>0.05246992842359471</v>
       </c>
       <c r="L164" t="n">
-        <v>0.2823705530876209</v>
+        <v>0.310936305475601</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1580516538315402</v>
+        <v>0.09675234112238278</v>
       </c>
       <c r="N164" t="n">
-        <v>0.4119375093572897</v>
+        <v>0.4707594263151205</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1579593022002585</v>
+        <v>0.09664906729084916</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.09954432013419123</v>
+        <v>0.1449879552817636</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1590230530643452</v>
+        <v>0.05246992842359471</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1588315396517383</v>
+        <v>0.1449879552817636</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1596481351833739</v>
+        <v>0.05246992842359471</v>
       </c>
       <c r="L165" t="n">
-        <v>0.2852137771025212</v>
+        <v>0.3130951524637556</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1596481351833739</v>
+        <v>0.09772963749735634</v>
       </c>
       <c r="N165" t="n">
-        <v>0.4125057582242223</v>
+        <v>0.472759724767263</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1595548507073318</v>
+        <v>0.09762532049580723</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.09040412976277651</v>
+        <v>0.1426363978370488</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1606132835949886</v>
+        <v>0.05246965989513069</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1605022739621578</v>
+        <v>0.1426363978370488</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1612446165352076</v>
+        <v>0.05246965989513069</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2880914032069269</v>
+        <v>0.3114530128557823</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1612446165352076</v>
+        <v>0.09870693387232991</v>
       </c>
       <c r="N166" t="n">
-        <v>0.4153832004524737</v>
+        <v>0.4713548824308904</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1611503992144051</v>
+        <v>0.0986015737007653</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.09424436583963056</v>
+        <v>0.1403110517095891</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1622035141256321</v>
+        <v>0.05246939136666667</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1613410383337683</v>
+        <v>0.1403110517095891</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1628410978870413</v>
+        <v>0.05246939136666667</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2916112430909488</v>
+        <v>0.3106093078921687</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1628410978870413</v>
+        <v>0.09968423024730347</v>
       </c>
       <c r="N167" t="n">
-        <v>0.4208775007196995</v>
+        <v>0.4725449641301032</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1627459477214784</v>
+        <v>0.09957782690572337</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1040665523008245</v>
+        <v>0.1380131243157987</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1637937446562756</v>
+        <v>0.05246912283820265</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1618502588681466</v>
+        <v>0.1380131243157987</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1644375792388751</v>
+        <v>0.05246912283820265</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2927776819753792</v>
+        <v>0.3103634588134014</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1644375792388751</v>
+        <v>0.100661526622277</v>
       </c>
       <c r="N168" t="n">
-        <v>0.4270949922511645</v>
+        <v>0.4727300346890019</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1643414962285517</v>
+        <v>0.1005540801106814</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1018722130824297</v>
+        <v>0.1357438230718904</v>
       </c>
       <c r="G169" t="n">
-        <v>0.165383975186919</v>
+        <v>0.05246885430973863</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1644323616668696</v>
+        <v>0.1357438230718904</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1660340605907088</v>
+        <v>0.05246885430973863</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2942951050810105</v>
+        <v>0.3103148868599682</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1660340605907088</v>
+        <v>0.1016388229972506</v>
       </c>
       <c r="N169" t="n">
-        <v>0.4304420082721327</v>
+        <v>0.4705101589316872</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1659370447356251</v>
+        <v>0.1015303333156395</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1016628721205173</v>
+        <v>0.133504355394276</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1669742057175625</v>
+        <v>0.05246858578127462</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1647897728315143</v>
+        <v>0.133504355394276</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1676305419425426</v>
+        <v>0.05246858578127462</v>
       </c>
       <c r="L170" t="n">
-        <v>0.296867897628635</v>
+        <v>0.311563013272356</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1676305419425426</v>
+        <v>0.1026161193722242</v>
       </c>
       <c r="N170" t="n">
-        <v>0.4317248820078688</v>
+        <v>0.47008540168226</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1675325932426984</v>
+        <v>0.1025065865205976</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1034400533511585</v>
+        <v>0.1312959286991709</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1685644362482059</v>
+        <v>0.0524683172528106</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1667249184636573</v>
+        <v>0.1312959286991709</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1692270232943763</v>
+        <v>0.0524683172528106</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2987004448390451</v>
+        <v>0.3115072592910524</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1692270232943763</v>
+        <v>0.1035934157471977</v>
       </c>
       <c r="N171" t="n">
-        <v>0.4337499466836369</v>
+        <v>0.4702558277648206</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1691281417497717</v>
+        <v>0.1034828397255557</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1012052807104245</v>
+        <v>0.1291197504029843</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1701546667788494</v>
+        <v>0.05246804872434659</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1666402246648758</v>
+        <v>0.1291197504029843</v>
       </c>
       <c r="K172" t="n">
-        <v>0.17082350464621</v>
+        <v>0.05246804872434659</v>
       </c>
       <c r="L172" t="n">
-        <v>0.3015971319330331</v>
+        <v>0.3120470461565444</v>
       </c>
       <c r="M172" t="n">
-        <v>0.17082350464621</v>
+        <v>0.1045707121221713</v>
       </c>
       <c r="N172" t="n">
-        <v>0.4368235355247011</v>
+        <v>0.46972150200347</v>
       </c>
       <c r="O172" t="n">
-        <v>0.170723690256845</v>
+        <v>0.1044590929305137</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1029600781343866</v>
+        <v>0.1269770279219344</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1717448973094928</v>
+        <v>0.05246778019588257</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1681381175367464</v>
+        <v>0.1269770279219344</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1724199859980438</v>
+        <v>0.05246778019588257</v>
       </c>
       <c r="L173" t="n">
-        <v>0.3033623441313911</v>
+        <v>0.3095817951093192</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1724199859980438</v>
+        <v>0.1055480084971449</v>
       </c>
       <c r="N173" t="n">
-        <v>0.441351981756326</v>
+        <v>0.4728824892223082</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1723192387639183</v>
+        <v>0.1054353461354718</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.108705969559116</v>
+        <v>0.1248689686724272</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1733351278401363</v>
+        <v>0.05246751166741855</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1693210231808462</v>
+        <v>0.1248689686724272</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1740164673498775</v>
+        <v>0.05246751166741855</v>
       </c>
       <c r="L174" t="n">
-        <v>0.3050004666549118</v>
+        <v>0.3122109273898643</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1740164673498775</v>
+        <v>0.1065253048721184</v>
       </c>
       <c r="N174" t="n">
-        <v>0.4438416186037761</v>
+        <v>0.4718388542454366</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1739147872709916</v>
+        <v>0.1064115993404299</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1054444789206838</v>
+        <v>0.1227967800706841</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1749253583707797</v>
+        <v>0.05246724313895453</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1707913676987519</v>
+        <v>0.1227967800706841</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1756129487017113</v>
+        <v>0.05246724313895453</v>
       </c>
       <c r="L175" t="n">
-        <v>0.309715884724387</v>
+        <v>0.3114338642386666</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1756129487017113</v>
+        <v>0.107502601247092</v>
       </c>
       <c r="N175" t="n">
-        <v>0.4457987792923154</v>
+        <v>0.4712906618969555</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1755103357780649</v>
+        <v>0.1073878525453879</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.09819159859515117</v>
+        <v>0.1207616695331081</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1765155889014232</v>
+        <v>0.05246697461049052</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1710572265682416</v>
+        <v>0.1207616695331081</v>
       </c>
       <c r="K176" t="n">
-        <v>0.177209430053545</v>
+        <v>0.05246697461049052</v>
       </c>
       <c r="L176" t="n">
-        <v>0.3116231949063411</v>
+        <v>0.3096500268962135</v>
       </c>
       <c r="M176" t="n">
-        <v>0.177209430053545</v>
+        <v>0.1084798976220655</v>
       </c>
       <c r="N176" t="n">
-        <v>0.4493494577087678</v>
+        <v>0.4706379770009653</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1771058842851383</v>
+        <v>0.108364105750346</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1049819034200297</v>
+        <v>0.1187648444759236</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1781058194320666</v>
+        <v>0.0524667060820265</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1723846259742183</v>
+        <v>0.1187648444759236</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1788059114053787</v>
+        <v>0.0524667060820265</v>
       </c>
       <c r="L177" t="n">
-        <v>0.3129417406782412</v>
+        <v>0.3101588366029924</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1788059114053787</v>
+        <v>0.1094571939970391</v>
       </c>
       <c r="N177" t="n">
-        <v>0.454466249403021</v>
+        <v>0.469480864381567</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1787014327922116</v>
+        <v>0.1093403589553041</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1007931183863563</v>
+        <v>0.1168075123155305</v>
       </c>
       <c r="G178" t="n">
-        <v>0.17969604996271</v>
+        <v>0.05246643755356249</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1743593803821108</v>
+        <v>0.1168075123155305</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1804023927572125</v>
+        <v>0.05246643755356249</v>
       </c>
       <c r="L178" t="n">
-        <v>0.3166458814396512</v>
+        <v>0.3118597145994905</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1804023927572125</v>
+        <v>0.1104344903720127</v>
       </c>
       <c r="N178" t="n">
-        <v>0.4540011976168943</v>
+        <v>0.4683193888628612</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1802969812992849</v>
+        <v>0.1103166121602622</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1105990649602364</v>
+        <v>0.1148908804681565</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1812862804933535</v>
+        <v>0.05246616902509846</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1749398136458125</v>
+        <v>0.1148908804681565</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1819988741090462</v>
+        <v>0.05246616902509846</v>
       </c>
       <c r="L179" t="n">
-        <v>0.3171602868316965</v>
+        <v>0.3102520821261948</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1819988741090462</v>
+        <v>0.1114117867469862</v>
       </c>
       <c r="N179" t="n">
-        <v>0.4612455087104351</v>
+        <v>0.4728536152689484</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1818925298063582</v>
+        <v>0.1112928653652202</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1133735646077759</v>
+        <v>0.113016156350198</v>
       </c>
       <c r="G180" t="n">
-        <v>0.182876511023997</v>
+        <v>0.05246590049663444</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1773842496192164</v>
+        <v>0.113016156350198</v>
       </c>
       <c r="K180" t="n">
-        <v>0.18359535546088</v>
+        <v>0.05246590049663444</v>
       </c>
       <c r="L180" t="n">
-        <v>0.3186096264955031</v>
+        <v>0.3103353604235927</v>
       </c>
       <c r="M180" t="n">
-        <v>0.18359535546088</v>
+        <v>0.1123890831219598</v>
       </c>
       <c r="N180" t="n">
-        <v>0.4607903890436905</v>
+        <v>0.4707836084239293</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1834880783134315</v>
+        <v>0.1122691185701783</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1110904387950802</v>
+        <v>0.1111845473778863</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1844667415546404</v>
+        <v>0.05246563196817042</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1788510121562158</v>
+        <v>0.1111845473778863</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1851918368127137</v>
+        <v>0.05246563196817042</v>
       </c>
       <c r="L181" t="n">
-        <v>0.3218185700721965</v>
+        <v>0.3095089707321714</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1851918368127137</v>
+        <v>0.1133663794969334</v>
       </c>
       <c r="N181" t="n">
-        <v>0.4686270449767079</v>
+        <v>0.4678094331519046</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1850836268205049</v>
+        <v>0.1132453717751364</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1107235089882549</v>
+        <v>0.109397260967614</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1860569720852839</v>
+        <v>0.05246536343970641</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1795984251107043</v>
+        <v>0.109397260967614</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1867883181645474</v>
+        <v>0.05246536343970641</v>
       </c>
       <c r="L182" t="n">
-        <v>0.3256117872029028</v>
+        <v>0.3082723342924184</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1867883181645474</v>
+        <v>0.1143436758719069</v>
       </c>
       <c r="N182" t="n">
-        <v>0.4684466828695346</v>
+        <v>0.4721311542769748</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1866791753275782</v>
+        <v>0.1142216249800944</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1122465966534059</v>
+        <v>0.1076555045356537</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1876472026159273</v>
+        <v>0.0524650949112424</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1791848123365749</v>
+        <v>0.1076555045356537</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1883847995163812</v>
+        <v>0.0524650949112424</v>
       </c>
       <c r="L183" t="n">
-        <v>0.3248139475287478</v>
+        <v>0.3106248723448207</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1883847995163812</v>
+        <v>0.1153209722468805</v>
       </c>
       <c r="N183" t="n">
-        <v>0.4694405090822177</v>
+        <v>0.4677488366232407</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1882747238346515</v>
+        <v>0.1151978781850525</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1086335232566386</v>
+        <v>0.1059604854982821</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1892374331465708</v>
+        <v>0.05246482638277838</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1810684976877208</v>
+        <v>0.1059604854982821</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1899812808682149</v>
+        <v>0.05246482638277838</v>
       </c>
       <c r="L184" t="n">
-        <v>0.3285497206908572</v>
+        <v>0.3072660061298655</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1899812808682149</v>
+        <v>0.1162982686218541</v>
       </c>
       <c r="N184" t="n">
-        <v>0.4737997299748045</v>
+        <v>0.4698625450148028</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1898702723417248</v>
+        <v>0.1161741313900106</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.105929435742165</v>
+        <v>0.1043134112718856</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1908276636772142</v>
+        <v>0.05246455785431436</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1812565983501935</v>
+        <v>0.1043134112718856</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1915777622200487</v>
+        <v>0.05246455785431436</v>
       </c>
       <c r="L185" t="n">
-        <v>0.3287319711267932</v>
+        <v>0.3097951568880403</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1915777622200487</v>
+        <v>0.1172755649968276</v>
       </c>
       <c r="N185" t="n">
-        <v>0.4748634353484614</v>
+        <v>0.468472344275762</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1914658208487981</v>
+        <v>0.1171503845949687</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1162187179521733</v>
+        <v>0.1027154892727057</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1924178942078577</v>
+        <v>0.05246428932585034</v>
       </c>
       <c r="J186" t="n">
-        <v>0.182416575481061</v>
+        <v>0.1027154892727057</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1931742435718824</v>
+        <v>0.05246428932585034</v>
       </c>
       <c r="L186" t="n">
-        <v>0.329863387790259</v>
+        <v>0.30730829831211</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1931742435718824</v>
+        <v>0.1182528613718012</v>
       </c>
       <c r="N186" t="n">
-        <v>0.4754644054109957</v>
+        <v>0.4678679231979994</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1930613693558715</v>
+        <v>0.1181266377999268</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1145016997498156</v>
+        <v>0.1011679269171248</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1940081247385011</v>
+        <v>0.05246402079738633</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1820666084870339</v>
+        <v>0.1011679269171248</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1947707249237161</v>
+        <v>0.05246402079738633</v>
       </c>
       <c r="L187" t="n">
-        <v>0.3286768302750404</v>
+        <v>0.3062629098528153</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1947707249237161</v>
+        <v>0.1192301577467747</v>
       </c>
       <c r="N187" t="n">
-        <v>0.4790393833630588</v>
+        <v>0.4711649499385345</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1946569178629448</v>
+        <v>0.1191028910048848</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1127782847945446</v>
+        <v>0.09967193162138847</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1955983552691446</v>
+        <v>0.05246375226892231</v>
       </c>
       <c r="J188" t="n">
-        <v>0.182006543994255</v>
+        <v>0.09967193162138847</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1963672062755498</v>
+        <v>0.05246375226892231</v>
       </c>
       <c r="L188" t="n">
-        <v>0.3313720213552231</v>
+        <v>0.3071499573099294</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1963672062755498</v>
+        <v>0.1202074541217483</v>
       </c>
       <c r="N188" t="n">
-        <v>0.4798879688293346</v>
+        <v>0.4664497625398587</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1962524663700181</v>
+        <v>0.1200791442098429</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1160483767458133</v>
+        <v>0.09822871080187477</v>
       </c>
       <c r="G189" t="n">
-        <v>0.197188585799788</v>
+        <v>0.0524634837404583</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1835362286288672</v>
+        <v>0.09822871080187477</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1979636876273836</v>
+        <v>0.0524634837404583</v>
       </c>
       <c r="L189" t="n">
-        <v>0.3315486838048931</v>
+        <v>0.3081738774698397</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1979636876273836</v>
+        <v>0.1211847504967219</v>
       </c>
       <c r="N189" t="n">
-        <v>0.4782097614345062</v>
+        <v>0.4699283802431357</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1978480148770914</v>
+        <v>0.121055397414801</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1083118792630745</v>
+        <v>0.09683454159155609</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1987788163304315</v>
+        <v>0.05246321521199428</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1831555090170133</v>
+        <v>0.09683454159155609</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1995601689792173</v>
+        <v>0.05246321521199428</v>
       </c>
       <c r="L190" t="n">
-        <v>0.3314065403981363</v>
+        <v>0.3078391071189328</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1995601689792173</v>
+        <v>0.1221620468716954</v>
       </c>
       <c r="N190" t="n">
-        <v>0.480604360803257</v>
+        <v>0.4680068222895295</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1994435633841647</v>
+        <v>0.122031650619759</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1125686960057811</v>
+        <v>0.09546104970713949</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2003690468610749</v>
+        <v>0.05246294668353026</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1841642317848362</v>
+        <v>0.09546104970713949</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2011566503310511</v>
+        <v>0.05246294668353026</v>
       </c>
       <c r="L191" t="n">
-        <v>0.3311453139090385</v>
+        <v>0.3060500830435958</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2011566503310511</v>
+        <v>0.123139343246669</v>
       </c>
       <c r="N191" t="n">
-        <v>0.4797713665602703</v>
+        <v>0.4661911079202042</v>
       </c>
       <c r="O191" t="n">
-        <v>0.201039111891238</v>
+        <v>0.1230079038247171</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.117818730633386</v>
+        <v>0.09410451228159995</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2019592773917184</v>
+        <v>0.05246267815506624</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1839622435584784</v>
+        <v>0.09410451228159995</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2027531316828848</v>
+        <v>0.05246267815506624</v>
       </c>
       <c r="L192" t="n">
-        <v>0.3330647271116856</v>
+        <v>0.3040112420302152</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2027531316828848</v>
+        <v>0.1241166396216426</v>
       </c>
       <c r="N192" t="n">
-        <v>0.4827103783302293</v>
+        <v>0.4660872563763238</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2026346603983114</v>
+        <v>0.1239841570296752</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1130618868053419</v>
+        <v>0.09276613673130944</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2035495079223618</v>
+        <v>0.05246240962660222</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1856493909640832</v>
+        <v>0.09276613673130944</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2043496130347186</v>
+        <v>0.05246240962660222</v>
       </c>
       <c r="L193" t="n">
-        <v>0.3353645027801634</v>
+        <v>0.3032270208651786</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2043496130347186</v>
+        <v>0.1250939359966161</v>
       </c>
       <c r="N193" t="n">
-        <v>0.4853209957378175</v>
+        <v>0.4667012868990519</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2042302089053847</v>
+        <v>0.1249604102346333</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1112980681811019</v>
+        <v>0.09144713047252274</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2051397384530053</v>
+        <v>0.0524621410981382</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1844255206277933</v>
+        <v>0.09144713047252274</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2059460943865523</v>
+        <v>0.0524621410981382</v>
       </c>
       <c r="L194" t="n">
-        <v>0.335744363688558</v>
+        <v>0.3026018563348724</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2059460943865523</v>
+        <v>0.1260712323715897</v>
       </c>
       <c r="N194" t="n">
-        <v>0.4855028184077183</v>
+        <v>0.4624392187295526</v>
       </c>
       <c r="O194" t="n">
-        <v>0.205825757412458</v>
+        <v>0.1259366634395913</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1085271784201186</v>
+        <v>0.09014870092161011</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2067299689836488</v>
+        <v>0.05246187256967419</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1853904791757512</v>
+        <v>0.09014870092161011</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2075425757383861</v>
+        <v>0.05246187256967419</v>
       </c>
       <c r="L195" t="n">
-        <v>0.3367040326109548</v>
+        <v>0.3018401852256836</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2075425757383861</v>
+        <v>0.1270485287465632</v>
       </c>
       <c r="N195" t="n">
-        <v>0.483155445964615</v>
+        <v>0.46320707110899</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2074213059195313</v>
+        <v>0.1269129166445494</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1077491211818451</v>
+        <v>0.08887205549482798</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2083201995142922</v>
+        <v>0.05246160404121017</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1857441132341003</v>
+        <v>0.08887205549482798</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2091390570902198</v>
+        <v>0.05246160404121017</v>
       </c>
       <c r="L196" t="n">
-        <v>0.33424323232144</v>
+        <v>0.3008464443239992</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2091390570902198</v>
+        <v>0.1280258251215368</v>
       </c>
       <c r="N196" t="n">
-        <v>0.4845784780331909</v>
+        <v>0.4592108632785277</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2090168544266046</v>
+        <v>0.1278891698495075</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1089638001257343</v>
+        <v>0.08761840160854488</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2099104300449356</v>
+        <v>0.05246133551274616</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1864862694289831</v>
+        <v>0.08761840160854488</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2107355384420535</v>
+        <v>0.05246133551274616</v>
       </c>
       <c r="L197" t="n">
-        <v>0.3375616855940994</v>
+        <v>0.3022250704162059</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2107355384420535</v>
+        <v>0.1290031214965104</v>
       </c>
       <c r="N197" t="n">
-        <v>0.4879715142381291</v>
+        <v>0.4594566144793297</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2106124029336779</v>
+        <v>0.1288654230544655</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1101711189112388</v>
+        <v>0.08638894667904566</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2115006605755791</v>
+        <v>0.05246106698428214</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1865167943865423</v>
+        <v>0.08638894667904566</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2123320197938872</v>
+        <v>0.05246106698428214</v>
       </c>
       <c r="L198" t="n">
-        <v>0.3374591152030191</v>
+        <v>0.3004805002886909</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2123320197938872</v>
+        <v>0.1299804178714839</v>
       </c>
       <c r="N198" t="n">
-        <v>0.4898341542041135</v>
+        <v>0.4571503439525602</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2122079514407512</v>
+        <v>0.1298416762594236</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1083709811978117</v>
+        <v>0.08518489812261733</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2130908911062226</v>
+        <v>0.05246079845581812</v>
       </c>
       <c r="J199" t="n">
-        <v>0.186935534732921</v>
+        <v>0.08518489812261733</v>
       </c>
       <c r="K199" t="n">
-        <v>0.213928501145721</v>
+        <v>0.05246079845581812</v>
       </c>
       <c r="L199" t="n">
-        <v>0.3366352439222845</v>
+        <v>0.3008171707278411</v>
       </c>
       <c r="M199" t="n">
-        <v>0.213928501145721</v>
+        <v>0.1309577142464575</v>
       </c>
       <c r="N199" t="n">
-        <v>0.488165997555827</v>
+        <v>0.4565980709393829</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2138034999478245</v>
+        <v>0.1308179294643817</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1145632906449057</v>
+        <v>0.08400746335562521</v>
       </c>
       <c r="G200" t="n">
-        <v>0.214681121636866</v>
+        <v>0.05246052992735411</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1872423370942619</v>
+        <v>0.08400746335562521</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2155249824975548</v>
+        <v>0.05246052992735411</v>
       </c>
       <c r="L200" t="n">
-        <v>0.3366897945259817</v>
+        <v>0.2985395185200432</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2155249824975548</v>
+        <v>0.1319350106214311</v>
       </c>
       <c r="N200" t="n">
-        <v>0.4901666439179531</v>
+        <v>0.4560058146809618</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2153990484548979</v>
+        <v>0.1317941826693398</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1137479509119738</v>
+        <v>0.08285784979433101</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2162713521675095</v>
+        <v>0.05246026139889009</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1864370480967079</v>
+        <v>0.08285784979433101</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2171214638493885</v>
+        <v>0.05246026139889009</v>
       </c>
       <c r="L201" t="n">
-        <v>0.3392224897881967</v>
+        <v>0.2996519804516843</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2171214638493885</v>
+        <v>0.1329123069964046</v>
       </c>
       <c r="N201" t="n">
-        <v>0.4915356929151752</v>
+        <v>0.4567795944184606</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2169945969619712</v>
+        <v>0.1327704358742978</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1109248656584689</v>
+        <v>0.0817372648550977</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2178615826981529</v>
+        <v>0.05245999287042608</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1874195143664019</v>
+        <v>0.0817372648550977</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2187179452012222</v>
+        <v>0.05245999287042608</v>
       </c>
       <c r="L202" t="n">
-        <v>0.338033052483015</v>
+        <v>0.2980589933091511</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2187179452012222</v>
+        <v>0.1338896033713782</v>
       </c>
       <c r="N202" t="n">
-        <v>0.4903727441721766</v>
+        <v>0.4516254293930436</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2185901454690445</v>
+        <v>0.1337466890792559</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1110939385438437</v>
+        <v>0.08064691595418945</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2194518132287964</v>
+        <v>0.05245972434196206</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1878895825294866</v>
+        <v>0.08064691595418945</v>
       </c>
       <c r="K203" t="n">
-        <v>0.220314426553056</v>
+        <v>0.05245972434196206</v>
       </c>
       <c r="L203" t="n">
-        <v>0.3404212053845228</v>
+        <v>0.2978649938788306</v>
       </c>
       <c r="M203" t="n">
-        <v>0.220314426553056</v>
+        <v>0.1348668997463517</v>
       </c>
       <c r="N203" t="n">
-        <v>0.4937773973136403</v>
+        <v>0.4518493388458745</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2201856939761178</v>
+        <v>0.134722942284214</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1202550732275512</v>
+        <v>0.07958801050796664</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2210420437594398</v>
+        <v>0.05245945581349803</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1884470992121049</v>
+        <v>0.07958801050796664</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2219109079048897</v>
+        <v>0.05245945581349803</v>
       </c>
       <c r="L204" t="n">
-        <v>0.3418866712668057</v>
+        <v>0.2956744189471099</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2219109079048897</v>
+        <v>0.1358441961213253</v>
       </c>
       <c r="N204" t="n">
-        <v>0.4930492519642502</v>
+        <v>0.4508573420181173</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2217812424831911</v>
+        <v>0.1356991954891721</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1114081733690442</v>
+        <v>0.07856175593269617</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2226322742900833</v>
+        <v>0.05245918728503401</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1886919110403996</v>
+        <v>0.07856175593269617</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2235073892567234</v>
+        <v>0.05245918728503401</v>
       </c>
       <c r="L205" t="n">
-        <v>0.3410291729039499</v>
+        <v>0.2960917053003756</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2235073892567234</v>
+        <v>0.1368214924962989</v>
       </c>
       <c r="N205" t="n">
-        <v>0.4934879077486893</v>
+        <v>0.4482554581509359</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2233767909902645</v>
+        <v>0.1366754486941301</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1165531426277756</v>
+        <v>0.07756935964473559</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2242225048207267</v>
+        <v>0.05245891875657</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1881238646405134</v>
+        <v>0.07756935964473559</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2251038706085572</v>
+        <v>0.05245891875657</v>
       </c>
       <c r="L206" t="n">
-        <v>0.341248433070041</v>
+        <v>0.2926212897250148</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2251038706085572</v>
+        <v>0.1377987888712724</v>
       </c>
       <c r="N206" t="n">
-        <v>0.4939929642916412</v>
+        <v>0.4506497064854944</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2249723394973378</v>
+        <v>0.1376517018990882</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1166898846631983</v>
+        <v>0.07661202906035468</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2258127353513702</v>
+        <v>0.05245865022810598</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1896428066385896</v>
+        <v>0.07661202906035468</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2267003519603909</v>
+        <v>0.05245865022810598</v>
       </c>
       <c r="L207" t="n">
-        <v>0.3429441745391648</v>
+        <v>0.2941676090074145</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2267003519603909</v>
+        <v>0.138776085246246</v>
       </c>
       <c r="N207" t="n">
-        <v>0.4955640212177889</v>
+        <v>0.4488461062629563</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2265678880044111</v>
+        <v>0.1386279551040463</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.117818303134765</v>
+        <v>0.07569097159590803</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2274029658820136</v>
+        <v>0.05245838169964197</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1894485836607705</v>
+        <v>0.07569097159590803</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2282968333122246</v>
+        <v>0.05245838169964197</v>
       </c>
       <c r="L208" t="n">
-        <v>0.3432161200854075</v>
+        <v>0.2918350999339613</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2282968333122246</v>
+        <v>0.1397533816212196</v>
       </c>
       <c r="N208" t="n">
-        <v>0.4969006781518158</v>
+        <v>0.445350676724486</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2281634365114844</v>
+        <v>0.1396042083090043</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1129383017019288</v>
+        <v>0.07480739466766854</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2289931964126571</v>
+        <v>0.05245811317117795</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1888410423331991</v>
+        <v>0.07480739466766854</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2298933146640584</v>
+        <v>0.05245811317117795</v>
       </c>
       <c r="L209" t="n">
-        <v>0.3416639924828546</v>
+        <v>0.2893281992910423</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2298933146640584</v>
+        <v>0.1407306779961931</v>
       </c>
       <c r="N209" t="n">
-        <v>0.4941025347184056</v>
+        <v>0.4462694371112471</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2297589850185577</v>
+        <v>0.1405804615139624</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1160497840241425</v>
+        <v>0.07396250569198752</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2305834269433005</v>
+        <v>0.05245784464271393</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1888200292820186</v>
+        <v>0.07396250569198752</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2314897960158921</v>
+        <v>0.05245784464271393</v>
       </c>
       <c r="L210" t="n">
-        <v>0.341087514505592</v>
+        <v>0.2889513438650443</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2314897960158921</v>
+        <v>0.1417079743711667</v>
       </c>
       <c r="N210" t="n">
-        <v>0.4933691905422413</v>
+        <v>0.4408084066644037</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2313545335256311</v>
+        <v>0.1415567147189205</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1111526537608589</v>
+        <v>0.07315751208514125</v>
       </c>
       <c r="G211" t="n">
-        <v>0.232173657473944</v>
+        <v>0.05245757611424991</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1901853911333713</v>
+        <v>0.07315751208514125</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2330862773677259</v>
+        <v>0.05245757611424991</v>
       </c>
       <c r="L211" t="n">
-        <v>0.3444864089277059</v>
+        <v>0.2893089704423545</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2330862773677259</v>
+        <v>0.1426852707461403</v>
       </c>
       <c r="N211" t="n">
-        <v>0.4968002452480063</v>
+        <v>0.4419736046251199</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2329500820327044</v>
+        <v>0.1425329679238786</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1142468145715308</v>
+        <v>0.07239362126347763</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2337638880045874</v>
+        <v>0.0524573075857859</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1904369745134003</v>
+        <v>0.07239362126347763</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2346827587195596</v>
+        <v>0.0524573075857859</v>
       </c>
       <c r="L212" t="n">
-        <v>0.3425603985232819</v>
+        <v>0.2882055158093595</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2346827587195596</v>
+        <v>0.1436625671211138</v>
       </c>
       <c r="N212" t="n">
-        <v>0.4961952984603841</v>
+        <v>0.4406710502345592</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2345456305397777</v>
+        <v>0.1435092211288366</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1123321701156113</v>
+        <v>0.07167204064327633</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2353541185352309</v>
+        <v>0.05245703905732188</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1906746260482484</v>
+        <v>0.07167204064327633</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2362792400713933</v>
+        <v>0.05245703905732188</v>
       </c>
       <c r="L213" t="n">
-        <v>0.3436092060664059</v>
+        <v>0.2872454167524465</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2362792400713933</v>
+        <v>0.1446398634960874</v>
       </c>
       <c r="N213" t="n">
-        <v>0.4984539498040579</v>
+        <v>0.4400067627338857</v>
       </c>
       <c r="O213" t="n">
-        <v>0.236141179046851</v>
+        <v>0.1444854743337947</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1204086240525531</v>
+        <v>0.07099397764088179</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2369443490658743</v>
+        <v>0.05245677052885787</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1907981923640585</v>
+        <v>0.07099397764088179</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2378757214232271</v>
+        <v>0.05245677052885787</v>
       </c>
       <c r="L214" t="n">
-        <v>0.3443325543311636</v>
+        <v>0.2872331100580022</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2378757214232271</v>
+        <v>0.145617159871061</v>
       </c>
       <c r="N214" t="n">
-        <v>0.4976757989037111</v>
+        <v>0.4355867613642636</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2377367275539243</v>
+        <v>0.1454617275387528</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.119476080041809</v>
+        <v>0.07099397764088179</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2385345795965178</v>
+        <v>0.05245677052885787</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1906075200869733</v>
+        <v>0.07099397764088179</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2394722027750608</v>
+        <v>0.05245677052885787</v>
       </c>
       <c r="L215" t="n">
-        <v>0.3452301660916414</v>
+        <v>0.2883730325124135</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2394722027750608</v>
+        <v>0.1465944562460345</v>
       </c>
       <c r="N215" t="n">
-        <v>0.4988604453840269</v>
+        <v>0.4381170653668564</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2393322760609976</v>
+        <v>0.1464379807437108</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1135344417428321</v>
+        <v>0.06908792523201142</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2401248101271612</v>
+        <v>0.05244929363043048</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1894024558431357</v>
+        <v>0.06908792523201142</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2410686841268946</v>
+        <v>0.05244929363043048</v>
       </c>
       <c r="L216" t="n">
-        <v>0.3446017641219244</v>
+        <v>0.2857696209020673</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2410686841268946</v>
+        <v>0.1475717526210081</v>
       </c>
       <c r="N216" t="n">
-        <v>0.4973074888696888</v>
+        <v>0.4379036939828282</v>
       </c>
       <c r="O216" t="n">
-        <v>0.240927824568071</v>
+        <v>0.1474142339486689</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.118583612815075</v>
+        <v>0.06720077901152573</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2417150406578047</v>
+        <v>0.0524418167320031</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1904828462586886</v>
+        <v>0.06720077901152573</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2426651654787283</v>
+        <v>0.0524418167320031</v>
       </c>
       <c r="L217" t="n">
-        <v>0.3426470711960992</v>
+        <v>0.2859273120133507</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2426651654787283</v>
+        <v>0.1485490489959816</v>
       </c>
       <c r="N217" t="n">
-        <v>0.4977165289853801</v>
+        <v>0.4341526664533429</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2425233730751443</v>
+        <v>0.148390487153627</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1166234969179908</v>
+        <v>0.06533313862708422</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2433052711884482</v>
+        <v>0.05243433983357572</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1902485379597748</v>
+        <v>0.06533313862708422</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2442616468305621</v>
+        <v>0.05243433983357572</v>
       </c>
       <c r="L218" t="n">
-        <v>0.3458658100882509</v>
+        <v>0.2873505426326505</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2442616468305621</v>
+        <v>0.1495263453709552</v>
       </c>
       <c r="N218" t="n">
-        <v>0.4973871653557841</v>
+        <v>0.4352700020195647</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2441189215822176</v>
+        <v>0.149366740358585</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1116539977110322</v>
+        <v>0.06348560372634619</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2448955017190916</v>
+        <v>0.05242686293514833</v>
       </c>
       <c r="J219" t="n">
-        <v>0.190099377572537</v>
+        <v>0.06348560372634619</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2458581281823958</v>
+        <v>0.05242686293514833</v>
       </c>
       <c r="L219" t="n">
-        <v>0.3432577035724661</v>
+        <v>0.2851437495463535</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2458581281823958</v>
+        <v>0.1505036417459288</v>
       </c>
       <c r="N219" t="n">
-        <v>0.5005189976055842</v>
+        <v>0.4351617199226573</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2457144700892909</v>
+        <v>0.1503429935635431</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1176750188536523</v>
+        <v>0.06165877395697104</v>
       </c>
       <c r="G220" t="n">
-        <v>0.246485732249735</v>
+        <v>0.05241938603672095</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1908352117231182</v>
+        <v>0.06165877395697104</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2474546095342295</v>
+        <v>0.05241938603672095</v>
       </c>
       <c r="L220" t="n">
-        <v>0.3445224744228302</v>
+        <v>0.2847113695408467</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2474546095342295</v>
+        <v>0.1514809381209024</v>
       </c>
       <c r="N220" t="n">
-        <v>0.4958116253594638</v>
+        <v>0.4341338394037845</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2473100185963642</v>
+        <v>0.1513192467685012</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1166864640053036</v>
+        <v>0.05985324896661824</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2480759627803785</v>
+        <v>0.05241190913829357</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1910558870376612</v>
+        <v>0.05985324896661824</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2490510908860632</v>
+        <v>0.05241190913829357</v>
       </c>
       <c r="L221" t="n">
-        <v>0.3427598454134294</v>
+        <v>0.2858443911953882</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2490510908860632</v>
+        <v>0.1524582344958759</v>
       </c>
       <c r="N221" t="n">
-        <v>0.4988646482421061</v>
+        <v>0.4321753174977572</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2489055671034376</v>
+        <v>0.1522954999734593</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1106733680377127</v>
+        <v>0.05806962840294712</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2496661933110219</v>
+        <v>0.05240443223986618</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1901558340111422</v>
+        <v>0.05806962840294712</v>
       </c>
       <c r="K222" t="n">
-        <v>0.250647572237897</v>
+        <v>0.05240443223986618</v>
       </c>
       <c r="L222" t="n">
-        <v>0.3445597495670741</v>
+        <v>0.2848867476957753</v>
       </c>
       <c r="M222" t="n">
-        <v>0.250647572237897</v>
+        <v>0.1534355308708495</v>
       </c>
       <c r="N222" t="n">
-        <v>0.4996585646919363</v>
+        <v>0.4295266609366941</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2505011156105109</v>
+        <v>0.1532717531784173</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1124327710255161</v>
+        <v>0.05630851191361706</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2512564238416654</v>
+        <v>0.0523969553414388</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1901495219018596</v>
+        <v>0.05630851191361706</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2522440535897307</v>
+        <v>0.0523969553414388</v>
       </c>
       <c r="L223" t="n">
-        <v>0.3426060851024982</v>
+        <v>0.2861317712275383</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2522440535897307</v>
+        <v>0.154412827245823</v>
       </c>
       <c r="N223" t="n">
-        <v>0.496529052004528</v>
+        <v>0.4293824397583562</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2520966641175842</v>
+        <v>0.1542480063833754</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1119235800124111</v>
+        <v>0.05457049914628752</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2528466543723089</v>
+        <v>0.05238947844301142</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1893096076973599</v>
+        <v>0.05457049914628752</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2538405349415644</v>
+        <v>0.05238947844301142</v>
       </c>
       <c r="L224" t="n">
-        <v>0.3427686773100809</v>
+        <v>0.2833795120208785</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2538405349415644</v>
+        <v>0.1553901236207966</v>
       </c>
       <c r="N224" t="n">
-        <v>0.4961699713611574</v>
+        <v>0.4305429691706809</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2536922126246575</v>
+        <v>0.1552242595883335</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1121758285264333</v>
+        <v>0.05285618974861779</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2544368849029524</v>
+        <v>0.05238200154458404</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1885839046826639</v>
+        <v>0.05285618974861779</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2554370162933982</v>
+        <v>0.05238200154458404</v>
       </c>
       <c r="L225" t="n">
-        <v>0.3413339495340134</v>
+        <v>0.2826300203059979</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2554370162933982</v>
+        <v>0.1563674199957702</v>
       </c>
       <c r="N225" t="n">
-        <v>0.4915061371173118</v>
+        <v>0.430508564381606</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2552877611317309</v>
+        <v>0.1562005127932916</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1152195500956185</v>
+        <v>0.05116618336826738</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2560271154335957</v>
+        <v>0.05237452464615665</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1870202261427921</v>
+        <v>0.05116618336826738</v>
       </c>
       <c r="K226" t="n">
-        <v>0.257033497645232</v>
+        <v>0.05237452464615665</v>
       </c>
       <c r="L226" t="n">
-        <v>0.3364883251184876</v>
+        <v>0.283683346313098</v>
       </c>
       <c r="M226" t="n">
-        <v>0.257033497645232</v>
+        <v>0.1573447163707437</v>
       </c>
       <c r="N226" t="n">
-        <v>0.4896623636284787</v>
+        <v>0.4286795405990688</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2568833096388041</v>
+        <v>0.1571767659982496</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1110847782480024</v>
+        <v>0.04950107965289556</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2576173459642392</v>
+        <v>0.05236704774772927</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1846663853627655</v>
+        <v>0.04950107965289556</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2586299789970657</v>
+        <v>0.05236704774772927</v>
       </c>
       <c r="L227" t="n">
-        <v>0.3331182274076955</v>
+        <v>0.2841395402723804</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2586299789970657</v>
+        <v>0.1583220127457173</v>
       </c>
       <c r="N227" t="n">
-        <v>0.4834634652501449</v>
+        <v>0.427456213031007</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2584788581458775</v>
+        <v>0.1581530192032077</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1118015465116206</v>
+        <v>0.04786147825016183</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2592075764948827</v>
+        <v>0.05235957084930189</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1834701956276047</v>
+        <v>0.04786147825016183</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2602264603488994</v>
+        <v>0.05235957084930189</v>
       </c>
       <c r="L228" t="n">
-        <v>0.3300100797458285</v>
+        <v>0.2839986524140469</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2602264603488994</v>
+        <v>0.1592993091206908</v>
       </c>
       <c r="N228" t="n">
-        <v>0.4769342563377982</v>
+        <v>0.4236388968853584</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2600744066529508</v>
+        <v>0.1591292724081658</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.112399888414509</v>
+        <v>0.04624797880772553</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2607978070255261</v>
+        <v>0.05235209395087451</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1816794702223306</v>
+        <v>0.04624797880772553</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2618229417007332</v>
+        <v>0.05235209395087451</v>
       </c>
       <c r="L229" t="n">
-        <v>0.3273503054770784</v>
+        <v>0.2828607329682989</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2618229417007332</v>
+        <v>0.1602766054956644</v>
       </c>
       <c r="N229" t="n">
-        <v>0.4727995512469254</v>
+        <v>0.4242279073700603</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2616699551600241</v>
+        <v>0.1601055256131239</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1089098374847031</v>
+        <v>0.0446611809732461</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2623880375561696</v>
+        <v>0.05234461705244713</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1784420224319639</v>
+        <v>0.0446611809732461</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2634194230525669</v>
+        <v>0.05234461705244713</v>
       </c>
       <c r="L230" t="n">
-        <v>0.3219253279456372</v>
+        <v>0.2850258321653381</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2634194230525669</v>
+        <v>0.161253901870638</v>
       </c>
       <c r="N230" t="n">
-        <v>0.465384164333014</v>
+        <v>0.4267235596930506</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2632655036670974</v>
+        <v>0.1610817788180819</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1103614272502388</v>
+        <v>0.04310168439438285</v>
       </c>
       <c r="G231" t="n">
-        <v>0.263978268086813</v>
+        <v>0.05233714015401975</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1766056655415253</v>
+        <v>0.04310168439438285</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2650159044044006</v>
+        <v>0.05233714015401975</v>
       </c>
       <c r="L231" t="n">
-        <v>0.3193215704956964</v>
+        <v>0.2836940002353662</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2650159044044006</v>
+        <v>0.1622311982456115</v>
       </c>
       <c r="N231" t="n">
-        <v>0.4591129099515512</v>
+        <v>0.4229261690622668</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2648610521741707</v>
+        <v>0.16205803202304</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1097846912391517</v>
+        <v>0.04157008871879524</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2655684986174565</v>
+        <v>0.05232966325559236</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1730182128360356</v>
+        <v>0.04157008871879524</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2666123857562344</v>
+        <v>0.05232966325559236</v>
       </c>
       <c r="L232" t="n">
-        <v>0.3124254564714478</v>
+        <v>0.2829652874085848</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2666123857562344</v>
+        <v>0.1632084946205851</v>
       </c>
       <c r="N232" t="n">
-        <v>0.4520106024580244</v>
+        <v>0.4210360506856462</v>
       </c>
       <c r="O232" t="n">
-        <v>0.266456600681244</v>
+        <v>0.1630342852279981</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1002096629794775</v>
+        <v>0.04006699359414263</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2671587291480999</v>
+        <v>0.05232218635716498</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1708274776005155</v>
+        <v>0.04006699359414263</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2682088671080681</v>
+        <v>0.05232218635716498</v>
       </c>
       <c r="L233" t="n">
-        <v>0.3093234092170831</v>
+        <v>0.2834397439151957</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2682088671080681</v>
+        <v>0.1641857909955587</v>
       </c>
       <c r="N233" t="n">
-        <v>0.4471020562079208</v>
+        <v>0.4208535197711267</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2680521491883174</v>
+        <v>0.1640105384329561</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.107666375999252</v>
+        <v>0.03859299866808442</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2687489596787433</v>
+        <v>0.0523147094587376</v>
       </c>
       <c r="J234" t="n">
-        <v>0.168481273119986</v>
+        <v>0.03859299866808442</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2698053484599018</v>
+        <v>0.0523147094587376</v>
       </c>
       <c r="L234" t="n">
-        <v>0.3064018520767943</v>
+        <v>0.2840174199854001</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2698053484599018</v>
+        <v>0.1651630873705322</v>
       </c>
       <c r="N234" t="n">
-        <v>0.4409120855567273</v>
+        <v>0.422978891526646</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2696476976953907</v>
+        <v>0.1649867916379142</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1001848638265108</v>
+        <v>0.03714870358828003</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2703391902093868</v>
+        <v>0.05230723256031021</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1667274126794674</v>
+        <v>0.03714870358828003</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2714018298117356</v>
+        <v>0.05230723256031021</v>
       </c>
       <c r="L235" t="n">
-        <v>0.3000472083947728</v>
+        <v>0.2845983658494001</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2714018298117356</v>
+        <v>0.1661403837455058</v>
       </c>
       <c r="N235" t="n">
-        <v>0.4349655048599319</v>
+        <v>0.4234124811601415</v>
       </c>
       <c r="O235" t="n">
-        <v>0.271243246202464</v>
+        <v>0.1659630448428723</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1037951599892897</v>
+        <v>0.0357347080023888</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2719294207400303</v>
+        <v>0.05229975566188283</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1635137095639809</v>
+        <v>0.0357347080023888</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2729983111635693</v>
+        <v>0.05229975566188283</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2974459015152104</v>
+        <v>0.2840826317373971</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2729983111635693</v>
+        <v>0.1671176801204793</v>
       </c>
       <c r="N236" t="n">
-        <v>0.4279871284730212</v>
+        <v>0.4203546038795508</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2728387947095373</v>
+        <v>0.1669392980478304</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1025216445183824</v>
+        <v>0.03435161155807014</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2735196512706737</v>
+        <v>0.05229227876345545</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1613846656905066</v>
+        <v>0.03435161155807014</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2745947925154031</v>
+        <v>0.05229227876345545</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2925783694269783</v>
+        <v>0.2822702678795928</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2745947925154031</v>
+        <v>0.1680949764954529</v>
       </c>
       <c r="N237" t="n">
-        <v>0.4256913866117983</v>
+        <v>0.4180055748928115</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2744343432166106</v>
+        <v>0.1679155512527884</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.09728077053871198</v>
+        <v>0.03300001390298347</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2751098818013172</v>
+        <v>0.05228480186502806</v>
       </c>
       <c r="J238" t="n">
-        <v>0.160525383419055</v>
+        <v>0.03300001390298347</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2761912738672368</v>
+        <v>0.05228480186502806</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2895369326476199</v>
+        <v>0.2816613245061888</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2761912738672368</v>
+        <v>0.1690722728704265</v>
       </c>
       <c r="N238" t="n">
-        <v>0.4211704982627191</v>
+        <v>0.4181657094078614</v>
       </c>
       <c r="O238" t="n">
-        <v>0.276029891723684</v>
+        <v>0.1688918044577465</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.08903532174740325</v>
+        <v>0.03168051468478818</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2767001123319606</v>
+        <v>0.05227732496660068</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1577588581084353</v>
+        <v>0.03168051468478818</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2777877552190706</v>
+        <v>0.05227732496660068</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2863824039490024</v>
+        <v>0.2824558518473868</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2777877552190706</v>
+        <v>0.1700495692454</v>
       </c>
       <c r="N239" t="n">
-        <v>0.4118306867477454</v>
+        <v>0.4174353226326377</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2776254402307573</v>
+        <v>0.1698680576627046</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.09078522699391445</v>
+        <v>0.03039126498986879</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2782903428626041</v>
+        <v>0.05226984806817331</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1553849764872024</v>
+        <v>0.03039126498986879</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2793842365709043</v>
+        <v>0.05226984806817331</v>
       </c>
       <c r="L240" t="n">
-        <v>0.2807145785910187</v>
+        <v>0.2832539001333883</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2793842365709043</v>
+        <v>0.1710268656203736</v>
       </c>
       <c r="N240" t="n">
-        <v>0.4099716563770402</v>
+        <v>0.4174147297750783</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2792209887378306</v>
+        <v>0.1708443108676627</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.09553041512770402</v>
+        <v>0.02911817309822755</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2798805733932475</v>
+        <v>0.05226237116974592</v>
       </c>
       <c r="J241" t="n">
-        <v>0.154603625283911</v>
+        <v>0.02911817309822755</v>
       </c>
       <c r="K241" t="n">
-        <v>0.280980717922738</v>
+        <v>0.05226237116974592</v>
       </c>
       <c r="L241" t="n">
-        <v>0.2777332518335612</v>
+        <v>0.282255519594395</v>
       </c>
       <c r="M241" t="n">
-        <v>0.280980717922738</v>
+        <v>0.1720041619953472</v>
       </c>
       <c r="N241" t="n">
-        <v>0.4007931114607673</v>
+        <v>0.4185042460431209</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2808165372449039</v>
+        <v>0.1718205640726207</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.09727081499823026</v>
+        <v>0.02785939009624903</v>
       </c>
       <c r="G242" t="n">
-        <v>0.281470803923891</v>
+        <v>0.05225489427131854</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1513146912271158</v>
+        <v>0.02785939009624903</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2825771992745718</v>
+        <v>0.05225489427131854</v>
       </c>
       <c r="L242" t="n">
-        <v>0.2751382189365228</v>
+        <v>0.2807607604606087</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2825771992745718</v>
+        <v>0.1729814583703208</v>
       </c>
       <c r="N242" t="n">
-        <v>0.3992947563090897</v>
+        <v>0.4191041866447027</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2824120857519772</v>
+        <v>0.1727968172775788</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.09200635545495151</v>
+        <v>0.02661551563159263</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2830610344545345</v>
+        <v>0.05224741737289116</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1501180610453716</v>
+        <v>0.02661551563159263</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2841736806264055</v>
+        <v>0.05224741737289116</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2724292751597963</v>
+        <v>0.2823696729622308</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2841736806264055</v>
+        <v>0.1739587547452943</v>
       </c>
       <c r="N243" t="n">
-        <v>0.3915762952321707</v>
+        <v>0.4154148667877616</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2840076342590506</v>
+        <v>0.1737730704825369</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.08773696534732608</v>
+        <v>0.0253871493519177</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2846512649851779</v>
+        <v>0.05223994047446377</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1479136214672329</v>
+        <v>0.0253871493519177</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2857701619782393</v>
+        <v>0.05223994047446377</v>
       </c>
       <c r="L244" t="n">
-        <v>0.2695062157632744</v>
+        <v>0.283182307329463</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2857701619782393</v>
+        <v>0.1749360511202679</v>
       </c>
       <c r="N244" t="n">
-        <v>0.3851374325401737</v>
+        <v>0.4148366016802353</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2856031827661239</v>
+        <v>0.1747493236874949</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.09046257352481238</v>
+        <v>0.02417489090488371</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2862414955158213</v>
+        <v>0.05223246357603639</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1453012592212544</v>
+        <v>0.02417489090488371</v>
       </c>
       <c r="K245" t="n">
-        <v>0.287366643330073</v>
+        <v>0.05223246357603639</v>
       </c>
       <c r="L245" t="n">
-        <v>0.2640688360068498</v>
+        <v>0.281198713792507</v>
       </c>
       <c r="M245" t="n">
-        <v>0.287366643330073</v>
+        <v>0.1759133474952414</v>
       </c>
       <c r="N245" t="n">
-        <v>0.3819778725432621</v>
+        <v>0.4130697065300611</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2871987312731972</v>
+        <v>0.175725576892453</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.08218310883686866</v>
+        <v>0.02297933993815</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2878317260464648</v>
+        <v>0.05222498667760901</v>
       </c>
       <c r="J246" t="n">
-        <v>0.143280861035991</v>
+        <v>0.02297933993815</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2889631246819067</v>
+        <v>0.05222498667760901</v>
       </c>
       <c r="L246" t="n">
-        <v>0.2602169311504152</v>
+        <v>0.2823189425815645</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2889631246819067</v>
+        <v>0.176890643870215</v>
       </c>
       <c r="N246" t="n">
-        <v>0.3745973195515988</v>
+        <v>0.4145144965451769</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2887942797802705</v>
+        <v>0.1767018300974111</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.08589850013295328</v>
+        <v>0.02180109609937596</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2894219565771083</v>
+        <v>0.05221750977918162</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1427523136399974</v>
+        <v>0.02180109609937596</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2905596060337404</v>
+        <v>0.05221750977918162</v>
       </c>
       <c r="L247" t="n">
-        <v>0.2572502964538634</v>
+        <v>0.2812430439268369</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2905596060337404</v>
+        <v>0.1778679402451886</v>
       </c>
       <c r="N247" t="n">
-        <v>0.3739954778753476</v>
+        <v>0.4150712869335198</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2903898282873438</v>
+        <v>0.1776780833023691</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.08560867626252464</v>
+        <v>0.02064075903622101</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2910121871077517</v>
+        <v>0.05221003288075424</v>
       </c>
       <c r="J248" t="n">
-        <v>0.139715503761828</v>
+        <v>0.02064075903622101</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2921560873855742</v>
+        <v>0.05221003288075424</v>
       </c>
       <c r="L248" t="n">
-        <v>0.2535687271770869</v>
+        <v>0.281771068058526</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2921560873855742</v>
+        <v>0.1788452366201621</v>
       </c>
       <c r="N248" t="n">
-        <v>0.3665720518246715</v>
+        <v>0.414740392903028</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2919853767944172</v>
+        <v>0.1786543365073272</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.08731356607504095</v>
+        <v>0.0194989283963445</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2926024176383952</v>
+        <v>0.05220255598232686</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1375703181300378</v>
+        <v>0.0194989283963445</v>
       </c>
       <c r="K249" t="n">
-        <v>0.293752568737408</v>
+        <v>0.05220255598232686</v>
       </c>
       <c r="L249" t="n">
-        <v>0.2479720185799789</v>
+        <v>0.2810030652068334</v>
       </c>
       <c r="M249" t="n">
-        <v>0.293752568737408</v>
+        <v>0.1798225329951357</v>
       </c>
       <c r="N249" t="n">
-        <v>0.3622267457097338</v>
+        <v>0.4136221296616386</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2935809253014905</v>
+        <v>0.1796305897122853</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.07901309841996065</v>
+        <v>0.01837620382740587</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2941926481690386</v>
+        <v>0.05219507908389948</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1369166434731815</v>
+        <v>0.01837620382740587</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2953490500892417</v>
+        <v>0.05219507908389948</v>
       </c>
       <c r="L250" t="n">
-        <v>0.2458599659224318</v>
+        <v>0.2814390856019607</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2953490500892417</v>
+        <v>0.1807998293701092</v>
       </c>
       <c r="N250" t="n">
-        <v>0.3536592638406978</v>
+        <v>0.4111168124172897</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2951764738085638</v>
+        <v>0.1806068429172434</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.07370720214674203</v>
+        <v>0.01727318497706448</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2957828786996821</v>
+        <v>0.0521876021854721</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1342543665198137</v>
+        <v>0.01727318497706448</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2969455314410754</v>
+        <v>0.0521876021854721</v>
       </c>
       <c r="L251" t="n">
-        <v>0.2434323644643384</v>
+        <v>0.2801791794741096</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2969455314410754</v>
+        <v>0.1817771257450828</v>
       </c>
       <c r="N251" t="n">
-        <v>0.3523693105277271</v>
+        <v>0.4101247563779185</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2967720223156371</v>
+        <v>0.1815830961222014</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.07639580610484342</v>
+        <v>0.01619047149297972</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2973731092303255</v>
+        <v>0.05218012528704472</v>
       </c>
       <c r="J252" t="n">
-        <v>0.132583373998489</v>
+        <v>0.01619047149297972</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2985420127929092</v>
+        <v>0.05218012528704472</v>
       </c>
       <c r="L252" t="n">
-        <v>0.2377890094655912</v>
+        <v>0.2832233970534817</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2985420127929092</v>
+        <v>0.1827544221200564</v>
       </c>
       <c r="N252" t="n">
-        <v>0.3431565900809846</v>
+        <v>0.4118462767514627</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2983675708227104</v>
+        <v>0.1825593493271595</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.07507883914372324</v>
+        <v>0.01512866302281103</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2989633397609689</v>
+        <v>0.05217264838861733</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1299035526377623</v>
+        <v>0.01512866302281103</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3001384941447429</v>
+        <v>0.05217264838861733</v>
       </c>
       <c r="L253" t="n">
-        <v>0.2359296961860834</v>
+        <v>0.2825717885702786</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3001384941447429</v>
+        <v>0.1837317184950299</v>
       </c>
       <c r="N253" t="n">
-        <v>0.3371208068106338</v>
+        <v>0.41038168874586</v>
       </c>
       <c r="O253" t="n">
-        <v>0.2999631193297838</v>
+        <v>0.1835356025321176</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.07475623011283969</v>
+        <v>0.01408835921421775</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3005535702916124</v>
+        <v>0.05216517149018995</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1269147891661882</v>
+        <v>0.01408835921421775</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3017349754965766</v>
+        <v>0.05216517149018995</v>
       </c>
       <c r="L254" t="n">
-        <v>0.2315542198857075</v>
+        <v>0.281524404254702</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3017349754965766</v>
+        <v>0.1847090148700035</v>
       </c>
       <c r="N254" t="n">
-        <v>0.3348616650268379</v>
+        <v>0.4109313075690477</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3015586678368571</v>
+        <v>0.1845118557370757</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.07542790786165124</v>
+        <v>0.01307015971485931</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3021438008222558</v>
+        <v>0.05215769459176257</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1256169703123214</v>
+        <v>0.01307015971485931</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3033314568484103</v>
+        <v>0.05215769459176257</v>
       </c>
       <c r="L255" t="n">
-        <v>0.2282623758243562</v>
+        <v>0.2827812943369535</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3033314568484103</v>
+        <v>0.1856863112449771</v>
       </c>
       <c r="N255" t="n">
-        <v>0.3308788690397604</v>
+        <v>0.4090954484289639</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3031542163439304</v>
+        <v>0.1854881089420337</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.07609380123961609</v>
+        <v>0.01207466417239506</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3037340313528993</v>
+        <v>0.05215021769333519</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1226099828047166</v>
+        <v>0.01207466417239506</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3049279382002441</v>
+        <v>0.05215021769333519</v>
       </c>
       <c r="L256" t="n">
-        <v>0.2246539592619221</v>
+        <v>0.2818425090472349</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3049279382002441</v>
+        <v>0.1866636076199506</v>
       </c>
       <c r="N256" t="n">
-        <v>0.3215721231595644</v>
+        <v>0.4083744265335457</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3047497648510037</v>
+        <v>0.1864643621469918</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0667538390961927</v>
+        <v>0.01110247223448443</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3053242618835428</v>
+        <v>0.0521427407949078</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1211937133719286</v>
+        <v>0.01110247223448443</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3065244195520778</v>
+        <v>0.0521427407949078</v>
       </c>
       <c r="L257" t="n">
-        <v>0.2200287654582982</v>
+        <v>0.2818080986157475</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3065244195520778</v>
+        <v>0.1876409039949242</v>
       </c>
       <c r="N257" t="n">
-        <v>0.3159411316964131</v>
+        <v>0.4085685570907311</v>
       </c>
       <c r="O257" t="n">
-        <v>0.306345313358077</v>
+        <v>0.1874406153519499</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.06540795028083932</v>
+        <v>0.0101541835487868</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3069144924141862</v>
+        <v>0.05213526389648042</v>
       </c>
       <c r="J258" t="n">
-        <v>0.118868048742512</v>
+        <v>0.0101541835487868</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3081209009039116</v>
+        <v>0.05213526389648042</v>
       </c>
       <c r="L258" t="n">
-        <v>0.2173865896733771</v>
+        <v>0.2802781132726931</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3081209009039116</v>
+        <v>0.1886182003698977</v>
       </c>
       <c r="N258" t="n">
-        <v>0.3135855989604701</v>
+        <v>0.4077781553084574</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3079408618651504</v>
+        <v>0.188416868556908</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.06705606364301431</v>
+        <v>0.009230397762961556</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3085047229448297</v>
+        <v>0.05212778699805304</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1171328756450215</v>
+        <v>0.009230397762961556</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3097173822557454</v>
+        <v>0.05212778699805304</v>
       </c>
       <c r="L259" t="n">
-        <v>0.2134272271670514</v>
+        <v>0.2800526032482734</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3097173822557454</v>
+        <v>0.1895954967448713</v>
       </c>
       <c r="N259" t="n">
-        <v>0.3085052292618986</v>
+        <v>0.4068035363946624</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3095364103722236</v>
+        <v>0.189393121761866</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.07269810803217605</v>
+        <v>0.008331714524668105</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3100949534754731</v>
+        <v>0.05212031009962565</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1152880808080119</v>
+        <v>0.008331714524668105</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3113138636075791</v>
+        <v>0.05212031009962565</v>
       </c>
       <c r="L260" t="n">
-        <v>0.208050473199214</v>
+        <v>0.28153161877269</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3113138636075791</v>
+        <v>0.1905727931198449</v>
       </c>
       <c r="N260" t="n">
-        <v>0.3000997269108618</v>
+        <v>0.4072450155572837</v>
       </c>
       <c r="O260" t="n">
-        <v>0.311131958879297</v>
+        <v>0.1903693749668241</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.07133401229778277</v>
+        <v>0.007458733481565838</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3116851840061166</v>
+        <v>0.05211283320119827</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1136335509600379</v>
+        <v>0.007458733481565838</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3129103449594128</v>
+        <v>0.05211283320119827</v>
       </c>
       <c r="L261" t="n">
-        <v>0.2029561230297577</v>
+        <v>0.2815152100761445</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3129103449594128</v>
+        <v>0.1915500894948184</v>
       </c>
       <c r="N261" t="n">
-        <v>0.295968796217523</v>
+        <v>0.4093029080042584</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3127275073863703</v>
+        <v>0.1913456281717822</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.06796370528929296</v>
+        <v>0.006612054281314131</v>
       </c>
       <c r="G262" t="n">
-        <v>0.31327541453676</v>
+        <v>0.05210535630277089</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1106691728296541</v>
+        <v>0.006612054281314131</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3145068263112465</v>
+        <v>0.05210535630277089</v>
       </c>
       <c r="L262" t="n">
-        <v>0.2016439719185753</v>
+        <v>0.2810034273888385</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3145068263112465</v>
+        <v>0.192527385869792</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2884121414920456</v>
+        <v>0.4065775289435249</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3143230558934436</v>
+        <v>0.1923218813767403</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0615871158561648</v>
+        <v>0.005792276571572386</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3148656450674035</v>
+        <v>0.0520978794043435</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1079948331454152</v>
+        <v>0.005792276571572386</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3161033076630803</v>
+        <v>0.0520978794043435</v>
       </c>
       <c r="L263" t="n">
-        <v>0.197613815125559</v>
+        <v>0.2826963209409737</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3161033076630803</v>
+        <v>0.1935046822447656</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2814294670445929</v>
+        <v>0.4068691935830203</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3159186044005169</v>
+        <v>0.1932981345816983</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.05620417284785676</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3164558755980469</v>
+        <v>0.05209040250591612</v>
       </c>
       <c r="J264" t="n">
-        <v>0.105910418635876</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.317699789014914</v>
+        <v>0.05209040250591612</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1932654479106022</v>
+        <v>0.2802939409627517</v>
       </c>
       <c r="M264" t="n">
-        <v>0.317699789014914</v>
+        <v>0.1944819786197391</v>
       </c>
       <c r="N264" t="n">
-        <v>0.2796204771853282</v>
+        <v>0.4086782171306824</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3175141529075902</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1942743877866564</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05207724461117928</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.05207724461117928</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.006739588356269269</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.0520775131396433</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.006739588356269269</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.0520775131396433</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.008470277677013832</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05207778166810732</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.008470277677013832</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.05207778166810732</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.01019197740606301</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05207805019657133</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.01019197740606301</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.05207805019657133</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.01190459698739635</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05207831872503535</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.01190459698739635</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.05207831872503535</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.01360804586484396</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05207858725349936</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.01360804586484396</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.05207858725349936</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.0153022334823846</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05207885578196338</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.0153022334823846</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.05207885578196338</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01698706928384917</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.0520791243104274</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.01698706928384917</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.0520791243104274</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01866246271321562</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05207939283889142</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.01866246271321562</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.05207939283889142</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.02032832321431566</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05207966136735544</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.02032832321431566</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.05207966136735544</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.02198456023112644</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05207992989581946</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.02198456023112644</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.05207992989581946</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.02363108320748052</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05208019842428347</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.02363108320748052</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.05208019842428347</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.02526780158735413</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05208046695274749</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.02526780158735413</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.05208046695274749</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.02689462481458076</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.0520807354812115</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.02689462481458076</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.0520807354812115</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.02851146233313571</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05208100400967552</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.02851146233313571</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.05208100400967552</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.03011822358685338</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05208127253813954</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.03011822358685338</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.05208127253813954</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.03171481801970825</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05208154106660356</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.03171481801970825</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.05208154106660356</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.03330115507553554</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05208180959506757</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.03330115507553554</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.05208180959506757</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.03487714419827463</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05208207812353158</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.03487714419827463</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.05208207812353158</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.03644269483186423</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.0520823466519956</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.03644269483186423</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.0520823466519956</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.0379977164201407</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05208261518045963</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.0379977164201407</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.05208261518045963</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.03954211840707643</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05208288370892365</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.03954211840707643</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.05208288370892365</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.04107581023650882</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05208315223738766</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.04107581023650882</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.05208315223738766</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.04259870135240927</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05208342076585168</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.04259870135240927</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.05208342076585168</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.04411070119861611</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05208368929431569</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.04411070119861611</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.05208368929431569</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.04561208898982248</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05208395782277971</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.04561208898982248</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.05208395782277971</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.04710499279420428</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05208422635124373</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.04710499279420428</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.05208422635124373</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.04858969182645385</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05208449487970775</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.04858969182645385</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.05208449487970775</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.05006609553041121</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05208476340817176</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.05006609553041121</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.05208476340817176</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.05153411335004525</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05208503193663578</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.05153411335004525</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.05208503193663578</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.05299365472919669</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05208530046509979</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.05299365472919669</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.05208530046509979</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.05444462911183369</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05208556899356381</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.05444462911183369</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.05208556899356381</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.05588694594179773</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05208583752202783</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.05588694594179773</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.05208583752202783</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.05732051466302517</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05208610605049185</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.05732051466302517</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.05208610605049185</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.0587452447194514</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05208637457895587</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.0587452447194514</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.05208637457895587</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.06016104555491923</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05208664310741988</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.06016104555491923</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.05208664310741988</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.06156782661339479</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.0520869116358839</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.06156782661339479</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.0520869116358839</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.06296549733872152</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05208718016434791</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.06296549733872152</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.05208718016434791</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.06435396717486484</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05208744869281193</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.06435396717486484</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.05208744869281193</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.06573314556566902</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05208771722127595</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.06573314556566902</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.05208771722127595</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.06710294195509868</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05208798574973997</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.06710294195509868</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.05208798574973997</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.06846326578699886</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05208825427820398</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.06846326578699886</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.05208825427820398</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.06981402650533332</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.052088522806668</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.06981402650533332</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.052088522806668</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.07115513355394797</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05208879133513202</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.07115513355394797</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.05208879133513202</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.07248649637680581</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05208905986359604</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.07248649637680581</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.05208905986359604</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.07380802441775348</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05208932839206006</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.07380802441775348</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.05208932839206006</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.07511962712075319</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05208959692052408</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.07511962712075319</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.05208959692052408</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.07642121392965241</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05208986544898809</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.07642121392965241</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.05208986544898809</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.07771269428841247</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05209013397745211</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.07771269428841247</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.05209013397745211</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.0789939776408818</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05209040250591612</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.0789939776408818</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.05209040250591612</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0789939776408818</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05207724461117928</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.0789939776408818</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.05207724461117928</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.08066157238248729</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0520852585665347</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.08066157238248729</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.0520852585665347</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.08231661748719037</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05209327252189012</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.08231661748719037</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.05209327252189012</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.08395888559876753</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05210128647724553</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.08395888559876753</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.05210128647724553</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.08558814936099522</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05210930043260095</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.08558814936099522</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.05210930043260095</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.08720418141764989</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05211731438795637</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.08720418141764989</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.05211731438795637</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.088806754412508</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05212532834331179</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.088806754412508</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.05212532834331179</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.09039564098934492</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05213334229866719</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.09039564098934492</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.05213334229866719</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.09197061379193928</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05214135625402262</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.09197061379193928</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.05214135625402262</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.09353144546406651</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05214937020937803</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.09353144546406651</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.05214937020937803</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.09507790864950301</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05215738416473345</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.09507790864950301</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.05215738416473345</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.09660977599202526</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05216539812008886</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.09660977599202526</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.05216539812008886</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0981268201354097</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05217341207544429</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.0981268201354097</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.05217341207544429</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.09962881372343278</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0521814260307997</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.09962881372343278</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.0521814260307997</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.101115529399871</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05218943998615512</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.101115529399871</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.05218943998615512</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.1025867398085008</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05219745394151053</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.1025867398085008</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.05219745394151053</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.1040422175930986</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05220546789686595</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.1040422175930986</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.05220546789686595</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.1054817353974409</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05221348185222137</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.1054817353974409</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.05221348185222137</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.1069050658653041</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05222149580757679</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.1069050658653041</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.05222149580757679</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.1083119816404638</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0522295097629322</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.1083119816404638</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.0522295097629322</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.1097022553666984</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05223752371828762</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.1097022553666984</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.05223752371828762</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.1110756596877832</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05224553767364303</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.1110756596877832</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.05224553767364303</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.1124319672474949</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05225355162899845</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.1124319672474949</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.05225355162899845</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.1137709506896097</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05226156558435387</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.1137709506896097</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.05226156558435387</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.1150923826579043</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05226957953970929</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.1150923826579043</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.05226957953970929</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.1163969641674012</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.0522775934950647</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.1163969641674012</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.0522775934950647</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.1176900380893536</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05228560745042012</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.1176900380893536</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.05228560745042012</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.1189723054387841</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05229362140577554</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.1189723054387841</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.05229362140577554</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.1202435388594691</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05230163536113095</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.1202435388594691</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.05230163536113095</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.1215035109951851</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05230964931648637</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.1215035109951851</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.05230964931648637</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.1227519944897087</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05231766327184179</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.1227519944897087</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.05231766327184179</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.1239887619868152</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0523256772271972</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.1239887619868152</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.0523256772271972</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.125213586130283</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05233369118255262</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.125213586130283</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.05233369118255262</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.1264262395638877</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05234170513790803</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.1264262395638877</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.05234170513790803</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.1276264949314058</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05234971909326345</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.1276264949314058</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.05234971909326345</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.1288141248766135</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05235773304861887</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.1288141248766135</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.05235773304861887</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.1299889020432875</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05236574700397428</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.1299889020432875</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.05236574700397428</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.1311505990752042</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0523737609593297</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.1311505990752042</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.0523737609593297</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.13229898861614</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05238177491468512</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.13229898861614</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.05238177491468512</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.1334338433098714</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05238978887004054</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.1334338433098714</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.05238978887004054</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.1345549358001749</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05239780282539595</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.1345549358001749</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.05239780282539595</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.1356620387308268</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05240581678075137</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.1356620387308268</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.05240581678075137</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.1367549247456038</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05241383073610679</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.1367549247456038</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.05241383073610679</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.1378333664882814</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0524218446914622</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.1378333664882814</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.0524218446914622</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.1388971366026377</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05242985864681762</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.1388971366026377</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.05242985864681762</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.1399460077324484</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05243787260217304</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.1399460077324484</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.05243787260217304</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.1409797525214898</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05244588655752845</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.1409797525214898</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.05244588655752845</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.1419981436135385</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05245390051288387</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.1419981436135385</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.05245390051288387</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.1430009536523709</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05246191446823929</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.1430009536523709</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.05246191446823929</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.1439879552817636</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05246992842359471</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.1439879552817636</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.05246992842359471</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.1439879552817636</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05246992842359471</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.1439879552817636</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.05246992842359471</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.1414706008552603</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05565035477225379</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.1414706008552603</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.05565035477225379</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.1392427549723955</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0588307811209129</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.1392427549723955</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.0588307811209129</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.1372878478988787</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06201120746957199</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.1372878478988787</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.06201120746957199</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.1355893099004197</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06519163381823109</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.1355893099004197</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.06519163381823109</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.1341305712427281</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06837206016689019</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.1341305712427281</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.06837206016689019</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.1328950621915136</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07155248651554928</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.1328950621915136</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.07155248651554928</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.131866213012486</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07473291286420837</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.131866213012486</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.07473291286420837</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.1310274539713547</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07791333921286747</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.1310274539713547</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.07791333921286747</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.1303622153338297</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08109376556152657</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.1303622153338297</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.08109376556152657</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.1298539273656204</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08427419191018566</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.1298539273656204</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.08427419191018566</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.1294860203324367</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08745461825884475</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.1294860203324367</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.08745461825884475</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.1292419244999881</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09063504460750385</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.1292419244999881</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.09063504460750385</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.1291050701339844</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09381547095616295</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.1291050701339844</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.09381547095616295</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.1290588875001352</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09699589730482205</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.1290588875001352</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.09699589730482205</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.1294813475558037</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1001763236534811</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.1294813475558037</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.1001763236534811</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.1307458861554457</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1033567500021402</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.1307458861554457</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1033567500021402</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.1325806415116673</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1065371763507993</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.1325806415116673</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1065371763507993</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.1347098613644266</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1097176026994584</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.1347098613644266</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1097176026994584</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.1368577934536817</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1128980290481175</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.1368577934536817</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1128980290481175</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.1387486855193908</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1160784553967766</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.1387486855193908</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1160784553967766</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.140106785301512</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1192588817454357</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.140106785301512</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1192588817454357</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.1406563405400035</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1224393080940948</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.1406563405400035</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1224393080940948</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.1404115165581529</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1256197344427539</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.1404115165581529</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1256197344427539</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.1396518356917615</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.128800160791413</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.1396518356917615</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.128800160791413</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.1384252168881218</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1319805871400721</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.1384252168881218</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1319805871400721</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.1367789411153905</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1351610134887312</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.1367789411153905</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1351610134887312</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.1347602893417242</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1383414398373903</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.1347602893417242</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1383414398373903</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.1324165425352795</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1415218661860494</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.1324165425352795</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1415218661860494</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.129794981664213</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1447022925347085</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.129794981664213</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1447022925347085</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.1269428876966812</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1478827188833676</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.1269428876966812</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1478827188833676</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.1239075416008409</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.1239075416008409</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.1207362243448484</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1542435715806858</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.1207362243448484</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1542435715806858</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.1174762168968606</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1574239979293449</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.1174762168968606</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1574239979293449</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.1138868987072201</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1606044242780039</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.1138868987072201</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1606044242780039</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.1077051052919522</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1637848506266631</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.1077051052919522</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1637848506266631</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.1008009382955315</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1669652769753222</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.1008009382955315</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1669652769753222</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.09613641722673939</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1701457033239813</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.09613641722673939</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1701457033239813</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.0955617582203198</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1733261296726403</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.0955617582203198</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1733261296726403</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.09559648578858844</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1765065560212994</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.09559648578858844</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1765065560212994</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.09566625882556316</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1796869823699585</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.09566625882556316</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1796869823699585</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.09577346542120095</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1828674087186176</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.09577346542120095</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1828674087186176</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.09592049366545889</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1860478350672767</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.09592049366545889</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1860478350672767</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.09610973164829399</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1892282614159358</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.09610973164829399</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1892282614159358</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.09634356745966326</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1924086877645949</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.09634356745966326</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1924086877645949</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.09662438918952378</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.195589114113254</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.09662438918952378</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.195589114113254</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.09714220388249738</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1987695404619131</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.09714220388249738</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1987695404619131</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.0995882066236241</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2019499668105722</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.0995882066236241</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.2019499668105722</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.1030203530313915</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2051303931592313</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.1030203530313915</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2051303931592313</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.1057596010769549</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2083108195078904</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.1057596010769549</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2083108195078904</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1077230821184382</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2114912458565495</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.1077230821184382</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2114912458565495</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1094938705444439</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2146716722052086</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.1094938705444439</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2146716722052086</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.1111255140810736</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2178520985538677</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.1111255140810736</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2178520985538677</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.1126715604544289</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2210325249025268</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.1126715604544289</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2210325249025268</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.1141855573906115</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2242129512511859</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.1141855573906115</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2242129512511859</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.1157008580994328</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.227393377599845</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.1157008580994328</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.227393377599845</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.1170519895536912</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2305738039485041</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.1170519895536912</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2305738039485041</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.118333063846058</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2337542302971632</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.118333063846058</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2337542302971632</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.1197256859405434</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2369346566458223</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.1197256859405434</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2369346566458223</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.1214114608011577</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2401150829944813</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.1214114608011577</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2401150829944813</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.1236878508897672</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2432955093431405</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.1236878508897672</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2432955093431405</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.1266899163941813</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2464759356917995</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.1266899163941813</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2464759356917995</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.1303193292434989</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2496563620404586</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.1303193292434989</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2496563620404586</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.1344775348683758</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2528367883891177</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.1344775348683758</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2528367883891177</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.1390659786994677</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2560172147377768</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.1390659786994677</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2560172147377768</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.1439861061674302</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2591976410864359</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.1439861061674302</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2591976410864359</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1491393627029192</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.262378067435095</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.1491393627029192</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.262378067435095</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.1544271937365903</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2655584937837541</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.1544271937365903</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2655584937837541</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.1597510446990992</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2687389201324132</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.1597510446990992</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2687389201324132</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.1650123610211017</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2719193464810723</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.1650123610211017</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2719193464810723</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.1701125881332533</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2750997728297314</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.1701125881332533</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2750997728297314</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.17495317146621</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2782801991783905</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.17495317146621</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2782801991783905</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.1794355564506274</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2814606255270496</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.1794355564506274</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2814606255270496</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.183461188517161</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2846410518757087</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.183461188517161</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2846410518757087</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.1869315130964668</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2878214782243678</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.1869315130964668</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2878214782243678</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.1897479756192004</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2910019045730269</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.1897479756192004</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2910019045730269</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.1918120215160175</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2941823309216859</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.1918120215160175</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2941823309216859</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.1933172737090181</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2973627572703451</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.1933172737090181</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2973627572703451</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.1931126240599528</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3005431836190042</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.1931126240599528</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.3005431836190042</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.1881463691557452</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3037236099676632</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.1881463691557452</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3037236099676632</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.1779028604463929</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3069040363163223</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.1779028604463929</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3069040363163223</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1642008730042371</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3100844626649815</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.1642008730042371</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3100844626649815</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1488591819016188</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3132648890136405</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.1488591819016188</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3132648890136405</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.1336965622108794</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3164453153622996</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.1336965622108794</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3164453153622996</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.1205317890043599</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3196257417109588</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.1205317890043599</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3196257417109588</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.1111836373544014</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3228061680596179</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.1111836373544014</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3228061680596179</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.106149001753023</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3259865944082769</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.106149001753023</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3259865944082769</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.101682278366588</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.329167020756936</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.101682278366588</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.329167020756936</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.09742020911664857</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3323474471055952</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.09742020911664857</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3323474471055952</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.09338936309852126</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3355278734542542</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.09338936309852126</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3355278734542542</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.08961630940752273</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3387082998029133</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.08961630940752273</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3387082998029133</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.08612761713896945</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3418887261515725</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.08612761713896945</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3418887261515725</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.08294985538817805</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3450691525002315</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.08294985538817805</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3450691525002315</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.08010959325046509</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3482495788488906</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.08010959325046509</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3482495788488906</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.07763339982114707</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3514300051975497</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.07763339982114707</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3514300051975497</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.07554784419554068</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3546104315462088</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.07554784419554068</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3546104315462088</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0738794954689624</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3577908578948679</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.0738794954689624</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3577908578948679</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.07265492273672884</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.360971284243527</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.07265492273672884</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.360971284243527</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.07190069509415654</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3641517105921861</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.07190069509415654</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3641517105921861</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0716433816365621</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3673321369408452</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.0716433816365621</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3673321369408452</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
